--- a/data_acquisition/wing_leakage_data_samples_filt.xlsx
+++ b/data_acquisition/wing_leakage_data_samples_filt.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="43">
   <si>
     <t xml:space="preserve">sample_number</t>
   </si>
@@ -139,6 +139,9 @@
     <t xml:space="preserve">residual flow of 0.010 in mfc7 and 0.0173 in mfc10</t>
   </si>
   <si>
+    <t xml:space="preserve">missed</t>
+  </si>
+  <si>
     <t xml:space="preserve">observed residual leakage of 0.0167 in mfc10</t>
   </si>
   <si>
@@ -155,7 +158,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -183,11 +186,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -259,16 +257,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -350,8 +348,8 @@
   </sheetPr>
   <dimension ref="A1:S2007"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1965" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2003" activeCellId="0" sqref="A2003"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A697" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q712" activeCellId="0" sqref="Q712"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24482,6 +24480,9 @@
         <f aca="false">SUM(F523:O523)</f>
         <v>0</v>
       </c>
+      <c r="Q523" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="R523" s="1" t="n">
         <v>8</v>
       </c>
@@ -24870,7 +24871,7 @@
         <v>0.38</v>
       </c>
       <c r="Q534" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R534" s="1" t="n">
         <v>9</v>
@@ -24949,7 +24950,7 @@
       <c r="F536" s="1" t="n">
         <v>0.0459</v>
       </c>
-      <c r="G536" s="5" t="n">
+      <c r="G536" s="6" t="n">
         <v>0.0537</v>
       </c>
       <c r="H536" s="1" t="n">
@@ -30057,7 +30058,7 @@
         <v>0.6714</v>
       </c>
       <c r="Q655" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R655" s="1" t="n">
         <v>10</v>
@@ -32444,6 +32445,9 @@
         <f aca="false">SUM(F709:O709)</f>
         <v>0</v>
       </c>
+      <c r="Q709" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="R709" s="1" t="n">
         <v>10</v>
       </c>
@@ -32489,6 +32493,9 @@
         <f aca="false">SUM(F711:O711)</f>
         <v>0</v>
       </c>
+      <c r="Q711" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="R711" s="1" t="n">
         <v>10</v>
       </c>
@@ -34224,7 +34231,7 @@
         <v>0.3298</v>
       </c>
       <c r="Q748" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R748" s="1" t="n">
         <v>11</v>
@@ -61933,10 +61940,10 @@
       <c r="C2002" s="1" t="n">
         <v>2100</v>
       </c>
-      <c r="D2002" s="6" t="n">
+      <c r="D2002" s="7" t="n">
         <v>14680</v>
       </c>
-      <c r="E2002" s="7" t="n">
+      <c r="E2002" s="6" t="n">
         <v>3350</v>
       </c>
       <c r="F2002" s="1" t="n">
@@ -62032,8 +62039,8 @@
       </c>
     </row>
     <row r="2007" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D2007" s="6"/>
-      <c r="E2007" s="7"/>
+      <c r="D2007" s="7"/>
+      <c r="E2007" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data_acquisition/wing_leakage_data_samples_filt.xlsx
+++ b/data_acquisition/wing_leakage_data_samples_filt.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="49">
   <si>
     <t xml:space="preserve">sample_number</t>
   </si>
@@ -115,13 +115,10 @@
     <t xml:space="preserve">didn’t check residual leakage on port 10. fixed leakage with 2 step method</t>
   </si>
   <si>
-    <t xml:space="preserve">Repeat</t>
+    <t xml:space="preserve">repeat</t>
   </si>
   <si>
     <t xml:space="preserve">Not sure if I will be able to seal the leakage on y axis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">repeat</t>
   </si>
   <si>
     <t xml:space="preserve">needle change 1. sum seems to be higher after needle change</t>
@@ -369,8 +366,8 @@
   </sheetPr>
   <dimension ref="A1:X2007"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A930" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K959" activeCellId="0" sqref="K959"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A945" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O972" activeCellId="0" sqref="O972"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9365,7 +9362,7 @@
         <v>0</v>
       </c>
       <c r="V194" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W194" s="1" t="n">
         <v>4</v>
@@ -11504,7 +11501,7 @@
         <v>0</v>
       </c>
       <c r="V236" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W236" s="1" t="n">
         <v>5</v>
@@ -11672,7 +11669,7 @@
         <v>0.7047</v>
       </c>
       <c r="V239" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W239" s="1" t="n">
         <v>5</v>
@@ -11726,7 +11723,7 @@
         <v>0.3772</v>
       </c>
       <c r="V240" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W240" s="1" t="n">
         <v>5</v>
@@ -12881,7 +12878,7 @@
         <v>0</v>
       </c>
       <c r="V266" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W266" s="1" t="n">
         <v>5</v>
@@ -14090,7 +14087,7 @@
         <v>0</v>
       </c>
       <c r="V292" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W292" s="1" t="n">
         <v>5</v>
@@ -14273,7 +14270,7 @@
         <v>0</v>
       </c>
       <c r="V296" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W296" s="1" t="n">
         <v>5</v>
@@ -15470,7 +15467,7 @@
         <v>0.7158</v>
       </c>
       <c r="V321" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W321" s="1" t="n">
         <v>6</v>
@@ -15905,7 +15902,7 @@
         <v>0.6528</v>
       </c>
       <c r="V329" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W329" s="1" t="n">
         <v>6</v>
@@ -16016,7 +16013,7 @@
         <v>0.6449</v>
       </c>
       <c r="V331" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W331" s="1" t="n">
         <v>6</v>
@@ -16343,7 +16340,7 @@
         <v>0.6147</v>
       </c>
       <c r="V337" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W337" s="1" t="n">
         <v>6</v>
@@ -17252,7 +17249,7 @@
         <v>0</v>
       </c>
       <c r="V356" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W356" s="1" t="n">
         <v>6</v>
@@ -18110,7 +18107,7 @@
         <v>0</v>
       </c>
       <c r="V378" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W378" s="1" t="n">
         <v>6</v>
@@ -18401,7 +18398,7 @@
         <v>0</v>
       </c>
       <c r="V386" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W386" s="1" t="n">
         <v>6</v>
@@ -18665,7 +18662,7 @@
         <v>0</v>
       </c>
       <c r="V392" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W392" s="1" t="n">
         <v>6</v>
@@ -19712,7 +19709,7 @@
         <v>0</v>
       </c>
       <c r="V414" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W414" s="1" t="n">
         <v>6</v>
@@ -19976,7 +19973,7 @@
         <v>0</v>
       </c>
       <c r="V420" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W420" s="1" t="n">
         <v>6</v>
@@ -20303,7 +20300,7 @@
         <v>0.3265</v>
       </c>
       <c r="V426" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W426" s="1" t="n">
         <v>7</v>
@@ -21053,7 +21050,7 @@
         <v>0</v>
       </c>
       <c r="V442" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W442" s="1" t="n">
         <v>7</v>
@@ -21299,7 +21296,7 @@
         <v>0</v>
       </c>
       <c r="V447" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W447" s="1" t="n">
         <v>7</v>
@@ -21323,7 +21320,7 @@
         <v>0</v>
       </c>
       <c r="V448" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W448" s="1" t="n">
         <v>7</v>
@@ -21353,7 +21350,7 @@
         <v>0</v>
       </c>
       <c r="V449" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W449" s="1" t="n">
         <v>7</v>
@@ -21614,7 +21611,7 @@
         <v>0</v>
       </c>
       <c r="V456" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W456" s="1" t="n">
         <v>7</v>
@@ -21797,7 +21794,7 @@
         <v>0</v>
       </c>
       <c r="V460" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W460" s="1" t="n">
         <v>7</v>
@@ -21953,7 +21950,7 @@
         <v>0</v>
       </c>
       <c r="V464" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W464" s="1" t="n">
         <v>7</v>
@@ -23390,7 +23387,7 @@
         <v>0.6291</v>
       </c>
       <c r="V497" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W497" s="1" t="n">
         <v>7</v>
@@ -23798,7 +23795,7 @@
         <v>0.6789</v>
       </c>
       <c r="V507" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W507" s="1" t="n">
         <v>8</v>
@@ -23816,7 +23813,7 @@
         <v>0</v>
       </c>
       <c r="V508" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W508" s="1" t="n">
         <v>8</v>
@@ -24521,7 +24518,7 @@
         <v>0</v>
       </c>
       <c r="V523" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W523" s="1" t="n">
         <v>8</v>
@@ -24539,7 +24536,7 @@
         <v>0</v>
       </c>
       <c r="V524" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W524" s="1" t="n">
         <v>8</v>
@@ -24911,7 +24908,7 @@
         <v>0.38</v>
       </c>
       <c r="V534" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W534" s="1" t="n">
         <v>9</v>
@@ -25310,7 +25307,7 @@
         <v>0</v>
       </c>
       <c r="V542" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W542" s="1" t="n">
         <v>9</v>
@@ -25952,7 +25949,7 @@
         <v>0</v>
       </c>
       <c r="V556" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W556" s="1" t="n">
         <v>9</v>
@@ -26054,7 +26051,7 @@
         <v>0</v>
       </c>
       <c r="V560" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W560" s="1" t="n">
         <v>9</v>
@@ -26129,7 +26126,7 @@
         <v>0</v>
       </c>
       <c r="V562" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W562" s="1" t="n">
         <v>9</v>
@@ -26231,7 +26228,7 @@
         <v>0</v>
       </c>
       <c r="V566" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W566" s="1" t="n">
         <v>9</v>
@@ -26279,7 +26276,7 @@
         <v>0</v>
       </c>
       <c r="V568" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W568" s="1" t="n">
         <v>9</v>
@@ -26651,7 +26648,7 @@
         <v>0</v>
       </c>
       <c r="V576" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W576" s="1" t="n">
         <v>9</v>
@@ -26834,7 +26831,7 @@
         <v>0</v>
       </c>
       <c r="V580" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W580" s="1" t="n">
         <v>9</v>
@@ -28124,7 +28121,7 @@
         <v>0</v>
       </c>
       <c r="V606" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W606" s="1" t="n">
         <v>9</v>
@@ -28307,7 +28304,7 @@
         <v>0</v>
       </c>
       <c r="V610" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W610" s="1" t="n">
         <v>9</v>
@@ -28598,7 +28595,7 @@
         <v>0</v>
       </c>
       <c r="V616" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W616" s="1" t="n">
         <v>9</v>
@@ -29888,7 +29885,7 @@
         <v>0</v>
       </c>
       <c r="V650" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W650" s="1" t="n">
         <v>9</v>
@@ -29963,7 +29960,7 @@
         <v>0</v>
       </c>
       <c r="V652" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W652" s="1" t="n">
         <v>9</v>
@@ -30038,7 +30035,7 @@
         <v>0</v>
       </c>
       <c r="V654" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W654" s="1" t="n">
         <v>9</v>
@@ -30098,7 +30095,7 @@
         <v>0.6714</v>
       </c>
       <c r="V655" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W655" s="1" t="n">
         <v>10</v>
@@ -30197,7 +30194,7 @@
         <v>0</v>
       </c>
       <c r="V658" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W658" s="1" t="n">
         <v>10</v>
@@ -30785,7 +30782,7 @@
         <v>0</v>
       </c>
       <c r="V670" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W670" s="1" t="n">
         <v>10</v>
@@ -30860,7 +30857,7 @@
         <v>0</v>
       </c>
       <c r="V672" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W672" s="1" t="n">
         <v>10</v>
@@ -31475,7 +31472,7 @@
         <v>0</v>
       </c>
       <c r="V684" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W684" s="1" t="n">
         <v>10</v>
@@ -31874,7 +31871,7 @@
         <v>0</v>
       </c>
       <c r="V692" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W692" s="1" t="n">
         <v>10</v>
@@ -31922,7 +31919,7 @@
         <v>0</v>
       </c>
       <c r="V694" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W694" s="1" t="n">
         <v>10</v>
@@ -32456,7 +32453,7 @@
         <v>0</v>
       </c>
       <c r="V708" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W708" s="1" t="n">
         <v>10</v>
@@ -32486,7 +32483,7 @@
         <v>0</v>
       </c>
       <c r="V709" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W709" s="1" t="n">
         <v>10</v>
@@ -32504,7 +32501,7 @@
         <v>0</v>
       </c>
       <c r="V710" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W710" s="1" t="n">
         <v>10</v>
@@ -32534,7 +32531,7 @@
         <v>0</v>
       </c>
       <c r="V711" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W711" s="1" t="n">
         <v>10</v>
@@ -33119,7 +33116,7 @@
         <v>0</v>
       </c>
       <c r="V724" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W724" s="1" t="n">
         <v>10</v>
@@ -33302,7 +33299,7 @@
         <v>0</v>
       </c>
       <c r="V728" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W728" s="1" t="n">
         <v>10</v>
@@ -34160,7 +34157,7 @@
         <v>0</v>
       </c>
       <c r="V746" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W746" s="1" t="n">
         <v>10</v>
@@ -34271,7 +34268,7 @@
         <v>0.3298</v>
       </c>
       <c r="V748" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W748" s="1" t="n">
         <v>11</v>
@@ -34778,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="V760" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W760" s="1" t="n">
         <v>11</v>
@@ -35231,7 +35228,7 @@
         <v>0</v>
       </c>
       <c r="V772" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W772" s="1" t="n">
         <v>11</v>
@@ -35522,7 +35519,7 @@
         <v>0</v>
       </c>
       <c r="V782" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W782" s="1" t="n">
         <v>11</v>
@@ -35597,7 +35594,7 @@
         <v>0</v>
       </c>
       <c r="V784" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W784" s="1" t="n">
         <v>11</v>
@@ -35672,7 +35669,7 @@
         <v>0</v>
       </c>
       <c r="V786" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W786" s="1" t="n">
         <v>11</v>
@@ -35747,7 +35744,7 @@
         <v>0</v>
       </c>
       <c r="V788" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W788" s="1" t="n">
         <v>11</v>
@@ -36956,7 +36953,7 @@
         <v>0</v>
       </c>
       <c r="V814" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W814" s="1" t="n">
         <v>11</v>
@@ -37247,7 +37244,7 @@
         <v>0</v>
       </c>
       <c r="V822" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W822" s="1" t="n">
         <v>11</v>
@@ -37430,7 +37427,7 @@
         <v>0</v>
       </c>
       <c r="V828" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W828" s="1" t="n">
         <v>11</v>
@@ -37640,7 +37637,7 @@
         <v>0</v>
       </c>
       <c r="V834" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W834" s="1" t="n">
         <v>11</v>
@@ -38003,7 +38000,7 @@
         <v>0</v>
       </c>
       <c r="V844" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X844" s="1" t="n">
         <v>1</v>
@@ -38678,7 +38675,7 @@
         <v>0</v>
       </c>
       <c r="V860" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X860" s="1" t="n">
         <v>1</v>
@@ -38873,7 +38870,7 @@
         <v>0.0103</v>
       </c>
       <c r="V865" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W865" s="1" t="n">
         <v>13</v>
@@ -38891,7 +38888,7 @@
         <v>0</v>
       </c>
       <c r="V866" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W866" s="1" t="n">
         <v>13</v>
@@ -39800,7 +39797,7 @@
         <v>0</v>
       </c>
       <c r="V883" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W883" s="1" t="n">
         <v>13</v>
@@ -39824,7 +39821,7 @@
         <v>0</v>
       </c>
       <c r="V884" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W884" s="1" t="n">
         <v>13</v>
@@ -39854,7 +39851,7 @@
         <v>0</v>
       </c>
       <c r="V885" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W885" s="1" t="n">
         <v>13</v>
@@ -40034,7 +40031,7 @@
         <v>0</v>
       </c>
       <c r="V890" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W890" s="1" t="n">
         <v>13</v>
@@ -40175,7 +40172,7 @@
         <v>0</v>
       </c>
       <c r="V893" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W893" s="1" t="n">
         <v>13</v>
@@ -40274,7 +40271,7 @@
         <v>0</v>
       </c>
       <c r="V896" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W896" s="1" t="n">
         <v>13</v>
@@ -41267,7 +41264,7 @@
         <v>0</v>
       </c>
       <c r="V916" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W916" s="1" t="n">
         <v>13</v>
@@ -41558,7 +41555,7 @@
         <v>0</v>
       </c>
       <c r="V924" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W924" s="1" t="n">
         <v>13</v>
@@ -41588,7 +41585,7 @@
         <v>0</v>
       </c>
       <c r="V925" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W925" s="1" t="n">
         <v>13</v>
@@ -41714,7 +41711,7 @@
         <v>0</v>
       </c>
       <c r="V928" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W928" s="1" t="n">
         <v>13</v>
@@ -41744,7 +41741,7 @@
         <v>0</v>
       </c>
       <c r="V929" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W929" s="1" t="n">
         <v>13</v>
@@ -41768,7 +41765,7 @@
         <v>0</v>
       </c>
       <c r="V930" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W930" s="1" t="n">
         <v>14</v>
@@ -41951,7 +41948,7 @@
         <v>0</v>
       </c>
       <c r="V934" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W934" s="1" t="n">
         <v>14</v>
@@ -42026,7 +42023,7 @@
         <v>0</v>
       </c>
       <c r="V936" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W936" s="1" t="n">
         <v>14</v>
@@ -42344,7 +42341,7 @@
         <v>0</v>
       </c>
       <c r="V944" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W944" s="1" t="n">
         <v>14</v>
@@ -42527,7 +42524,7 @@
         <v>0</v>
       </c>
       <c r="V948" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W948" s="1" t="n">
         <v>14</v>
@@ -42629,7 +42626,7 @@
         <v>0</v>
       </c>
       <c r="V952" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W952" s="1" t="n">
         <v>14</v>
@@ -42978,9 +42975,39 @@
       <c r="E959" s="1" t="n">
         <v>3350</v>
       </c>
+      <c r="F959" s="1" t="n">
+        <v>0.0139</v>
+      </c>
+      <c r="G959" s="1" t="n">
+        <v>0.0376</v>
+      </c>
+      <c r="H959" s="1" t="n">
+        <v>0.0883</v>
+      </c>
+      <c r="I959" s="1" t="n">
+        <v>0.0929</v>
+      </c>
+      <c r="J959" s="1" t="n">
+        <v>0.0708</v>
+      </c>
+      <c r="K959" s="1" t="n">
+        <v>0.0131</v>
+      </c>
+      <c r="L959" s="1" t="n">
+        <v>0.0304</v>
+      </c>
+      <c r="M959" s="1" t="n">
+        <v>0.0618</v>
+      </c>
+      <c r="N959" s="1" t="n">
+        <v>0.1125</v>
+      </c>
+      <c r="O959" s="1" t="n">
+        <v>0.1645</v>
+      </c>
       <c r="P959" s="1" t="n">
         <f aca="false">SUM(F959:O959)</f>
-        <v>0</v>
+        <v>0.6858</v>
       </c>
       <c r="W959" s="1" t="n">
         <v>14</v>
@@ -42998,7 +43025,7 @@
         <v>0</v>
       </c>
       <c r="V960" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W960" s="1" t="n">
         <v>14</v>
@@ -43023,9 +43050,39 @@
       <c r="E961" s="1" t="n">
         <v>4850</v>
       </c>
+      <c r="F961" s="1" t="n">
+        <v>0.0177</v>
+      </c>
+      <c r="G961" s="1" t="n">
+        <v>0.0476</v>
+      </c>
+      <c r="H961" s="1" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I961" s="1" t="n">
+        <v>0.2217</v>
+      </c>
+      <c r="J961" s="1" t="n">
+        <v>0.0495</v>
+      </c>
+      <c r="K961" s="1" t="n">
+        <v>0.0166</v>
+      </c>
+      <c r="L961" s="1" t="n">
+        <v>0.0365</v>
+      </c>
+      <c r="M961" s="1" t="n">
+        <v>0.0698</v>
+      </c>
+      <c r="N961" s="1" t="n">
+        <v>0.0735</v>
+      </c>
+      <c r="O961" s="1" t="n">
+        <v>0.044</v>
+      </c>
       <c r="P961" s="1" t="n">
         <f aca="false">SUM(F961:O961)</f>
-        <v>0</v>
+        <v>0.7019</v>
       </c>
       <c r="W961" s="1" t="n">
         <v>14</v>
@@ -43044,9 +43101,39 @@
       <c r="C962" s="1" t="n">
         <v>4850</v>
       </c>
+      <c r="F962" s="1" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="G962" s="1" t="n">
+        <v>0.0229</v>
+      </c>
+      <c r="H962" s="1" t="n">
+        <v>0.0577</v>
+      </c>
+      <c r="I962" s="1" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="J962" s="1" t="n">
+        <v>0.0356</v>
+      </c>
+      <c r="K962" s="1" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="L962" s="1" t="n">
+        <v>0.0184</v>
+      </c>
+      <c r="M962" s="1" t="n">
+        <v>0.0291</v>
+      </c>
+      <c r="N962" s="1" t="n">
+        <v>0.0375</v>
+      </c>
+      <c r="O962" s="1" t="n">
+        <v>0.0277</v>
+      </c>
       <c r="P962" s="1" t="n">
         <f aca="false">SUM(F962:O962)</f>
-        <v>0</v>
+        <v>0.4199</v>
       </c>
       <c r="W962" s="1" t="n">
         <v>14</v>
@@ -43071,9 +43158,39 @@
       <c r="E963" s="1" t="n">
         <v>2100</v>
       </c>
+      <c r="F963" s="1" t="n">
+        <v>0.0246</v>
+      </c>
+      <c r="G963" s="1" t="n">
+        <v>0.0561</v>
+      </c>
+      <c r="H963" s="1" t="n">
+        <v>0.1015</v>
+      </c>
+      <c r="I963" s="1" t="n">
+        <v>0.1915</v>
+      </c>
+      <c r="J963" s="1" t="n">
+        <v>0.0419</v>
+      </c>
+      <c r="K963" s="1" t="n">
+        <v>0.0256</v>
+      </c>
+      <c r="L963" s="1" t="n">
+        <v>0.0576</v>
+      </c>
+      <c r="M963" s="1" t="n">
+        <v>0.1008</v>
+      </c>
+      <c r="N963" s="1" t="n">
+        <v>0.0676</v>
+      </c>
+      <c r="O963" s="1" t="n">
+        <v>0.0375</v>
+      </c>
       <c r="P963" s="1" t="n">
         <f aca="false">SUM(F963:O963)</f>
-        <v>0</v>
+        <v>0.7047</v>
       </c>
       <c r="W963" s="1" t="n">
         <v>14</v>
@@ -43091,7 +43208,7 @@
         <v>0</v>
       </c>
       <c r="V964" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W964" s="1" t="n">
         <v>14</v>
@@ -43120,6 +43237,9 @@
         <f aca="false">SUM(F965:O965)</f>
         <v>0</v>
       </c>
+      <c r="V965" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="W965" s="1" t="n">
         <v>14</v>
       </c>
@@ -43141,6 +43261,9 @@
         <f aca="false">SUM(F966:O966)</f>
         <v>0</v>
       </c>
+      <c r="V966" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="W966" s="1" t="n">
         <v>14</v>
       </c>
@@ -43168,6 +43291,9 @@
         <f aca="false">SUM(F967:O967)</f>
         <v>0</v>
       </c>
+      <c r="V967" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="W967" s="1" t="n">
         <v>14</v>
       </c>
@@ -43189,6 +43315,9 @@
         <f aca="false">SUM(F968:O968)</f>
         <v>0</v>
       </c>
+      <c r="V968" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="W968" s="1" t="n">
         <v>14</v>
       </c>
@@ -43216,6 +43345,9 @@
         <f aca="false">SUM(F969:O969)</f>
         <v>0</v>
       </c>
+      <c r="V969" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="W969" s="1" t="n">
         <v>14</v>
       </c>
@@ -43233,9 +43365,39 @@
       <c r="C970" s="1" t="n">
         <v>1350</v>
       </c>
+      <c r="F970" s="1" t="n">
+        <v>0.0527</v>
+      </c>
+      <c r="G970" s="1" t="n">
+        <v>0.0517</v>
+      </c>
+      <c r="H970" s="1" t="n">
+        <v>0.0282</v>
+      </c>
+      <c r="I970" s="1" t="n">
+        <v>0.0134</v>
+      </c>
+      <c r="J970" s="1" t="n">
+        <v>0.0118</v>
+      </c>
+      <c r="K970" s="1" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="L970" s="1" t="n">
+        <v>0.0973</v>
+      </c>
+      <c r="M970" s="1" t="n">
+        <v>0.0346</v>
+      </c>
+      <c r="N970" s="1" t="n">
+        <v>0.0143</v>
+      </c>
+      <c r="O970" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="P970" s="1" t="n">
         <f aca="false">SUM(F970:O970)</f>
-        <v>0</v>
+        <v>0.403</v>
       </c>
       <c r="W970" s="1" t="n">
         <v>14</v>
@@ -43260,9 +43422,39 @@
       <c r="E971" s="1" t="n">
         <v>1600</v>
       </c>
+      <c r="F971" s="1" t="n">
+        <v>0.0486</v>
+      </c>
+      <c r="G971" s="1" t="n">
+        <v>0.0487</v>
+      </c>
+      <c r="H971" s="1" t="n">
+        <v>0.0316</v>
+      </c>
+      <c r="I971" s="1" t="n">
+        <v>0.0387</v>
+      </c>
+      <c r="J971" s="1" t="n">
+        <v>0.0694</v>
+      </c>
+      <c r="K971" s="1" t="n">
+        <v>0.0942</v>
+      </c>
+      <c r="L971" s="1" t="n">
+        <v>0.0949</v>
+      </c>
+      <c r="M971" s="1" t="n">
+        <v>0.0395</v>
+      </c>
+      <c r="N971" s="1" t="n">
+        <v>0.0556</v>
+      </c>
+      <c r="O971" s="1" t="n">
+        <v>0.1965</v>
+      </c>
       <c r="P971" s="1" t="n">
         <f aca="false">SUM(F971:O971)</f>
-        <v>0</v>
+        <v>0.7177</v>
       </c>
       <c r="W971" s="1" t="n">
         <v>14</v>
@@ -43424,7 +43616,7 @@
         <v>0</v>
       </c>
       <c r="V978" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W978" s="1" t="n">
         <v>14</v>
@@ -43469,7 +43661,7 @@
         <v>0</v>
       </c>
       <c r="V980" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W980" s="1" t="n">
         <v>14</v>
@@ -43562,7 +43754,7 @@
         <v>0</v>
       </c>
       <c r="V984" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W984" s="1" t="n">
         <v>14</v>
@@ -43655,7 +43847,7 @@
         <v>0</v>
       </c>
       <c r="V988" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W988" s="1" t="n">
         <v>14</v>
@@ -43844,7 +44036,7 @@
         <v>0</v>
       </c>
       <c r="V996" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W996" s="1" t="n">
         <v>14</v>
@@ -43889,7 +44081,7 @@
         <v>0</v>
       </c>
       <c r="V998" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W998" s="1" t="n">
         <v>14</v>
@@ -43976,7 +44168,7 @@
         <v>0</v>
       </c>
       <c r="V1002" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1002" s="1" t="n">
         <v>1</v>
@@ -44015,7 +44207,7 @@
         <v>0</v>
       </c>
       <c r="V1004" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1004" s="1" t="n">
         <v>1</v>
@@ -44096,7 +44288,7 @@
         <v>0</v>
       </c>
       <c r="V1008" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1008" s="1" t="n">
         <v>1</v>
@@ -44261,7 +44453,7 @@
         <v>0</v>
       </c>
       <c r="V1016" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1016" s="1" t="n">
         <v>1</v>
@@ -44384,7 +44576,7 @@
         <v>0</v>
       </c>
       <c r="V1022" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1022" s="1" t="n">
         <v>1</v>
@@ -44591,7 +44783,7 @@
         <v>0</v>
       </c>
       <c r="V1032" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1032" s="1" t="n">
         <v>1</v>
@@ -44672,7 +44864,7 @@
         <v>0</v>
       </c>
       <c r="V1036" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1036" s="1" t="n">
         <v>1</v>
@@ -44753,7 +44945,7 @@
         <v>0</v>
       </c>
       <c r="V1040" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1040" s="1" t="n">
         <v>1</v>
@@ -44792,7 +44984,7 @@
         <v>0</v>
       </c>
       <c r="V1042" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1042" s="1" t="n">
         <v>1</v>
@@ -44831,7 +45023,7 @@
         <v>0</v>
       </c>
       <c r="V1044" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1044" s="1" t="n">
         <v>1</v>
@@ -44870,7 +45062,7 @@
         <v>0</v>
       </c>
       <c r="V1046" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1046" s="1" t="n">
         <v>1</v>
@@ -44909,7 +45101,7 @@
         <v>0</v>
       </c>
       <c r="V1048" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1048" s="1" t="n">
         <v>1</v>
@@ -44948,7 +45140,7 @@
         <v>0</v>
       </c>
       <c r="V1050" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1050" s="1" t="n">
         <v>1</v>
@@ -45071,7 +45263,7 @@
         <v>0</v>
       </c>
       <c r="V1056" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1056" s="1" t="n">
         <v>1</v>
@@ -45236,7 +45428,7 @@
         <v>0</v>
       </c>
       <c r="V1064" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1064" s="1" t="n">
         <v>1</v>
@@ -45275,7 +45467,7 @@
         <v>0</v>
       </c>
       <c r="V1066" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1066" s="1" t="n">
         <v>1</v>
@@ -45356,7 +45548,7 @@
         <v>0</v>
       </c>
       <c r="V1070" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1070" s="1" t="n">
         <v>1</v>
@@ -45395,7 +45587,7 @@
         <v>0</v>
       </c>
       <c r="V1072" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1072" s="1" t="n">
         <v>1</v>
@@ -45560,7 +45752,7 @@
         <v>0</v>
       </c>
       <c r="V1080" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1080" s="1" t="n">
         <v>1</v>
@@ -45683,7 +45875,7 @@
         <v>0</v>
       </c>
       <c r="V1086" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1086" s="1" t="n">
         <v>1</v>
@@ -45722,7 +45914,7 @@
         <v>0</v>
       </c>
       <c r="V1088" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1088" s="1" t="n">
         <v>1</v>
@@ -45845,7 +46037,7 @@
         <v>0</v>
       </c>
       <c r="V1094" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1094" s="1" t="n">
         <v>1</v>
@@ -45968,7 +46160,7 @@
         <v>0</v>
       </c>
       <c r="V1100" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1100" s="1" t="n">
         <v>1</v>
@@ -46049,7 +46241,7 @@
         <v>0</v>
       </c>
       <c r="V1104" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1104" s="1" t="n">
         <v>1</v>
@@ -46298,7 +46490,7 @@
         <v>0</v>
       </c>
       <c r="V1116" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1116" s="1" t="n">
         <v>1</v>
@@ -46337,7 +46529,7 @@
         <v>0</v>
       </c>
       <c r="V1118" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1118" s="1" t="n">
         <v>1</v>
@@ -46376,7 +46568,7 @@
         <v>0</v>
       </c>
       <c r="V1120" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1120" s="1" t="n">
         <v>1</v>
@@ -46415,7 +46607,7 @@
         <v>0</v>
       </c>
       <c r="V1122" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1122" s="1" t="n">
         <v>1</v>
@@ -46454,7 +46646,7 @@
         <v>0</v>
       </c>
       <c r="V1124" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1124" s="1" t="n">
         <v>1</v>
@@ -46493,7 +46685,7 @@
         <v>0</v>
       </c>
       <c r="V1126" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1126" s="1" t="n">
         <v>1</v>
@@ -46658,7 +46850,7 @@
         <v>0</v>
       </c>
       <c r="V1134" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1134" s="1" t="n">
         <v>1</v>
@@ -46739,7 +46931,7 @@
         <v>0</v>
       </c>
       <c r="V1138" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1138" s="1" t="n">
         <v>1</v>
@@ -46862,7 +47054,7 @@
         <v>0</v>
       </c>
       <c r="V1144" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1144" s="1" t="n">
         <v>1</v>
@@ -46943,7 +47135,7 @@
         <v>0</v>
       </c>
       <c r="V1148" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1148" s="1" t="n">
         <v>1</v>
@@ -47360,7 +47552,7 @@
         <v>0</v>
       </c>
       <c r="V1168" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1168" s="1" t="n">
         <v>1</v>
@@ -47441,7 +47633,7 @@
         <v>0</v>
       </c>
       <c r="V1172" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1172" s="1" t="n">
         <v>1</v>
@@ -47522,7 +47714,7 @@
         <v>0</v>
       </c>
       <c r="V1176" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1176" s="1" t="n">
         <v>1</v>
@@ -47561,7 +47753,7 @@
         <v>0</v>
       </c>
       <c r="V1178" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1178" s="1" t="n">
         <v>1</v>
@@ -47768,7 +47960,7 @@
         <v>0</v>
       </c>
       <c r="V1188" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1188" s="1" t="n">
         <v>1</v>
@@ -47807,7 +47999,7 @@
         <v>0</v>
       </c>
       <c r="V1190" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1190" s="1" t="n">
         <v>1</v>
@@ -47846,7 +48038,7 @@
         <v>0</v>
       </c>
       <c r="V1192" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1192" s="1" t="n">
         <v>1</v>
@@ -47885,7 +48077,7 @@
         <v>0</v>
       </c>
       <c r="V1194" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1194" s="1" t="n">
         <v>1</v>
@@ -47924,7 +48116,7 @@
         <v>0</v>
       </c>
       <c r="V1196" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1196" s="1" t="n">
         <v>1</v>
@@ -47963,7 +48155,7 @@
         <v>0</v>
       </c>
       <c r="V1198" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1198" s="1" t="n">
         <v>1</v>
@@ -48086,7 +48278,7 @@
         <v>0</v>
       </c>
       <c r="V1204" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1204" s="1" t="n">
         <v>1</v>
@@ -48293,7 +48485,7 @@
         <v>0</v>
       </c>
       <c r="V1214" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1214" s="1" t="n">
         <v>1</v>
@@ -48374,7 +48566,7 @@
         <v>0</v>
       </c>
       <c r="V1218" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1218" s="1" t="n">
         <v>1</v>
@@ -48413,7 +48605,7 @@
         <v>0</v>
       </c>
       <c r="V1220" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1220" s="1" t="n">
         <v>1</v>
@@ -48452,7 +48644,7 @@
         <v>0</v>
       </c>
       <c r="V1222" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1222" s="1" t="n">
         <v>1</v>
@@ -48533,7 +48725,7 @@
         <v>0</v>
       </c>
       <c r="V1226" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1226" s="1" t="n">
         <v>1</v>
@@ -48866,7 +49058,7 @@
         <v>0</v>
       </c>
       <c r="V1242" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1242" s="1" t="n">
         <v>1</v>
@@ -49031,7 +49223,7 @@
         <v>0</v>
       </c>
       <c r="V1250" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1250" s="1" t="n">
         <v>1</v>
@@ -49112,7 +49304,7 @@
         <v>0</v>
       </c>
       <c r="V1254" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1254" s="1" t="n">
         <v>1</v>
@@ -49151,7 +49343,7 @@
         <v>0</v>
       </c>
       <c r="V1256" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1256" s="1" t="n">
         <v>1</v>
@@ -49316,7 +49508,7 @@
         <v>0</v>
       </c>
       <c r="V1264" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1264" s="1" t="n">
         <v>1</v>
@@ -49397,7 +49589,7 @@
         <v>0</v>
       </c>
       <c r="V1268" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1268" s="1" t="n">
         <v>1</v>
@@ -49436,7 +49628,7 @@
         <v>0</v>
       </c>
       <c r="V1270" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1270" s="1" t="n">
         <v>1</v>
@@ -49517,7 +49709,7 @@
         <v>0</v>
       </c>
       <c r="V1274" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1274" s="1" t="n">
         <v>1</v>
@@ -49724,7 +49916,7 @@
         <v>0</v>
       </c>
       <c r="V1284" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1284" s="1" t="n">
         <v>1</v>
@@ -49763,7 +49955,7 @@
         <v>0</v>
       </c>
       <c r="V1286" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1286" s="1" t="n">
         <v>1</v>
@@ -50096,7 +50288,7 @@
         <v>0</v>
       </c>
       <c r="V1302" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1302" s="1" t="n">
         <v>1</v>
@@ -50261,7 +50453,7 @@
         <v>0</v>
       </c>
       <c r="V1310" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1310" s="1" t="n">
         <v>1</v>
@@ -50342,7 +50534,7 @@
         <v>0</v>
       </c>
       <c r="V1314" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1314" s="1" t="n">
         <v>1</v>
@@ -50381,7 +50573,7 @@
         <v>0</v>
       </c>
       <c r="V1316" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1316" s="1" t="n">
         <v>1</v>
@@ -50462,7 +50654,7 @@
         <v>0</v>
       </c>
       <c r="V1320" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1320" s="1" t="n">
         <v>1</v>
@@ -50501,7 +50693,7 @@
         <v>0</v>
       </c>
       <c r="V1322" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1322" s="1" t="n">
         <v>1</v>
@@ -50540,7 +50732,7 @@
         <v>0</v>
       </c>
       <c r="V1324" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1324" s="1" t="n">
         <v>1</v>
@@ -50705,7 +50897,7 @@
         <v>0</v>
       </c>
       <c r="V1332" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1332" s="1" t="n">
         <v>1</v>
@@ -50786,7 +50978,7 @@
         <v>0</v>
       </c>
       <c r="V1336" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1336" s="1" t="n">
         <v>1</v>
@@ -50825,7 +51017,7 @@
         <v>0</v>
       </c>
       <c r="V1338" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1338" s="1" t="n">
         <v>1</v>
@@ -50906,7 +51098,7 @@
         <v>0</v>
       </c>
       <c r="V1342" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1342" s="1" t="n">
         <v>1</v>
@@ -51239,7 +51431,7 @@
         <v>0</v>
       </c>
       <c r="V1358" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1358" s="1" t="n">
         <v>1</v>
@@ -51278,7 +51470,7 @@
         <v>0</v>
       </c>
       <c r="V1360" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1360" s="1" t="n">
         <v>1</v>
@@ -51485,7 +51677,7 @@
         <v>0</v>
       </c>
       <c r="V1370" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1370" s="1" t="n">
         <v>1</v>
@@ -51650,7 +51842,7 @@
         <v>0</v>
       </c>
       <c r="V1378" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1378" s="1" t="n">
         <v>1</v>
@@ -51815,7 +52007,7 @@
         <v>0</v>
       </c>
       <c r="V1386" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1386" s="1" t="n">
         <v>1</v>
@@ -51854,7 +52046,7 @@
         <v>0</v>
       </c>
       <c r="V1388" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1388" s="1" t="n">
         <v>1</v>
@@ -52061,7 +52253,7 @@
         <v>0</v>
       </c>
       <c r="V1398" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1398" s="1" t="n">
         <v>1</v>
@@ -52142,7 +52334,7 @@
         <v>0</v>
       </c>
       <c r="V1402" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1402" s="1" t="n">
         <v>1</v>
@@ -52223,7 +52415,7 @@
         <v>0</v>
       </c>
       <c r="V1406" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1406" s="1" t="n">
         <v>1</v>
@@ -52346,7 +52538,7 @@
         <v>0</v>
       </c>
       <c r="V1412" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1412" s="1" t="n">
         <v>1</v>
@@ -52427,7 +52619,7 @@
         <v>0</v>
       </c>
       <c r="V1416" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1416" s="1" t="n">
         <v>1</v>
@@ -52718,7 +52910,7 @@
         <v>0</v>
       </c>
       <c r="V1430" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1430" s="1" t="n">
         <v>1</v>
@@ -52757,7 +52949,7 @@
         <v>0</v>
       </c>
       <c r="V1432" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1432" s="1" t="n">
         <v>1</v>
@@ -52796,7 +52988,7 @@
         <v>0</v>
       </c>
       <c r="V1434" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1434" s="1" t="n">
         <v>1</v>
@@ -52835,7 +53027,7 @@
         <v>0</v>
       </c>
       <c r="V1436" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1436" s="1" t="n">
         <v>1</v>
@@ -52874,7 +53066,7 @@
         <v>0</v>
       </c>
       <c r="V1438" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1438" s="1" t="n">
         <v>1</v>
@@ -52955,7 +53147,7 @@
         <v>0</v>
       </c>
       <c r="V1442" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1442" s="1" t="n">
         <v>1</v>
@@ -53246,7 +53438,7 @@
         <v>0</v>
       </c>
       <c r="V1456" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1456" s="1" t="n">
         <v>1</v>
@@ -53285,7 +53477,7 @@
         <v>0</v>
       </c>
       <c r="V1458" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1458" s="1" t="n">
         <v>1</v>
@@ -53366,7 +53558,7 @@
         <v>0</v>
       </c>
       <c r="V1462" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1462" s="1" t="n">
         <v>1</v>
@@ -53489,7 +53681,7 @@
         <v>0</v>
       </c>
       <c r="V1468" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1468" s="1" t="n">
         <v>1</v>
@@ -53528,7 +53720,7 @@
         <v>0</v>
       </c>
       <c r="V1470" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1470" s="1" t="n">
         <v>1</v>
@@ -53651,7 +53843,7 @@
         <v>0</v>
       </c>
       <c r="V1476" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1476" s="1" t="n">
         <v>1</v>
@@ -53732,7 +53924,7 @@
         <v>0</v>
       </c>
       <c r="V1480" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1480" s="1" t="n">
         <v>1</v>
@@ -53897,7 +54089,7 @@
         <v>0</v>
       </c>
       <c r="V1488" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1488" s="1" t="n">
         <v>1</v>
@@ -53936,7 +54128,7 @@
         <v>0</v>
       </c>
       <c r="V1490" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1490" s="1" t="n">
         <v>1</v>
@@ -53975,7 +54167,7 @@
         <v>0</v>
       </c>
       <c r="V1492" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1492" s="1" t="n">
         <v>1</v>
@@ -54014,7 +54206,7 @@
         <v>0</v>
       </c>
       <c r="V1494" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1494" s="1" t="n">
         <v>1</v>
@@ -54053,7 +54245,7 @@
         <v>0</v>
       </c>
       <c r="V1496" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1496" s="1" t="n">
         <v>1</v>
@@ -54260,7 +54452,7 @@
         <v>0</v>
       </c>
       <c r="V1506" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1506" s="1" t="n">
         <v>1</v>
@@ -54299,7 +54491,7 @@
         <v>0</v>
       </c>
       <c r="V1508" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1508" s="1" t="n">
         <v>1</v>
@@ -54338,7 +54530,7 @@
         <v>0</v>
       </c>
       <c r="V1510" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1510" s="1" t="n">
         <v>1</v>
@@ -54377,7 +54569,7 @@
         <v>0</v>
       </c>
       <c r="V1512" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1512" s="1" t="n">
         <v>1</v>
@@ -54458,7 +54650,7 @@
         <v>0</v>
       </c>
       <c r="V1516" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1516" s="1" t="n">
         <v>1</v>
@@ -54497,7 +54689,7 @@
         <v>0</v>
       </c>
       <c r="V1518" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1518" s="1" t="n">
         <v>1</v>
@@ -54788,7 +54980,7 @@
         <v>0</v>
       </c>
       <c r="V1532" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1532" s="1" t="n">
         <v>1</v>
@@ -54953,7 +55145,7 @@
         <v>0</v>
       </c>
       <c r="V1540" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1540" s="1" t="n">
         <v>1</v>
@@ -55034,7 +55226,7 @@
         <v>0</v>
       </c>
       <c r="V1544" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1544" s="1" t="n">
         <v>1</v>
@@ -55283,7 +55475,7 @@
         <v>0</v>
       </c>
       <c r="V1556" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1556" s="1" t="n">
         <v>1</v>
@@ -55322,7 +55514,7 @@
         <v>0</v>
       </c>
       <c r="V1558" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1558" s="1" t="n">
         <v>1</v>
@@ -55361,7 +55553,7 @@
         <v>0</v>
       </c>
       <c r="V1560" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1560" s="1" t="n">
         <v>1</v>
@@ -55400,7 +55592,7 @@
         <v>0</v>
       </c>
       <c r="V1562" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1562" s="1" t="n">
         <v>1</v>
@@ -55565,7 +55757,7 @@
         <v>0</v>
       </c>
       <c r="V1570" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1570" s="1" t="n">
         <v>1</v>
@@ -55604,7 +55796,7 @@
         <v>0</v>
       </c>
       <c r="V1572" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1572" s="1" t="n">
         <v>1</v>
@@ -55643,7 +55835,7 @@
         <v>0</v>
       </c>
       <c r="V1574" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1574" s="1" t="n">
         <v>1</v>
@@ -55682,7 +55874,7 @@
         <v>0</v>
       </c>
       <c r="V1576" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1576" s="1" t="n">
         <v>1</v>
@@ -55763,7 +55955,7 @@
         <v>0</v>
       </c>
       <c r="V1580" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1580" s="1" t="n">
         <v>1</v>
@@ -55844,7 +56036,7 @@
         <v>0</v>
       </c>
       <c r="V1584" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1584" s="1" t="n">
         <v>1</v>
@@ -55883,7 +56075,7 @@
         <v>0</v>
       </c>
       <c r="V1586" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1586" s="1" t="n">
         <v>1</v>
@@ -55964,7 +56156,7 @@
         <v>0</v>
       </c>
       <c r="V1590" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1590" s="1" t="n">
         <v>1</v>
@@ -56171,7 +56363,7 @@
         <v>0</v>
       </c>
       <c r="V1600" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1600" s="1" t="n">
         <v>1</v>
@@ -56210,7 +56402,7 @@
         <v>0</v>
       </c>
       <c r="V1602" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1602" s="1" t="n">
         <v>1</v>
@@ -56249,7 +56441,7 @@
         <v>0</v>
       </c>
       <c r="V1604" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1604" s="1" t="n">
         <v>1</v>
@@ -56288,7 +56480,7 @@
         <v>0</v>
       </c>
       <c r="V1606" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1606" s="1" t="n">
         <v>1</v>
@@ -56327,7 +56519,7 @@
         <v>0</v>
       </c>
       <c r="V1608" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1608" s="1" t="n">
         <v>1</v>
@@ -56366,7 +56558,7 @@
         <v>0</v>
       </c>
       <c r="V1610" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1610" s="1" t="n">
         <v>1</v>
@@ -56489,7 +56681,7 @@
         <v>0</v>
       </c>
       <c r="V1616" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1616" s="1" t="n">
         <v>1</v>
@@ -56612,7 +56804,7 @@
         <v>0</v>
       </c>
       <c r="V1622" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1622" s="1" t="n">
         <v>1</v>
@@ -56693,7 +56885,7 @@
         <v>0</v>
       </c>
       <c r="V1626" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1626" s="1" t="n">
         <v>1</v>
@@ -56774,7 +56966,7 @@
         <v>0</v>
       </c>
       <c r="V1630" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1630" s="1" t="n">
         <v>1</v>
@@ -56813,7 +57005,7 @@
         <v>0</v>
       </c>
       <c r="V1632" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1632" s="1" t="n">
         <v>1</v>
@@ -56894,7 +57086,7 @@
         <v>0</v>
       </c>
       <c r="V1636" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1636" s="1" t="n">
         <v>1</v>
@@ -56933,7 +57125,7 @@
         <v>0</v>
       </c>
       <c r="V1638" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1638" s="1" t="n">
         <v>1</v>
@@ -57014,7 +57206,7 @@
         <v>0</v>
       </c>
       <c r="V1642" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1642" s="1" t="n">
         <v>1</v>
@@ -57053,7 +57245,7 @@
         <v>0</v>
       </c>
       <c r="V1644" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1644" s="1" t="n">
         <v>1</v>
@@ -57092,7 +57284,7 @@
         <v>0</v>
       </c>
       <c r="V1646" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1646" s="1" t="n">
         <v>1</v>
@@ -57131,7 +57323,7 @@
         <v>0</v>
       </c>
       <c r="V1648" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1648" s="1" t="n">
         <v>1</v>
@@ -57170,7 +57362,7 @@
         <v>0</v>
       </c>
       <c r="V1650" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1650" s="1" t="n">
         <v>1</v>
@@ -57209,7 +57401,7 @@
         <v>0</v>
       </c>
       <c r="V1652" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1652" s="1" t="n">
         <v>1</v>
@@ -57416,7 +57608,7 @@
         <v>0</v>
       </c>
       <c r="V1662" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1662" s="1" t="n">
         <v>1</v>
@@ -57497,7 +57689,7 @@
         <v>0</v>
       </c>
       <c r="V1666" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1666" s="1" t="n">
         <v>1</v>
@@ -57536,7 +57728,7 @@
         <v>0</v>
       </c>
       <c r="V1668" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1668" s="1" t="n">
         <v>1</v>
@@ -57659,7 +57851,7 @@
         <v>0</v>
       </c>
       <c r="V1674" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1674" s="1" t="n">
         <v>1</v>
@@ -57698,7 +57890,7 @@
         <v>0</v>
       </c>
       <c r="V1676" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1676" s="1" t="n">
         <v>1</v>
@@ -57863,7 +58055,7 @@
         <v>0</v>
       </c>
       <c r="V1684" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1684" s="1" t="n">
         <v>1</v>
@@ -57902,7 +58094,7 @@
         <v>0</v>
       </c>
       <c r="V1686" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1686" s="1" t="n">
         <v>1</v>
@@ -57941,7 +58133,7 @@
         <v>0</v>
       </c>
       <c r="V1688" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1688" s="1" t="n">
         <v>1</v>
@@ -58022,7 +58214,7 @@
         <v>0</v>
       </c>
       <c r="V1692" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1692" s="1" t="n">
         <v>1</v>
@@ -58061,7 +58253,7 @@
         <v>0</v>
       </c>
       <c r="V1694" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1694" s="1" t="n">
         <v>1</v>
@@ -58268,7 +58460,7 @@
         <v>0</v>
       </c>
       <c r="V1704" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1704" s="1" t="n">
         <v>1</v>
@@ -58391,7 +58583,7 @@
         <v>0</v>
       </c>
       <c r="V1710" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1710" s="1" t="n">
         <v>1</v>
@@ -58430,7 +58622,7 @@
         <v>0</v>
       </c>
       <c r="V1712" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1712" s="1" t="n">
         <v>1</v>
@@ -58511,7 +58703,7 @@
         <v>0</v>
       </c>
       <c r="V1716" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1716" s="1" t="n">
         <v>1</v>
@@ -58802,7 +58994,7 @@
         <v>0</v>
       </c>
       <c r="V1730" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1730" s="1" t="n">
         <v>1</v>
@@ -58883,7 +59075,7 @@
         <v>0</v>
       </c>
       <c r="V1734" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1734" s="1" t="n">
         <v>1</v>
@@ -59216,7 +59408,7 @@
         <v>0</v>
       </c>
       <c r="V1750" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1750" s="1" t="n">
         <v>1</v>
@@ -59255,7 +59447,7 @@
         <v>0</v>
       </c>
       <c r="V1752" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1752" s="1" t="n">
         <v>1</v>
@@ -59294,7 +59486,7 @@
         <v>0</v>
       </c>
       <c r="V1754" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1754" s="1" t="n">
         <v>1</v>
@@ -59333,7 +59525,7 @@
         <v>0</v>
       </c>
       <c r="V1756" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1756" s="1" t="n">
         <v>1</v>
@@ -59498,7 +59690,7 @@
         <v>0</v>
       </c>
       <c r="V1764" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1764" s="1" t="n">
         <v>1</v>
@@ -59747,7 +59939,7 @@
         <v>0</v>
       </c>
       <c r="V1776" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1776" s="1" t="n">
         <v>1</v>
@@ -59870,7 +60062,7 @@
         <v>0</v>
       </c>
       <c r="V1782" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1782" s="1" t="n">
         <v>1</v>
@@ -59909,7 +60101,7 @@
         <v>0</v>
       </c>
       <c r="V1784" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1784" s="1" t="n">
         <v>1</v>
@@ -60032,7 +60224,7 @@
         <v>0</v>
       </c>
       <c r="V1790" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1790" s="1" t="n">
         <v>1</v>
@@ -60113,7 +60305,7 @@
         <v>0</v>
       </c>
       <c r="V1794" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1794" s="1" t="n">
         <v>1</v>
@@ -60194,7 +60386,7 @@
         <v>0</v>
       </c>
       <c r="V1798" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1798" s="1" t="n">
         <v>1</v>
@@ -60275,7 +60467,7 @@
         <v>0</v>
       </c>
       <c r="V1802" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1802" s="1" t="n">
         <v>1</v>
@@ -60440,7 +60632,7 @@
         <v>0</v>
       </c>
       <c r="V1810" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1810" s="1" t="n">
         <v>1</v>
@@ -60479,7 +60671,7 @@
         <v>0</v>
       </c>
       <c r="V1812" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1812" s="1" t="n">
         <v>1</v>
@@ -60560,7 +60752,7 @@
         <v>0</v>
       </c>
       <c r="V1816" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1816" s="1" t="n">
         <v>1</v>
@@ -60599,7 +60791,7 @@
         <v>0</v>
       </c>
       <c r="V1818" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1818" s="1" t="n">
         <v>1</v>
@@ -60638,7 +60830,7 @@
         <v>0</v>
       </c>
       <c r="V1820" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1820" s="1" t="n">
         <v>1</v>
@@ -60803,7 +60995,7 @@
         <v>0</v>
       </c>
       <c r="V1828" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1828" s="1" t="n">
         <v>1</v>
@@ -60926,7 +61118,7 @@
         <v>0</v>
       </c>
       <c r="V1834" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1834" s="1" t="n">
         <v>1</v>
@@ -60965,7 +61157,7 @@
         <v>0</v>
       </c>
       <c r="V1836" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1836" s="1" t="n">
         <v>1</v>
@@ -61004,7 +61196,7 @@
         <v>0</v>
       </c>
       <c r="V1838" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1838" s="1" t="n">
         <v>1</v>
@@ -61043,7 +61235,7 @@
         <v>0</v>
       </c>
       <c r="V1840" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1840" s="1" t="n">
         <v>1</v>
@@ -61124,7 +61316,7 @@
         <v>0</v>
       </c>
       <c r="V1844" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1844" s="1" t="n">
         <v>1</v>
@@ -61163,7 +61355,7 @@
         <v>0</v>
       </c>
       <c r="V1846" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1846" s="1" t="n">
         <v>1</v>
@@ -61202,7 +61394,7 @@
         <v>0</v>
       </c>
       <c r="V1848" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1848" s="1" t="n">
         <v>1</v>
@@ -61325,7 +61517,7 @@
         <v>0</v>
       </c>
       <c r="V1854" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1854" s="1" t="n">
         <v>1</v>
@@ -61364,7 +61556,7 @@
         <v>0</v>
       </c>
       <c r="V1856" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1856" s="1" t="n">
         <v>1</v>
@@ -61403,7 +61595,7 @@
         <v>0</v>
       </c>
       <c r="V1858" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1858" s="1" t="n">
         <v>1</v>
@@ -61526,7 +61718,7 @@
         <v>0</v>
       </c>
       <c r="V1864" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1864" s="1" t="n">
         <v>1</v>
@@ -61607,7 +61799,7 @@
         <v>0</v>
       </c>
       <c r="V1868" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1868" s="1" t="n">
         <v>1</v>
@@ -61646,7 +61838,7 @@
         <v>0</v>
       </c>
       <c r="V1870" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1870" s="1" t="n">
         <v>1</v>
@@ -61937,7 +62129,7 @@
         <v>0</v>
       </c>
       <c r="V1884" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1884" s="1" t="n">
         <v>1</v>
@@ -61976,7 +62168,7 @@
         <v>0</v>
       </c>
       <c r="V1886" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1886" s="1" t="n">
         <v>1</v>
@@ -62057,7 +62249,7 @@
         <v>0</v>
       </c>
       <c r="V1890" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1890" s="1" t="n">
         <v>1</v>
@@ -62096,7 +62288,7 @@
         <v>0</v>
       </c>
       <c r="V1892" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1892" s="1" t="n">
         <v>1</v>
@@ -62345,7 +62537,7 @@
         <v>0</v>
       </c>
       <c r="V1904" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1904" s="1" t="n">
         <v>1</v>
@@ -62384,7 +62576,7 @@
         <v>0</v>
       </c>
       <c r="V1906" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1906" s="1" t="n">
         <v>1</v>
@@ -62423,7 +62615,7 @@
         <v>0</v>
       </c>
       <c r="V1908" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1908" s="1" t="n">
         <v>1</v>
@@ -62546,7 +62738,7 @@
         <v>0</v>
       </c>
       <c r="V1914" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1914" s="1" t="n">
         <v>1</v>
@@ -62669,7 +62861,7 @@
         <v>0</v>
       </c>
       <c r="V1920" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1920" s="1" t="n">
         <v>1</v>
@@ -62708,7 +62900,7 @@
         <v>0</v>
       </c>
       <c r="V1922" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1922" s="1" t="n">
         <v>1</v>
@@ -62747,7 +62939,7 @@
         <v>0</v>
       </c>
       <c r="V1924" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1924" s="1" t="n">
         <v>1</v>
@@ -62828,7 +63020,7 @@
         <v>0</v>
       </c>
       <c r="V1928" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1928" s="1" t="n">
         <v>1</v>
@@ -62909,7 +63101,7 @@
         <v>0</v>
       </c>
       <c r="V1932" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1932" s="1" t="n">
         <v>1</v>
@@ -62990,7 +63182,7 @@
         <v>0</v>
       </c>
       <c r="V1936" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1936" s="1" t="n">
         <v>1</v>
@@ -63029,7 +63221,7 @@
         <v>0</v>
       </c>
       <c r="V1938" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1938" s="1" t="n">
         <v>1</v>
@@ -63068,7 +63260,7 @@
         <v>0</v>
       </c>
       <c r="V1940" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1940" s="1" t="n">
         <v>1</v>
@@ -63107,7 +63299,7 @@
         <v>0</v>
       </c>
       <c r="V1942" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1942" s="1" t="n">
         <v>1</v>
@@ -63188,7 +63380,7 @@
         <v>0</v>
       </c>
       <c r="V1946" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1946" s="1" t="n">
         <v>1</v>
@@ -63269,7 +63461,7 @@
         <v>0</v>
       </c>
       <c r="V1950" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1950" s="1" t="n">
         <v>1</v>
@@ -63308,7 +63500,7 @@
         <v>0</v>
       </c>
       <c r="V1952" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1952" s="1" t="n">
         <v>1</v>
@@ -63347,7 +63539,7 @@
         <v>0</v>
       </c>
       <c r="V1954" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1954" s="1" t="n">
         <v>1</v>
@@ -63428,7 +63620,7 @@
         <v>0</v>
       </c>
       <c r="V1958" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1958" s="1" t="n">
         <v>1</v>
@@ -63509,7 +63701,7 @@
         <v>0</v>
       </c>
       <c r="V1962" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1962" s="1" t="n">
         <v>1</v>
@@ -63632,7 +63824,7 @@
         <v>0</v>
       </c>
       <c r="V1968" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1968" s="1" t="n">
         <v>1</v>
@@ -63671,7 +63863,7 @@
         <v>0</v>
       </c>
       <c r="V1970" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1970" s="1" t="n">
         <v>1</v>
@@ -63710,7 +63902,7 @@
         <v>0</v>
       </c>
       <c r="V1972" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1972" s="1" t="n">
         <v>1</v>
@@ -63833,7 +64025,7 @@
         <v>0</v>
       </c>
       <c r="V1978" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1978" s="1" t="n">
         <v>1</v>
@@ -63872,7 +64064,7 @@
         <v>0</v>
       </c>
       <c r="V1980" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1980" s="1" t="n">
         <v>1</v>
@@ -63953,7 +64145,7 @@
         <v>0</v>
       </c>
       <c r="V1984" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1984" s="1" t="n">
         <v>1</v>
@@ -63992,7 +64184,7 @@
         <v>0</v>
       </c>
       <c r="V1986" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1986" s="1" t="n">
         <v>1</v>
@@ -64031,7 +64223,7 @@
         <v>0</v>
       </c>
       <c r="V1988" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1988" s="1" t="n">
         <v>1</v>
@@ -64112,7 +64304,7 @@
         <v>0</v>
       </c>
       <c r="V1992" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X1992" s="1" t="n">
         <v>1</v>
@@ -64277,7 +64469,7 @@
         <v>0</v>
       </c>
       <c r="V2000" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X2000" s="1" t="n">
         <v>1</v>

--- a/data_acquisition/wing_leakage_data_samples_filt.xlsx
+++ b/data_acquisition/wing_leakage_data_samples_filt.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="51">
   <si>
     <t xml:space="preserve">sample_number</t>
   </si>
@@ -163,10 +163,16 @@
     <t xml:space="preserve">residual flow of 0.0152 in mfc10</t>
   </si>
   <si>
-    <t xml:space="preserve">changed vacuum system. Started taking reading after a month. Residual flow in much higher</t>
+    <t xml:space="preserve">changed vacuum system. Started taking reading after a month. Residual flow in much higher. pump power reduced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pump power reduced</t>
   </si>
   <si>
     <t xml:space="preserve">centre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">center</t>
   </si>
 </sst>
 </file>
@@ -254,7 +260,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -281,6 +287,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -366,8 +376,10 @@
   </sheetPr>
   <dimension ref="A1:X2007"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A945" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O972" activeCellId="0" sqref="O972"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A1189" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="K1207" activeCellId="0" sqref="K1207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -38947,6 +38959,9 @@
         <f aca="false">SUM(F867:O867)</f>
         <v>0.7439</v>
       </c>
+      <c r="V867" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W867" s="1" t="n">
         <v>13</v>
       </c>
@@ -39013,6 +39028,9 @@
       <c r="U868" s="1" t="n">
         <v>0.0116</v>
       </c>
+      <c r="V868" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W868" s="1" t="n">
         <v>13</v>
       </c>
@@ -39070,6 +39088,9 @@
         <f aca="false">SUM(F869:O869)</f>
         <v>0.7068</v>
       </c>
+      <c r="V869" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W869" s="1" t="n">
         <v>13</v>
       </c>
@@ -39121,6 +39142,9 @@
         <f aca="false">SUM(F870:O870)</f>
         <v>0.4284</v>
       </c>
+      <c r="V870" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W870" s="1" t="n">
         <v>13</v>
       </c>
@@ -39178,6 +39202,9 @@
         <f aca="false">SUM(F871:O871)</f>
         <v>0.717</v>
       </c>
+      <c r="V871" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W871" s="1" t="n">
         <v>13</v>
       </c>
@@ -39229,6 +39256,9 @@
         <f aca="false">SUM(F872:O872)</f>
         <v>0.4184</v>
       </c>
+      <c r="V872" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W872" s="1" t="n">
         <v>13</v>
       </c>
@@ -39286,6 +39316,9 @@
         <f aca="false">SUM(F873:O873)</f>
         <v>0.7244</v>
       </c>
+      <c r="V873" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W873" s="1" t="n">
         <v>13</v>
       </c>
@@ -39337,6 +39370,9 @@
         <f aca="false">SUM(F874:O874)</f>
         <v>0.4344</v>
       </c>
+      <c r="V874" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W874" s="1" t="n">
         <v>13</v>
       </c>
@@ -39394,6 +39430,9 @@
         <f aca="false">SUM(F875:O875)</f>
         <v>0.732</v>
       </c>
+      <c r="V875" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W875" s="1" t="n">
         <v>13</v>
       </c>
@@ -39445,6 +39484,9 @@
         <f aca="false">SUM(F876:O876)</f>
         <v>0.4495</v>
       </c>
+      <c r="V876" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W876" s="1" t="n">
         <v>13</v>
       </c>
@@ -39502,6 +39544,9 @@
         <f aca="false">SUM(F877:O877)</f>
         <v>0.7284</v>
       </c>
+      <c r="V877" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W877" s="1" t="n">
         <v>13</v>
       </c>
@@ -39553,6 +39598,9 @@
         <f aca="false">SUM(F878:O878)</f>
         <v>0.4297</v>
       </c>
+      <c r="V878" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W878" s="1" t="n">
         <v>13</v>
       </c>
@@ -39610,6 +39658,9 @@
         <f aca="false">SUM(F879:O879)</f>
         <v>0.7128</v>
       </c>
+      <c r="V879" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W879" s="1" t="n">
         <v>13</v>
       </c>
@@ -39661,6 +39712,9 @@
         <f aca="false">SUM(F880:O880)</f>
         <v>0.425</v>
       </c>
+      <c r="V880" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W880" s="1" t="n">
         <v>13</v>
       </c>
@@ -39718,6 +39772,9 @@
         <f aca="false">SUM(F881:O881)</f>
         <v>0.7087</v>
       </c>
+      <c r="V881" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W881" s="1" t="n">
         <v>13</v>
       </c>
@@ -39769,6 +39826,9 @@
         <f aca="false">SUM(F882:O882)</f>
         <v>0.4371</v>
       </c>
+      <c r="V882" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W882" s="1" t="n">
         <v>13</v>
       </c>
@@ -39797,7 +39857,7 @@
         <v>0</v>
       </c>
       <c r="V883" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="W883" s="1" t="n">
         <v>13</v>
@@ -39821,7 +39881,7 @@
         <v>0</v>
       </c>
       <c r="V884" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="W884" s="1" t="n">
         <v>13</v>
@@ -39851,7 +39911,7 @@
         <v>0</v>
       </c>
       <c r="V885" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="W885" s="1" t="n">
         <v>13</v>
@@ -39958,6 +40018,9 @@
         <f aca="false">SUM(F888:O888)</f>
         <v>0.449</v>
       </c>
+      <c r="V888" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W888" s="1" t="n">
         <v>13</v>
       </c>
@@ -40015,6 +40078,9 @@
         <f aca="false">SUM(F889:O889)</f>
         <v>0.7124</v>
       </c>
+      <c r="V889" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W889" s="1" t="n">
         <v>13</v>
       </c>
@@ -40090,6 +40156,9 @@
         <f aca="false">SUM(F891:O891)</f>
         <v>0.7951</v>
       </c>
+      <c r="V891" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W891" s="1" t="n">
         <v>13</v>
       </c>
@@ -40225,6 +40294,9 @@
         <f aca="false">SUM(F894:O894)</f>
         <v>0.4025</v>
       </c>
+      <c r="V894" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W894" s="1" t="n">
         <v>13</v>
       </c>
@@ -40354,6 +40426,9 @@
         <f aca="false">SUM(F898:O898)</f>
         <v>0.4141</v>
       </c>
+      <c r="V898" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W898" s="1" t="n">
         <v>13</v>
       </c>
@@ -40411,6 +40486,9 @@
         <f aca="false">SUM(F899:O899)</f>
         <v>0.6722</v>
       </c>
+      <c r="V899" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W899" s="1" t="n">
         <v>13</v>
       </c>
@@ -40462,6 +40540,9 @@
         <f aca="false">SUM(F900:O900)</f>
         <v>0.4295</v>
       </c>
+      <c r="V900" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W900" s="1" t="n">
         <v>13</v>
       </c>
@@ -40519,6 +40600,9 @@
         <f aca="false">SUM(F901:O901)</f>
         <v>0.6895</v>
       </c>
+      <c r="V901" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W901" s="1" t="n">
         <v>13</v>
       </c>
@@ -40570,6 +40654,9 @@
         <f aca="false">SUM(F902:O902)</f>
         <v>0.4326</v>
       </c>
+      <c r="V902" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W902" s="1" t="n">
         <v>13</v>
       </c>
@@ -40627,6 +40714,9 @@
         <f aca="false">SUM(F903:O903)</f>
         <v>0.7005</v>
       </c>
+      <c r="V903" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W903" s="1" t="n">
         <v>13</v>
       </c>
@@ -40678,6 +40768,9 @@
         <f aca="false">SUM(F904:O904)</f>
         <v>0.4357</v>
       </c>
+      <c r="V904" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W904" s="1" t="n">
         <v>13</v>
       </c>
@@ -40735,6 +40828,9 @@
         <f aca="false">SUM(F905:O905)</f>
         <v>0.7347</v>
       </c>
+      <c r="V905" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W905" s="1" t="n">
         <v>13</v>
       </c>
@@ -40786,6 +40882,9 @@
         <f aca="false">SUM(F906:O906)</f>
         <v>0.4458</v>
       </c>
+      <c r="V906" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W906" s="1" t="n">
         <v>13</v>
       </c>
@@ -40843,6 +40942,9 @@
         <f aca="false">SUM(F907:O907)</f>
         <v>0.7208</v>
       </c>
+      <c r="V907" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W907" s="1" t="n">
         <v>13</v>
       </c>
@@ -40894,6 +40996,9 @@
         <f aca="false">SUM(F908:O908)</f>
         <v>0.4637</v>
       </c>
+      <c r="V908" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W908" s="1" t="n">
         <v>13</v>
       </c>
@@ -40951,6 +41056,9 @@
         <f aca="false">SUM(F909:O909)</f>
         <v>0.7031</v>
       </c>
+      <c r="V909" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W909" s="1" t="n">
         <v>13</v>
       </c>
@@ -41002,6 +41110,9 @@
         <f aca="false">SUM(F910:O910)</f>
         <v>0.4041</v>
       </c>
+      <c r="V910" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W910" s="1" t="n">
         <v>13</v>
       </c>
@@ -41059,6 +41170,9 @@
         <f aca="false">SUM(F911:O911)</f>
         <v>0.6713</v>
       </c>
+      <c r="V911" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W911" s="1" t="n">
         <v>13</v>
       </c>
@@ -41110,6 +41224,9 @@
         <f aca="false">SUM(F912:O912)</f>
         <v>0.3988</v>
       </c>
+      <c r="V912" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W912" s="1" t="n">
         <v>13</v>
       </c>
@@ -41167,6 +41284,9 @@
         <f aca="false">SUM(F913:O913)</f>
         <v>0.6339</v>
       </c>
+      <c r="V913" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W913" s="1" t="n">
         <v>13</v>
       </c>
@@ -41218,6 +41338,9 @@
         <f aca="false">SUM(F914:O914)</f>
         <v>0.4075</v>
       </c>
+      <c r="V914" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W914" s="1" t="n">
         <v>13</v>
       </c>
@@ -41347,6 +41470,9 @@
         <f aca="false">SUM(F918:O918)</f>
         <v>0.382</v>
       </c>
+      <c r="V918" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W918" s="1" t="n">
         <v>13</v>
       </c>
@@ -41404,6 +41530,9 @@
         <f aca="false">SUM(F919:O919)</f>
         <v>0.6752</v>
       </c>
+      <c r="V919" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W919" s="1" t="n">
         <v>13</v>
       </c>
@@ -41455,6 +41584,9 @@
         <f aca="false">SUM(F920:O920)</f>
         <v>0.4032</v>
       </c>
+      <c r="V920" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W920" s="1" t="n">
         <v>13</v>
       </c>
@@ -41638,6 +41770,9 @@
         <f aca="false">SUM(F926:O926)</f>
         <v>0.389</v>
       </c>
+      <c r="V926" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W926" s="1" t="n">
         <v>13</v>
       </c>
@@ -41695,6 +41830,9 @@
         <f aca="false">SUM(F927:O927)</f>
         <v>0.7213</v>
       </c>
+      <c r="V927" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W927" s="1" t="n">
         <v>13</v>
       </c>
@@ -41824,6 +41962,9 @@
         <f aca="false">SUM(F931:O931)</f>
         <v>0.7417</v>
       </c>
+      <c r="V931" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W931" s="1" t="n">
         <v>14</v>
       </c>
@@ -41875,6 +42016,9 @@
         <f aca="false">SUM(F932:O932)</f>
         <v>0.4294</v>
       </c>
+      <c r="V932" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W932" s="1" t="n">
         <v>14</v>
       </c>
@@ -41932,6 +42076,9 @@
         <f aca="false">SUM(F933:O933)</f>
         <v>0.7368</v>
       </c>
+      <c r="V933" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W933" s="1" t="n">
         <v>14</v>
       </c>
@@ -42007,6 +42154,9 @@
         <f aca="false">SUM(F935:O935)</f>
         <v>0.6491</v>
       </c>
+      <c r="V935" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W935" s="1" t="n">
         <v>14</v>
       </c>
@@ -42160,6 +42310,9 @@
         <f aca="false">SUM(F940:O940)</f>
         <v>0.41</v>
       </c>
+      <c r="V940" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W940" s="1" t="n">
         <v>14</v>
       </c>
@@ -42217,6 +42370,9 @@
         <f aca="false">SUM(F941:O941)</f>
         <v>0.6893</v>
       </c>
+      <c r="V941" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W941" s="1" t="n">
         <v>14</v>
       </c>
@@ -42268,6 +42424,9 @@
         <f aca="false">SUM(F942:O942)</f>
         <v>0.42</v>
       </c>
+      <c r="V942" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W942" s="1" t="n">
         <v>14</v>
       </c>
@@ -42325,6 +42484,9 @@
         <f aca="false">SUM(F943:O943)</f>
         <v>0.7109</v>
       </c>
+      <c r="V943" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W943" s="1" t="n">
         <v>14</v>
       </c>
@@ -42400,6 +42562,9 @@
         <f aca="false">SUM(F945:O945)</f>
         <v>0.7123</v>
       </c>
+      <c r="V945" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W945" s="1" t="n">
         <v>14</v>
       </c>
@@ -42451,6 +42616,9 @@
         <f aca="false">SUM(F946:O946)</f>
         <v>0.3733</v>
       </c>
+      <c r="V946" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W946" s="1" t="n">
         <v>14</v>
       </c>
@@ -42508,6 +42676,9 @@
         <f aca="false">SUM(F947:O947)</f>
         <v>0.6817</v>
       </c>
+      <c r="V947" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W947" s="1" t="n">
         <v>14</v>
       </c>
@@ -42685,6 +42856,9 @@
         <f aca="false">SUM(F953:O953)</f>
         <v>0.7145</v>
       </c>
+      <c r="V953" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W953" s="1" t="n">
         <v>14</v>
       </c>
@@ -42736,6 +42910,9 @@
         <f aca="false">SUM(F954:O954)</f>
         <v>0.4251</v>
       </c>
+      <c r="V954" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W954" s="1" t="n">
         <v>14</v>
       </c>
@@ -42793,6 +42970,9 @@
         <f aca="false">SUM(F955:O955)</f>
         <v>0.7084</v>
       </c>
+      <c r="V955" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W955" s="1" t="n">
         <v>14</v>
       </c>
@@ -42844,6 +43024,9 @@
         <f aca="false">SUM(F956:O956)</f>
         <v>0.4331</v>
       </c>
+      <c r="V956" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W956" s="1" t="n">
         <v>14</v>
       </c>
@@ -42901,6 +43084,9 @@
         <f aca="false">SUM(F957:O957)</f>
         <v>0.6814</v>
       </c>
+      <c r="V957" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W957" s="1" t="n">
         <v>14</v>
       </c>
@@ -42952,6 +43138,9 @@
         <f aca="false">SUM(F958:O958)</f>
         <v>0.4414</v>
       </c>
+      <c r="V958" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W958" s="1" t="n">
         <v>14</v>
       </c>
@@ -43009,6 +43198,9 @@
         <f aca="false">SUM(F959:O959)</f>
         <v>0.6858</v>
       </c>
+      <c r="V959" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W959" s="1" t="n">
         <v>14</v>
       </c>
@@ -43084,6 +43276,9 @@
         <f aca="false">SUM(F961:O961)</f>
         <v>0.7019</v>
       </c>
+      <c r="V961" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W961" s="1" t="n">
         <v>14</v>
       </c>
@@ -43135,6 +43330,9 @@
         <f aca="false">SUM(F962:O962)</f>
         <v>0.4199</v>
       </c>
+      <c r="V962" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W962" s="1" t="n">
         <v>14</v>
       </c>
@@ -43192,6 +43390,9 @@
         <f aca="false">SUM(F963:O963)</f>
         <v>0.7047</v>
       </c>
+      <c r="V963" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W963" s="1" t="n">
         <v>14</v>
       </c>
@@ -43399,6 +43600,9 @@
         <f aca="false">SUM(F970:O970)</f>
         <v>0.403</v>
       </c>
+      <c r="V970" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W970" s="1" t="n">
         <v>14</v>
       </c>
@@ -43456,6 +43660,9 @@
         <f aca="false">SUM(F971:O971)</f>
         <v>0.7177</v>
       </c>
+      <c r="V971" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W971" s="1" t="n">
         <v>14</v>
       </c>
@@ -43473,9 +43680,42 @@
       <c r="C972" s="1" t="n">
         <v>1600</v>
       </c>
+      <c r="F972" s="1" t="n">
+        <v>0.0111</v>
+      </c>
+      <c r="G972" s="1" t="n">
+        <v>0.0162</v>
+      </c>
+      <c r="H972" s="1" t="n">
+        <v>0.0187</v>
+      </c>
+      <c r="I972" s="1" t="n">
+        <v>0.0381</v>
+      </c>
+      <c r="J972" s="1" t="n">
+        <v>0.0733</v>
+      </c>
+      <c r="K972" s="1" t="n">
+        <v>0.0124</v>
+      </c>
+      <c r="L972" s="1" t="n">
+        <v>0.0168</v>
+      </c>
+      <c r="M972" s="1" t="n">
+        <v>0.0205</v>
+      </c>
+      <c r="N972" s="1" t="n">
+        <v>0.0545</v>
+      </c>
+      <c r="O972" s="1" t="n">
+        <v>0.1987</v>
+      </c>
       <c r="P972" s="1" t="n">
         <f aca="false">SUM(F972:O972)</f>
-        <v>0</v>
+        <v>0.4603</v>
+      </c>
+      <c r="V972" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="W972" s="1" t="n">
         <v>14</v>
@@ -43500,9 +43740,42 @@
       <c r="E973" s="1" t="n">
         <v>2100</v>
       </c>
+      <c r="F973" s="1" t="n">
+        <v>0.0468</v>
+      </c>
+      <c r="G973" s="1" t="n">
+        <v>0.0691</v>
+      </c>
+      <c r="H973" s="1" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="I973" s="1" t="n">
+        <v>0.0479</v>
+      </c>
+      <c r="J973" s="1" t="n">
+        <v>0.0718</v>
+      </c>
+      <c r="K973" s="1" t="n">
+        <v>0.0563</v>
+      </c>
+      <c r="L973" s="1" t="n">
+        <v>0.0963</v>
+      </c>
+      <c r="M973" s="1" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="N973" s="1" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="O973" s="1" t="n">
+        <v>0.1961</v>
+      </c>
       <c r="P973" s="1" t="n">
         <f aca="false">SUM(F973:O973)</f>
-        <v>0</v>
+        <v>0.7617</v>
+      </c>
+      <c r="V973" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="W973" s="1" t="n">
         <v>14</v>
@@ -43521,9 +43794,42 @@
       <c r="C974" s="1" t="n">
         <v>2100</v>
       </c>
+      <c r="F974" s="1" t="n">
+        <v>0.0495</v>
+      </c>
+      <c r="G974" s="1" t="n">
+        <v>0.0709</v>
+      </c>
+      <c r="H974" s="1" t="n">
+        <v>0.0468</v>
+      </c>
+      <c r="I974" s="1" t="n">
+        <v>0.0219</v>
+      </c>
+      <c r="J974" s="1" t="n">
+        <v>0.0134</v>
+      </c>
+      <c r="K974" s="1" t="n">
+        <v>0.0597</v>
+      </c>
+      <c r="L974" s="1" t="n">
+        <v>0.0981</v>
+      </c>
+      <c r="M974" s="1" t="n">
+        <v>0.0573</v>
+      </c>
+      <c r="N974" s="1" t="n">
+        <v>0.0229</v>
+      </c>
+      <c r="O974" s="1" t="n">
+        <v>0.0101</v>
+      </c>
       <c r="P974" s="1" t="n">
         <f aca="false">SUM(F974:O974)</f>
-        <v>0</v>
+        <v>0.4506</v>
+      </c>
+      <c r="V974" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="W974" s="1" t="n">
         <v>14</v>
@@ -43552,6 +43858,9 @@
         <f aca="false">SUM(F975:O975)</f>
         <v>0</v>
       </c>
+      <c r="V975" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="W975" s="1" t="n">
         <v>14</v>
       </c>
@@ -43573,6 +43882,9 @@
         <f aca="false">SUM(F976:O976)</f>
         <v>0</v>
       </c>
+      <c r="V976" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="W976" s="1" t="n">
         <v>14</v>
       </c>
@@ -43600,6 +43912,9 @@
         <f aca="false">SUM(F977:O977)</f>
         <v>0</v>
       </c>
+      <c r="V977" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="W977" s="1" t="n">
         <v>14</v>
       </c>
@@ -43645,6 +43960,9 @@
         <f aca="false">SUM(F979:O979)</f>
         <v>0</v>
       </c>
+      <c r="V979" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="W979" s="1" t="n">
         <v>14</v>
       </c>
@@ -43686,9 +44004,42 @@
       <c r="E981" s="1" t="n">
         <v>850</v>
       </c>
+      <c r="F981" s="1" t="n">
+        <v>0.0359</v>
+      </c>
+      <c r="G981" s="1" t="n">
+        <v>0.0498</v>
+      </c>
+      <c r="H981" s="1" t="n">
+        <v>0.0408</v>
+      </c>
+      <c r="I981" s="1" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="J981" s="1" t="n">
+        <v>0.1194</v>
+      </c>
+      <c r="K981" s="1" t="n">
+        <v>0.0546</v>
+      </c>
+      <c r="L981" s="1" t="n">
+        <v>0.1573</v>
+      </c>
+      <c r="M981" s="1" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="N981" s="1" t="n">
+        <v>0.0517</v>
+      </c>
+      <c r="O981" s="1" t="n">
+        <v>0.1391</v>
+      </c>
       <c r="P981" s="1" t="n">
         <f aca="false">SUM(F981:O981)</f>
-        <v>0</v>
+        <v>0.7615</v>
+      </c>
+      <c r="V981" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="W981" s="1" t="n">
         <v>14</v>
@@ -43707,9 +44058,42 @@
       <c r="C982" s="1" t="n">
         <v>850</v>
       </c>
+      <c r="F982" s="1" t="n">
+        <v>0.0413</v>
+      </c>
+      <c r="G982" s="1" t="n">
+        <v>0.0551</v>
+      </c>
+      <c r="H982" s="1" t="n">
+        <v>0.0403</v>
+      </c>
+      <c r="I982" s="1" t="n">
+        <v>0.0225</v>
+      </c>
+      <c r="J982" s="1" t="n">
+        <v>0.0161</v>
+      </c>
+      <c r="K982" s="1" t="n">
+        <v>0.0612</v>
+      </c>
+      <c r="L982" s="1" t="n">
+        <v>0.1615</v>
+      </c>
+      <c r="M982" s="1" t="n">
+        <v>0.0629</v>
+      </c>
+      <c r="N982" s="1" t="n">
+        <v>0.0244</v>
+      </c>
+      <c r="O982" s="1" t="n">
+        <v>0.0129</v>
+      </c>
       <c r="P982" s="1" t="n">
         <f aca="false">SUM(F982:O982)</f>
-        <v>0</v>
+        <v>0.4982</v>
+      </c>
+      <c r="V982" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="W982" s="1" t="n">
         <v>14</v>
@@ -43734,9 +44118,42 @@
       <c r="E983" s="1" t="n">
         <v>1350</v>
       </c>
+      <c r="F983" s="1" t="n">
+        <v>0.0357</v>
+      </c>
+      <c r="G983" s="1" t="n">
+        <v>0.0493</v>
+      </c>
+      <c r="H983" s="1" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="I983" s="1" t="n">
+        <v>0.0338</v>
+      </c>
+      <c r="J983" s="1" t="n">
+        <v>0.0558</v>
+      </c>
+      <c r="K983" s="1" t="n">
+        <v>0.0546</v>
+      </c>
+      <c r="L983" s="1" t="n">
+        <v>0.1583</v>
+      </c>
+      <c r="M983" s="1" t="n">
+        <v>0.0621</v>
+      </c>
+      <c r="N983" s="1" t="n">
+        <v>0.0439</v>
+      </c>
+      <c r="O983" s="1" t="n">
+        <v>0.2164</v>
+      </c>
       <c r="P983" s="1" t="n">
         <f aca="false">SUM(F983:O983)</f>
-        <v>0</v>
+        <v>0.7479</v>
+      </c>
+      <c r="V983" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="W983" s="1" t="n">
         <v>14</v>
@@ -43779,9 +44196,42 @@
       <c r="E985" s="1" t="n">
         <v>2350</v>
       </c>
+      <c r="F985" s="1" t="n">
+        <v>0.0228</v>
+      </c>
+      <c r="G985" s="1" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="H985" s="1" t="n">
+        <v>0.0667</v>
+      </c>
+      <c r="I985" s="1" t="n">
+        <v>0.0864</v>
+      </c>
+      <c r="J985" s="1" t="n">
+        <v>0.0795</v>
+      </c>
+      <c r="K985" s="1" t="n">
+        <v>0.0257</v>
+      </c>
+      <c r="L985" s="1" t="n">
+        <v>0.0486</v>
+      </c>
+      <c r="M985" s="1" t="n">
+        <v>0.0803</v>
+      </c>
+      <c r="N985" s="1" t="n">
+        <v>0.1063</v>
+      </c>
+      <c r="O985" s="1" t="n">
+        <v>0.2399</v>
+      </c>
       <c r="P985" s="1" t="n">
         <f aca="false">SUM(F985:O985)</f>
-        <v>0</v>
+        <v>0.7982</v>
+      </c>
+      <c r="V985" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="W985" s="1" t="n">
         <v>14</v>
@@ -43800,9 +44250,42 @@
       <c r="C986" s="1" t="n">
         <v>2350</v>
       </c>
+      <c r="F986" s="1" t="n">
+        <v>0.0221</v>
+      </c>
+      <c r="G986" s="1" t="n">
+        <v>0.0417</v>
+      </c>
+      <c r="H986" s="1" t="n">
+        <v>0.0636</v>
+      </c>
+      <c r="I986" s="1" t="n">
+        <v>0.0709</v>
+      </c>
+      <c r="J986" s="1" t="n">
+        <v>0.0365</v>
+      </c>
+      <c r="K986" s="1" t="n">
+        <v>0.0252</v>
+      </c>
+      <c r="L986" s="1" t="n">
+        <v>0.0494</v>
+      </c>
+      <c r="M986" s="1" t="n">
+        <v>0.0771</v>
+      </c>
+      <c r="N986" s="1" t="n">
+        <v>0.0839</v>
+      </c>
+      <c r="O986" s="1" t="n">
+        <v>0.0372</v>
+      </c>
       <c r="P986" s="1" t="n">
         <f aca="false">SUM(F986:O986)</f>
-        <v>0</v>
+        <v>0.5076</v>
+      </c>
+      <c r="V986" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="W986" s="1" t="n">
         <v>14</v>
@@ -43827,9 +44310,42 @@
       <c r="E987" s="1" t="n">
         <v>4350</v>
       </c>
+      <c r="F987" s="1" t="n">
+        <v>0.0215</v>
+      </c>
+      <c r="G987" s="1" t="n">
+        <v>0.0443</v>
+      </c>
+      <c r="H987" s="1" t="n">
+        <v>0.0769</v>
+      </c>
+      <c r="I987" s="1" t="n">
+        <v>0.1651</v>
+      </c>
+      <c r="J987" s="1" t="n">
+        <v>0.1285</v>
+      </c>
+      <c r="K987" s="1" t="n">
+        <v>0.0243</v>
+      </c>
+      <c r="L987" s="1" t="n">
+        <v>0.0535</v>
+      </c>
+      <c r="M987" s="1" t="n">
+        <v>0.0879</v>
+      </c>
+      <c r="N987" s="1" t="n">
+        <v>0.1131</v>
+      </c>
+      <c r="O987" s="1" t="n">
+        <v>0.0836</v>
+      </c>
       <c r="P987" s="1" t="n">
         <f aca="false">SUM(F987:O987)</f>
-        <v>0</v>
+        <v>0.7987</v>
+      </c>
+      <c r="V987" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="W987" s="1" t="n">
         <v>14</v>
@@ -43872,9 +44388,42 @@
       <c r="E989" s="1" t="n">
         <v>2100</v>
       </c>
+      <c r="F989" s="1" t="n">
+        <v>0.0157</v>
+      </c>
+      <c r="G989" s="1" t="n">
+        <v>0.0279</v>
+      </c>
+      <c r="H989" s="1" t="n">
+        <v>0.0405</v>
+      </c>
+      <c r="I989" s="1" t="n">
+        <v>0.1446</v>
+      </c>
+      <c r="J989" s="1" t="n">
+        <v>0.2046</v>
+      </c>
+      <c r="K989" s="1" t="n">
+        <v>0.0185</v>
+      </c>
+      <c r="L989" s="1" t="n">
+        <v>0.0385</v>
+      </c>
+      <c r="M989" s="1" t="n">
+        <v>0.0427</v>
+      </c>
+      <c r="N989" s="1" t="n">
+        <v>0.084</v>
+      </c>
+      <c r="O989" s="1" t="n">
+        <v>0.2414</v>
+      </c>
       <c r="P989" s="1" t="n">
         <f aca="false">SUM(F989:O989)</f>
-        <v>0</v>
+        <v>0.8584</v>
+      </c>
+      <c r="V989" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="W989" s="1" t="n">
         <v>14</v>
@@ -43893,9 +44442,42 @@
       <c r="C990" s="1" t="n">
         <v>2100</v>
       </c>
+      <c r="F990" s="1" t="n">
+        <v>0.0116</v>
+      </c>
+      <c r="G990" s="1" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="H990" s="1" t="n">
+        <v>0.0218</v>
+      </c>
+      <c r="I990" s="1" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J990" s="1" t="n">
+        <v>0.1019</v>
+      </c>
+      <c r="K990" s="1" t="n">
+        <v>0.0144</v>
+      </c>
+      <c r="L990" s="1" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="M990" s="1" t="n">
+        <v>0.0292</v>
+      </c>
+      <c r="N990" s="1" t="n">
+        <v>0.0457</v>
+      </c>
+      <c r="O990" s="1" t="n">
+        <v>0.169</v>
+      </c>
       <c r="P990" s="1" t="n">
         <f aca="false">SUM(F990:O990)</f>
-        <v>0</v>
+        <v>0.4906</v>
+      </c>
+      <c r="V990" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="W990" s="1" t="n">
         <v>14</v>
@@ -43920,9 +44502,42 @@
       <c r="E991" s="1" t="n">
         <v>2600</v>
       </c>
+      <c r="F991" s="1" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="G991" s="1" t="n">
+        <v>0.0732</v>
+      </c>
+      <c r="H991" s="1" t="n">
+        <v>0.0835</v>
+      </c>
+      <c r="I991" s="1" t="n">
+        <v>0.0679</v>
+      </c>
+      <c r="J991" s="1" t="n">
+        <v>0.1076</v>
+      </c>
+      <c r="K991" s="1" t="n">
+        <v>0.0414</v>
+      </c>
+      <c r="L991" s="1" t="n">
+        <v>0.0843</v>
+      </c>
+      <c r="M991" s="1" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="N991" s="1" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="O991" s="1" t="n">
+        <v>0.1781</v>
+      </c>
       <c r="P991" s="1" t="n">
         <f aca="false">SUM(F991:O991)</f>
-        <v>0</v>
+        <v>0.838</v>
+      </c>
+      <c r="V991" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="W991" s="1" t="n">
         <v>14</v>
@@ -43941,9 +44556,42 @@
       <c r="C992" s="1" t="n">
         <v>2600</v>
       </c>
+      <c r="F992" s="1" t="n">
+        <v>0.0387</v>
+      </c>
+      <c r="G992" s="1" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="H992" s="1" t="n">
+        <v>0.0788</v>
+      </c>
+      <c r="I992" s="1" t="n">
+        <v>0.0396</v>
+      </c>
+      <c r="J992" s="1" t="n">
+        <v>0.0182</v>
+      </c>
+      <c r="K992" s="1" t="n">
+        <v>0.0436</v>
+      </c>
+      <c r="L992" s="1" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="M992" s="1" t="n">
+        <v>0.0864</v>
+      </c>
+      <c r="N992" s="1" t="n">
+        <v>0.0409</v>
+      </c>
+      <c r="O992" s="1" t="n">
+        <v>0.016</v>
+      </c>
       <c r="P992" s="1" t="n">
         <f aca="false">SUM(F992:O992)</f>
-        <v>0</v>
+        <v>0.5212</v>
+      </c>
+      <c r="V992" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="W992" s="1" t="n">
         <v>14</v>
@@ -43968,9 +44616,42 @@
       <c r="E993" s="1" t="n">
         <v>350</v>
       </c>
+      <c r="F993" s="1" t="n">
+        <v>0.0527</v>
+      </c>
+      <c r="G993" s="1" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="H993" s="1" t="n">
+        <v>0.1036</v>
+      </c>
+      <c r="I993" s="1" t="n">
+        <v>0.0544</v>
+      </c>
+      <c r="J993" s="1" t="n">
+        <v>0.0233</v>
+      </c>
+      <c r="K993" s="1" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="L993" s="1" t="n">
+        <v>0.1442</v>
+      </c>
+      <c r="M993" s="1" t="n">
+        <v>0.2142</v>
+      </c>
+      <c r="N993" s="1" t="n">
+        <v>0.0633</v>
+      </c>
+      <c r="O993" s="1" t="n">
+        <v>0.0237</v>
+      </c>
       <c r="P993" s="1" t="n">
         <f aca="false">SUM(F993:O993)</f>
-        <v>0</v>
+        <v>0.8399</v>
+      </c>
+      <c r="V993" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="W993" s="1" t="n">
         <v>14</v>
@@ -43989,9 +44670,42 @@
       <c r="C994" s="1" t="n">
         <v>350</v>
       </c>
+      <c r="F994" s="1" t="n">
+        <v>0.0327</v>
+      </c>
+      <c r="G994" s="1" t="n">
+        <v>0.0529</v>
+      </c>
+      <c r="H994" s="1" t="n">
+        <v>0.0475</v>
+      </c>
+      <c r="I994" s="1" t="n">
+        <v>0.0277</v>
+      </c>
+      <c r="J994" s="1" t="n">
+        <v>0.0149</v>
+      </c>
+      <c r="K994" s="1" t="n">
+        <v>0.0419</v>
+      </c>
+      <c r="L994" s="1" t="n">
+        <v>0.1032</v>
+      </c>
+      <c r="M994" s="1" t="n">
+        <v>0.1589</v>
+      </c>
+      <c r="N994" s="1" t="n">
+        <v>0.0371</v>
+      </c>
+      <c r="O994" s="1" t="n">
+        <v>0.013</v>
+      </c>
       <c r="P994" s="1" t="n">
         <f aca="false">SUM(F994:O994)</f>
-        <v>0</v>
+        <v>0.5298</v>
+      </c>
+      <c r="V994" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="W994" s="1" t="n">
         <v>14</v>
@@ -44016,9 +44730,42 @@
       <c r="E995" s="1" t="n">
         <v>3600</v>
       </c>
+      <c r="F995" s="1" t="n">
+        <v>0.0429</v>
+      </c>
+      <c r="G995" s="1" t="n">
+        <v>0.0805</v>
+      </c>
+      <c r="H995" s="1" t="n">
+        <v>0.1269</v>
+      </c>
+      <c r="I995" s="1" t="n">
+        <v>0.0877</v>
+      </c>
+      <c r="J995" s="1" t="n">
+        <v>0.0326</v>
+      </c>
+      <c r="K995" s="1" t="n">
+        <v>0.0515</v>
+      </c>
+      <c r="L995" s="1" t="n">
+        <v>0.1228</v>
+      </c>
+      <c r="M995" s="1" t="n">
+        <v>0.1942</v>
+      </c>
+      <c r="N995" s="1" t="n">
+        <v>0.0728</v>
+      </c>
+      <c r="O995" s="1" t="n">
+        <v>0.0319</v>
+      </c>
       <c r="P995" s="1" t="n">
         <f aca="false">SUM(F995:O995)</f>
-        <v>0</v>
+        <v>0.8438</v>
+      </c>
+      <c r="V995" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="W995" s="1" t="n">
         <v>14</v>
@@ -44061,9 +44808,42 @@
       <c r="E997" s="1" t="n">
         <v>4100</v>
       </c>
+      <c r="F997" s="1" t="n">
+        <v>0.0392</v>
+      </c>
+      <c r="G997" s="1" t="n">
+        <v>0.0886</v>
+      </c>
+      <c r="H997" s="1" t="n">
+        <v>0.2105</v>
+      </c>
+      <c r="I997" s="1" t="n">
+        <v>0.1207</v>
+      </c>
+      <c r="J997" s="1" t="n">
+        <v>0.0404</v>
+      </c>
+      <c r="K997" s="1" t="n">
+        <v>0.0419</v>
+      </c>
+      <c r="L997" s="1" t="n">
+        <v>0.0826</v>
+      </c>
+      <c r="M997" s="1" t="n">
+        <v>0.0985</v>
+      </c>
+      <c r="N997" s="1" t="n">
+        <v>0.0774</v>
+      </c>
+      <c r="O997" s="1" t="n">
+        <v>0.0382</v>
+      </c>
       <c r="P997" s="1" t="n">
         <f aca="false">SUM(F997:O997)</f>
-        <v>0</v>
+        <v>0.838</v>
+      </c>
+      <c r="V997" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="W997" s="1" t="n">
         <v>14</v>
@@ -44106,9 +44886,42 @@
       <c r="E999" s="1" t="n">
         <v>1850</v>
       </c>
+      <c r="F999" s="1" t="n">
+        <v>0.0501</v>
+      </c>
+      <c r="G999" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H999" s="1" t="n">
+        <v>0.1736</v>
+      </c>
+      <c r="I999" s="1" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="J999" s="1" t="n">
+        <v>0.0304</v>
+      </c>
+      <c r="K999" s="1" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="L999" s="1" t="n">
+        <v>0.1186</v>
+      </c>
+      <c r="M999" s="1" t="n">
+        <v>0.1317</v>
+      </c>
+      <c r="N999" s="1" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="O999" s="1" t="n">
+        <v>0.0292</v>
+      </c>
       <c r="P999" s="1" t="n">
         <f aca="false">SUM(F999:O999)</f>
-        <v>0</v>
+        <v>0.8396</v>
+      </c>
+      <c r="V999" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="W999" s="1" t="n">
         <v>14</v>
@@ -44127,9 +44940,45 @@
       <c r="C1000" s="1" t="n">
         <v>1850</v>
       </c>
+      <c r="F1000" s="1" t="n">
+        <v>0.0403</v>
+      </c>
+      <c r="G1000" s="1" t="n">
+        <v>0.0686</v>
+      </c>
+      <c r="H1000" s="1" t="n">
+        <v>0.0637</v>
+      </c>
+      <c r="I1000" s="1" t="n">
+        <v>0.0339</v>
+      </c>
+      <c r="J1000" s="1" t="n">
+        <v>0.0175</v>
+      </c>
+      <c r="K1000" s="1" t="n">
+        <v>0.0484</v>
+      </c>
+      <c r="L1000" s="1" t="n">
+        <v>0.1009</v>
+      </c>
+      <c r="M1000" s="1" t="n">
+        <v>0.1007</v>
+      </c>
+      <c r="N1000" s="1" t="n">
+        <v>0.0394</v>
+      </c>
+      <c r="O1000" s="1" t="n">
+        <v>0.0154</v>
+      </c>
       <c r="P1000" s="1" t="n">
         <f aca="false">SUM(F1000:O1000)</f>
-        <v>0</v>
+        <v>0.5288</v>
+      </c>
+      <c r="V1000" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1000" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="X1000" s="1" t="n">
         <v>1</v>
@@ -44151,9 +45000,45 @@
       <c r="E1001" s="1" t="n">
         <v>350</v>
       </c>
+      <c r="F1001" s="1" t="n">
+        <v>0.0577</v>
+      </c>
+      <c r="G1001" s="1" t="n">
+        <v>0.0918</v>
+      </c>
+      <c r="H1001" s="1" t="n">
+        <v>0.0809</v>
+      </c>
+      <c r="I1001" s="1" t="n">
+        <v>0.0414</v>
+      </c>
+      <c r="J1001" s="1" t="n">
+        <v>0.0194</v>
+      </c>
+      <c r="K1001" s="1" t="n">
+        <v>0.0773</v>
+      </c>
+      <c r="L1001" s="1" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="M1001" s="1" t="n">
+        <v>0.1389</v>
+      </c>
+      <c r="N1001" s="1" t="n">
+        <v>0.0485</v>
+      </c>
+      <c r="O1001" s="1" t="n">
+        <v>0.0185</v>
+      </c>
       <c r="P1001" s="1" t="n">
         <f aca="false">SUM(F1001:O1001)</f>
-        <v>0</v>
+        <v>0.8272</v>
+      </c>
+      <c r="V1001" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1001" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="X1001" s="1" t="n">
         <v>2</v>
@@ -44170,6 +45055,9 @@
       <c r="V1002" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="W1002" s="1" t="n">
+        <v>14</v>
+      </c>
       <c r="X1002" s="1" t="n">
         <v>1</v>
       </c>
@@ -44194,6 +45082,12 @@
         <f aca="false">SUM(F1003:O1003)</f>
         <v>0</v>
       </c>
+      <c r="V1003" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1003" s="1" t="n">
+        <v>14</v>
+      </c>
       <c r="X1003" s="1" t="n">
         <v>2</v>
       </c>
@@ -44209,6 +45103,9 @@
       <c r="V1004" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="W1004" s="1" t="n">
+        <v>14</v>
+      </c>
       <c r="X1004" s="1" t="n">
         <v>1</v>
       </c>
@@ -44233,6 +45130,12 @@
         <f aca="false">SUM(F1005:O1005)</f>
         <v>0</v>
       </c>
+      <c r="V1005" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1005" s="1" t="n">
+        <v>14</v>
+      </c>
       <c r="X1005" s="1" t="n">
         <v>2</v>
       </c>
@@ -44247,9 +45150,45 @@
       <c r="C1006" s="1" t="n">
         <v>1350</v>
       </c>
+      <c r="F1006" s="1" t="n">
+        <v>0.0223</v>
+      </c>
+      <c r="G1006" s="1" t="n">
+        <v>0.0368</v>
+      </c>
+      <c r="H1006" s="1" t="n">
+        <v>0.0404</v>
+      </c>
+      <c r="I1006" s="1" t="n">
+        <v>0.0535</v>
+      </c>
+      <c r="J1006" s="1" t="n">
+        <v>0.0468</v>
+      </c>
+      <c r="K1006" s="1" t="n">
+        <v>0.0272</v>
+      </c>
+      <c r="L1006" s="1" t="n">
+        <v>0.0562</v>
+      </c>
+      <c r="M1006" s="1" t="n">
+        <v>0.0584</v>
+      </c>
+      <c r="N1006" s="1" t="n">
+        <v>0.1579</v>
+      </c>
+      <c r="O1006" s="1" t="n">
+        <v>0.0716</v>
+      </c>
       <c r="P1006" s="1" t="n">
         <f aca="false">SUM(F1006:O1006)</f>
-        <v>0</v>
+        <v>0.5711</v>
+      </c>
+      <c r="V1006" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1006" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="X1006" s="1" t="n">
         <v>1</v>
@@ -44271,9 +45210,45 @@
       <c r="E1007" s="1" t="n">
         <v>1600</v>
       </c>
+      <c r="F1007" s="1" t="n">
+        <v>0.0517</v>
+      </c>
+      <c r="G1007" s="1" t="n">
+        <v>0.0808</v>
+      </c>
+      <c r="H1007" s="1" t="n">
+        <v>0.0724</v>
+      </c>
+      <c r="I1007" s="1" t="n">
+        <v>0.0653</v>
+      </c>
+      <c r="J1007" s="1" t="n">
+        <v>0.0481</v>
+      </c>
+      <c r="K1007" s="1" t="n">
+        <v>0.0663</v>
+      </c>
+      <c r="L1007" s="1" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="M1007" s="1" t="n">
+        <v>0.1101</v>
+      </c>
+      <c r="N1007" s="1" t="n">
+        <v>0.1702</v>
+      </c>
+      <c r="O1007" s="1" t="n">
+        <v>0.0744</v>
+      </c>
       <c r="P1007" s="1" t="n">
         <f aca="false">SUM(F1007:O1007)</f>
-        <v>0</v>
+        <v>0.8833</v>
+      </c>
+      <c r="V1007" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1007" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="X1007" s="1" t="n">
         <v>2</v>
@@ -44290,6 +45265,9 @@
       <c r="V1008" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="W1008" s="1" t="n">
+        <v>14</v>
+      </c>
       <c r="X1008" s="1" t="n">
         <v>1</v>
       </c>
@@ -44310,9 +45288,45 @@
       <c r="E1009" s="1" t="n">
         <v>3850</v>
       </c>
+      <c r="F1009" s="1" t="n">
+        <v>0.0598</v>
+      </c>
+      <c r="G1009" s="1" t="n">
+        <v>0.1022</v>
+      </c>
+      <c r="H1009" s="1" t="n">
+        <v>0.1422</v>
+      </c>
+      <c r="I1009" s="1" t="n">
+        <v>0.0892</v>
+      </c>
+      <c r="J1009" s="1" t="n">
+        <v>0.0312</v>
+      </c>
+      <c r="K1009" s="1" t="n">
+        <v>0.0743</v>
+      </c>
+      <c r="L1009" s="1" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="M1009" s="1" t="n">
+        <v>0.1174</v>
+      </c>
+      <c r="N1009" s="1" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="O1009" s="1" t="n">
+        <v>0.0294</v>
+      </c>
       <c r="P1009" s="1" t="n">
         <f aca="false">SUM(F1009:O1009)</f>
-        <v>0</v>
+        <v>0.8632</v>
+      </c>
+      <c r="V1009" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1009" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="X1009" s="1" t="n">
         <v>2</v>
@@ -44328,9 +45342,45 @@
       <c r="C1010" s="1" t="n">
         <v>3850</v>
       </c>
+      <c r="F1010" s="1" t="n">
+        <v>0.0146</v>
+      </c>
+      <c r="G1010" s="1" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="H1010" s="1" t="n">
+        <v>0.0972</v>
+      </c>
+      <c r="I1010" s="1" t="n">
+        <v>0.0711</v>
+      </c>
+      <c r="J1010" s="1" t="n">
+        <v>0.0269</v>
+      </c>
+      <c r="K1010" s="1" t="n">
+        <v>0.0136</v>
+      </c>
+      <c r="L1010" s="1" t="n">
+        <v>0.0237</v>
+      </c>
+      <c r="M1010" s="1" t="n">
+        <v>0.0404</v>
+      </c>
+      <c r="N1010" s="1" t="n">
+        <v>0.0412</v>
+      </c>
+      <c r="O1010" s="1" t="n">
+        <v>0.0222</v>
+      </c>
       <c r="P1010" s="1" t="n">
         <f aca="false">SUM(F1010:O1010)</f>
-        <v>0</v>
+        <v>0.3879</v>
+      </c>
+      <c r="V1010" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1010" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="X1010" s="1" t="n">
         <v>1</v>
@@ -44352,9 +45402,45 @@
       <c r="E1011" s="1" t="n">
         <v>2350</v>
       </c>
+      <c r="F1011" s="1" t="n">
+        <v>0.0755</v>
+      </c>
+      <c r="G1011" s="1" t="n">
+        <v>0.0945</v>
+      </c>
+      <c r="H1011" s="1" t="n">
+        <v>0.1202</v>
+      </c>
+      <c r="I1011" s="1" t="n">
+        <v>0.0772</v>
+      </c>
+      <c r="J1011" s="1" t="n">
+        <v>0.0268</v>
+      </c>
+      <c r="K1011" s="1" t="n">
+        <v>0.0871</v>
+      </c>
+      <c r="L1011" s="1" t="n">
+        <v>0.0924</v>
+      </c>
+      <c r="M1011" s="1" t="n">
+        <v>0.0678</v>
+      </c>
+      <c r="N1011" s="1" t="n">
+        <v>0.0483</v>
+      </c>
+      <c r="O1011" s="1" t="n">
+        <v>0.0241</v>
+      </c>
       <c r="P1011" s="1" t="n">
         <f aca="false">SUM(F1011:O1011)</f>
-        <v>0</v>
+        <v>0.7139</v>
+      </c>
+      <c r="V1011" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1011" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="X1011" s="1" t="n">
         <v>2</v>
@@ -44370,9 +45456,45 @@
       <c r="C1012" s="1" t="n">
         <v>2350</v>
       </c>
+      <c r="F1012" s="1" t="n">
+        <v>0.0687</v>
+      </c>
+      <c r="G1012" s="1" t="n">
+        <v>0.0706</v>
+      </c>
+      <c r="H1012" s="1" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1012" s="1" t="n">
+        <v>0.0156</v>
+      </c>
+      <c r="J1012" s="1" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="K1012" s="1" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="L1012" s="1" t="n">
+        <v>0.0769</v>
+      </c>
+      <c r="M1012" s="1" t="n">
+        <v>0.0356</v>
+      </c>
+      <c r="N1012" s="1" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="O1012" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="P1012" s="1" t="n">
         <f aca="false">SUM(F1012:O1012)</f>
-        <v>0</v>
+        <v>0.4114</v>
+      </c>
+      <c r="V1012" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1012" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="X1012" s="1" t="n">
         <v>1</v>
@@ -44394,9 +45516,45 @@
       <c r="E1013" s="1" t="n">
         <v>4100</v>
       </c>
+      <c r="F1013" s="1" t="n">
+        <v>0.0666</v>
+      </c>
+      <c r="G1013" s="1" t="n">
+        <v>0.0725</v>
+      </c>
+      <c r="H1013" s="1" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="I1013" s="1" t="n">
+        <v>0.1474</v>
+      </c>
+      <c r="J1013" s="1" t="n">
+        <v>0.0714</v>
+      </c>
+      <c r="K1013" s="1" t="n">
+        <v>0.0786</v>
+      </c>
+      <c r="L1013" s="1" t="n">
+        <v>0.0789</v>
+      </c>
+      <c r="M1013" s="1" t="n">
+        <v>0.0475</v>
+      </c>
+      <c r="N1013" s="1" t="n">
+        <v>0.0502</v>
+      </c>
+      <c r="O1013" s="1" t="n">
+        <v>0.0466</v>
+      </c>
       <c r="P1013" s="1" t="n">
         <f aca="false">SUM(F1013:O1013)</f>
-        <v>0</v>
+        <v>0.7127</v>
+      </c>
+      <c r="V1013" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1013" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="X1013" s="1" t="n">
         <v>2</v>
@@ -44412,9 +45570,45 @@
       <c r="C1014" s="1" t="n">
         <v>4100</v>
       </c>
+      <c r="F1014" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1014" s="1" t="n">
+        <v>0.0139</v>
+      </c>
+      <c r="H1014" s="1" t="n">
+        <v>0.0289</v>
+      </c>
+      <c r="I1014" s="1" t="n">
+        <v>0.1412</v>
+      </c>
+      <c r="J1014" s="1" t="n">
+        <v>0.0732</v>
+      </c>
+      <c r="K1014" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1014" s="1" t="n">
+        <v>0.0103</v>
+      </c>
+      <c r="M1014" s="1" t="n">
+        <v>0.0204</v>
+      </c>
+      <c r="N1014" s="1" t="n">
+        <v>0.0442</v>
+      </c>
+      <c r="O1014" s="1" t="n">
+        <v>0.0466</v>
+      </c>
       <c r="P1014" s="1" t="n">
         <f aca="false">SUM(F1014:O1014)</f>
-        <v>0</v>
+        <v>0.3787</v>
+      </c>
+      <c r="V1014" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1014" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="X1014" s="1" t="n">
         <v>1</v>
@@ -44436,9 +45630,45 @@
       <c r="E1015" s="1" t="n">
         <v>2850</v>
       </c>
+      <c r="F1015" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1015" s="1" t="n">
+        <v>0.0202</v>
+      </c>
+      <c r="H1015" s="1" t="n">
+        <v>0.0555</v>
+      </c>
+      <c r="I1015" s="1" t="n">
+        <v>0.2124</v>
+      </c>
+      <c r="J1015" s="1" t="n">
+        <v>0.1124</v>
+      </c>
+      <c r="K1015" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1015" s="1" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="M1015" s="1" t="n">
+        <v>0.0471</v>
+      </c>
+      <c r="N1015" s="1" t="n">
+        <v>0.1107</v>
+      </c>
+      <c r="O1015" s="1" t="n">
+        <v>0.095</v>
+      </c>
       <c r="P1015" s="1" t="n">
         <f aca="false">SUM(F1015:O1015)</f>
-        <v>0</v>
+        <v>0.6693</v>
+      </c>
+      <c r="V1015" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1015" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="X1015" s="1" t="n">
         <v>2</v>
@@ -44455,6 +45685,9 @@
       <c r="V1016" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="W1016" s="1" t="n">
+        <v>14</v>
+      </c>
       <c r="X1016" s="1" t="n">
         <v>1</v>
       </c>
@@ -44475,9 +45708,45 @@
       <c r="E1017" s="1" t="n">
         <v>1350</v>
       </c>
+      <c r="F1017" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1017" s="1" t="n">
+        <v>0.0196</v>
+      </c>
+      <c r="H1017" s="1" t="n">
+        <v>0.0448</v>
+      </c>
+      <c r="I1017" s="1" t="n">
+        <v>0.1145</v>
+      </c>
+      <c r="J1017" s="1" t="n">
+        <v>0.1013</v>
+      </c>
+      <c r="K1017" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1017" s="1" t="n">
+        <v>0.0165</v>
+      </c>
+      <c r="M1017" s="1" t="n">
+        <v>0.0449</v>
+      </c>
+      <c r="N1017" s="1" t="n">
+        <v>0.1324</v>
+      </c>
+      <c r="O1017" s="1" t="n">
+        <v>0.2054</v>
+      </c>
       <c r="P1017" s="1" t="n">
         <f aca="false">SUM(F1017:O1017)</f>
-        <v>0</v>
+        <v>0.6794</v>
+      </c>
+      <c r="V1017" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1017" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="X1017" s="1" t="n">
         <v>2</v>
@@ -44493,9 +45762,45 @@
       <c r="C1018" s="1" t="n">
         <v>1350</v>
       </c>
+      <c r="F1018" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1018" s="1" t="n">
+        <v>0.0107</v>
+      </c>
+      <c r="H1018" s="1" t="n">
+        <v>0.0158</v>
+      </c>
+      <c r="I1018" s="1" t="n">
+        <v>0.0364</v>
+      </c>
+      <c r="J1018" s="1" t="n">
+        <v>0.0596</v>
+      </c>
+      <c r="K1018" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1018" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1018" s="1" t="n">
+        <v>0.0168</v>
+      </c>
+      <c r="N1018" s="1" t="n">
+        <v>0.0667</v>
+      </c>
+      <c r="O1018" s="1" t="n">
+        <v>0.1595</v>
+      </c>
       <c r="P1018" s="1" t="n">
         <f aca="false">SUM(F1018:O1018)</f>
-        <v>0</v>
+        <v>0.3655</v>
+      </c>
+      <c r="V1018" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1018" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="X1018" s="1" t="n">
         <v>1</v>
@@ -44521,6 +45826,12 @@
         <f aca="false">SUM(F1019:O1019)</f>
         <v>0</v>
       </c>
+      <c r="V1019" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1019" s="1" t="n">
+        <v>14</v>
+      </c>
       <c r="X1019" s="1" t="n">
         <v>2</v>
       </c>
@@ -44539,6 +45850,12 @@
         <f aca="false">SUM(F1020:O1020)</f>
         <v>0</v>
       </c>
+      <c r="V1020" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1020" s="1" t="n">
+        <v>14</v>
+      </c>
       <c r="X1020" s="1" t="n">
         <v>1</v>
       </c>
@@ -44563,6 +45880,12 @@
         <f aca="false">SUM(F1021:O1021)</f>
         <v>0</v>
       </c>
+      <c r="V1021" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1021" s="1" t="n">
+        <v>14</v>
+      </c>
       <c r="X1021" s="1" t="n">
         <v>2</v>
       </c>
@@ -44578,6 +45901,9 @@
       <c r="V1022" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="W1022" s="1" t="n">
+        <v>14</v>
+      </c>
       <c r="X1022" s="1" t="n">
         <v>1</v>
       </c>
@@ -44598,9 +45924,42 @@
       <c r="E1023" s="1" t="n">
         <v>2850</v>
       </c>
+      <c r="F1023" s="1" t="n">
+        <v>0.1266</v>
+      </c>
+      <c r="G1023" s="1" t="n">
+        <v>0.1002</v>
+      </c>
+      <c r="H1023" s="1" t="n">
+        <v>0.0895</v>
+      </c>
+      <c r="I1023" s="1" t="n">
+        <v>0.0446</v>
+      </c>
+      <c r="J1023" s="1" t="n">
+        <v>0.0171</v>
+      </c>
+      <c r="K1023" s="1" t="n">
+        <v>0.0973</v>
+      </c>
+      <c r="L1023" s="1" t="n">
+        <v>0.0812</v>
+      </c>
+      <c r="M1023" s="1" t="n">
+        <v>0.0774</v>
+      </c>
+      <c r="N1023" s="1" t="n">
+        <v>0.0421</v>
+      </c>
+      <c r="O1023" s="1" t="n">
+        <v>0.0157</v>
+      </c>
       <c r="P1023" s="1" t="n">
         <f aca="false">SUM(F1023:O1023)</f>
-        <v>0</v>
+        <v>0.6917</v>
+      </c>
+      <c r="W1023" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="X1023" s="1" t="n">
         <v>2</v>
@@ -44616,9 +45975,48 @@
       <c r="C1024" s="1" t="n">
         <v>2850</v>
       </c>
+      <c r="F1024" s="1" t="n">
+        <v>0.0205</v>
+      </c>
+      <c r="G1024" s="1" t="n">
+        <v>0.0472</v>
+      </c>
+      <c r="H1024" s="1" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="I1024" s="1" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="J1024" s="1" t="n">
+        <v>0.0178</v>
+      </c>
+      <c r="K1024" s="1" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="L1024" s="1" t="n">
+        <v>0.0393</v>
+      </c>
+      <c r="M1024" s="1" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="N1024" s="1" t="n">
+        <v>0.0409</v>
+      </c>
+      <c r="O1024" s="1" t="n">
+        <v>0.018</v>
+      </c>
       <c r="P1024" s="1" t="n">
         <f aca="false">SUM(F1024:O1024)</f>
-        <v>0</v>
+        <v>0.3837</v>
+      </c>
+      <c r="Q1024" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1024" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="W1024" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1024" s="1" t="n">
         <v>1</v>
@@ -44640,9 +46038,42 @@
       <c r="E1025" s="1" t="n">
         <v>1850</v>
       </c>
+      <c r="F1025" s="1" t="n">
+        <v>0.0163</v>
+      </c>
+      <c r="G1025" s="1" t="n">
+        <v>0.0453</v>
+      </c>
+      <c r="H1025" s="1" t="n">
+        <v>0.0785</v>
+      </c>
+      <c r="I1025" s="1" t="n">
+        <v>0.0731</v>
+      </c>
+      <c r="J1025" s="1" t="n">
+        <v>0.0857</v>
+      </c>
+      <c r="K1025" s="1" t="n">
+        <v>0.0149</v>
+      </c>
+      <c r="L1025" s="1" t="n">
+        <v>0.0368</v>
+      </c>
+      <c r="M1025" s="1" t="n">
+        <v>0.0691</v>
+      </c>
+      <c r="N1025" s="1" t="n">
+        <v>0.0876</v>
+      </c>
+      <c r="O1025" s="1" t="n">
+        <v>0.1724</v>
+      </c>
       <c r="P1025" s="1" t="n">
         <f aca="false">SUM(F1025:O1025)</f>
-        <v>0</v>
+        <v>0.6797</v>
+      </c>
+      <c r="W1025" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="X1025" s="1" t="n">
         <v>2</v>
@@ -44658,9 +46089,42 @@
       <c r="C1026" s="1" t="n">
         <v>1850</v>
       </c>
+      <c r="F1026" s="1" t="n">
+        <v>0.0087</v>
+      </c>
+      <c r="G1026" s="1" t="n">
+        <v>0.0135</v>
+      </c>
+      <c r="H1026" s="1" t="n">
+        <v>0.0184</v>
+      </c>
+      <c r="I1026" s="1" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="J1026" s="1" t="n">
+        <v>0.0804</v>
+      </c>
+      <c r="K1026" s="1" t="n">
+        <v>0.0093</v>
+      </c>
+      <c r="L1026" s="1" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="M1026" s="1" t="n">
+        <v>0.0186</v>
+      </c>
+      <c r="N1026" s="1" t="n">
+        <v>0.0611</v>
+      </c>
+      <c r="O1026" s="1" t="n">
+        <v>0.1641</v>
+      </c>
       <c r="P1026" s="1" t="n">
         <f aca="false">SUM(F1026:O1026)</f>
-        <v>0</v>
+        <v>0.4291</v>
+      </c>
+      <c r="W1026" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="X1026" s="1" t="n">
         <v>1</v>
@@ -44686,6 +46150,18 @@
         <f aca="false">SUM(F1027:O1027)</f>
         <v>0</v>
       </c>
+      <c r="Q1027" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1027" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="V1027" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1027" s="1" t="n">
+        <v>14</v>
+      </c>
       <c r="X1027" s="1" t="n">
         <v>2</v>
       </c>
@@ -44704,6 +46180,18 @@
         <f aca="false">SUM(F1028:O1028)</f>
         <v>0</v>
       </c>
+      <c r="Q1028" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1028" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="V1028" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1028" s="1" t="n">
+        <v>15</v>
+      </c>
       <c r="X1028" s="1" t="n">
         <v>1</v>
       </c>
@@ -44728,6 +46216,18 @@
         <f aca="false">SUM(F1029:O1029)</f>
         <v>0</v>
       </c>
+      <c r="Q1029" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1029" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="V1029" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1029" s="1" t="n">
+        <v>15</v>
+      </c>
       <c r="X1029" s="1" t="n">
         <v>2</v>
       </c>
@@ -44742,9 +46242,48 @@
       <c r="C1030" s="1" t="n">
         <v>3850</v>
       </c>
+      <c r="F1030" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1030" s="1" t="n">
+        <v>0.0096</v>
+      </c>
+      <c r="H1030" s="1" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="I1030" s="1" t="n">
+        <v>0.0704</v>
+      </c>
+      <c r="J1030" s="1" t="n">
+        <v>0.1449</v>
+      </c>
+      <c r="K1030" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1030" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1030" s="1" t="n">
+        <v>0.0142</v>
+      </c>
+      <c r="N1030" s="1" t="n">
+        <v>0.0395</v>
+      </c>
+      <c r="O1030" s="1" t="n">
+        <v>0.0714</v>
+      </c>
       <c r="P1030" s="1" t="n">
         <f aca="false">SUM(F1030:O1030)</f>
-        <v>0</v>
+        <v>0.367</v>
+      </c>
+      <c r="Q1030" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1030" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="W1030" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1030" s="1" t="n">
         <v>1</v>
@@ -44770,6 +46309,18 @@
         <f aca="false">SUM(F1031:O1031)</f>
         <v>0</v>
       </c>
+      <c r="Q1031" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1031" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="V1031" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1031" s="1" t="n">
+        <v>15</v>
+      </c>
       <c r="X1031" s="1" t="n">
         <v>2</v>
       </c>
@@ -44782,8 +46333,17 @@
         <f aca="false">SUM(F1032:O1032)</f>
         <v>0</v>
       </c>
+      <c r="Q1032" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1032" s="1" t="n">
+        <v>0.0104</v>
+      </c>
       <c r="V1032" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="W1032" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1032" s="1" t="n">
         <v>1</v>
@@ -44809,6 +46369,18 @@
         <f aca="false">SUM(F1033:O1033)</f>
         <v>0</v>
       </c>
+      <c r="Q1033" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1033" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="V1033" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1033" s="1" t="n">
+        <v>15</v>
+      </c>
       <c r="X1033" s="1" t="n">
         <v>2</v>
       </c>
@@ -44823,9 +46395,48 @@
       <c r="C1034" s="1" t="n">
         <v>4600</v>
       </c>
+      <c r="F1034" s="1" t="n">
+        <v>0.0393</v>
+      </c>
+      <c r="G1034" s="1" t="n">
+        <v>0.1574</v>
+      </c>
+      <c r="H1034" s="1" t="n">
+        <v>0.0466</v>
+      </c>
+      <c r="I1034" s="1" t="n">
+        <v>0.0139</v>
+      </c>
+      <c r="J1034" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1034" s="1" t="n">
+        <v>0.0254</v>
+      </c>
+      <c r="L1034" s="1" t="n">
+        <v>0.0308</v>
+      </c>
+      <c r="M1034" s="1" t="n">
+        <v>0.0227</v>
+      </c>
+      <c r="N1034" s="1" t="n">
+        <v>0.0117</v>
+      </c>
+      <c r="O1034" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="P1034" s="1" t="n">
         <f aca="false">SUM(F1034:O1034)</f>
-        <v>0</v>
+        <v>0.3478</v>
+      </c>
+      <c r="Q1034" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1034" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="W1034" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1034" s="1" t="n">
         <v>1</v>
@@ -44847,9 +46458,48 @@
       <c r="E1035" s="1" t="n">
         <v>600</v>
       </c>
+      <c r="F1035" s="1" t="n">
+        <v>0.0737</v>
+      </c>
+      <c r="G1035" s="1" t="n">
+        <v>0.1767</v>
+      </c>
+      <c r="H1035" s="1" t="n">
+        <v>0.0525</v>
+      </c>
+      <c r="I1035" s="1" t="n">
+        <v>0.0135</v>
+      </c>
+      <c r="J1035" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1035" s="1" t="n">
+        <v>0.2153</v>
+      </c>
+      <c r="L1035" s="1" t="n">
+        <v>0.0678</v>
+      </c>
+      <c r="M1035" s="1" t="n">
+        <v>0.0315</v>
+      </c>
+      <c r="N1035" s="1" t="n">
+        <v>0.0116</v>
+      </c>
+      <c r="O1035" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="P1035" s="1" t="n">
         <f aca="false">SUM(F1035:O1035)</f>
-        <v>0</v>
+        <v>0.6426</v>
+      </c>
+      <c r="Q1035" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1035" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="W1035" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1035" s="1" t="n">
         <v>2</v>
@@ -44863,8 +46513,17 @@
         <f aca="false">SUM(F1036:O1036)</f>
         <v>0</v>
       </c>
+      <c r="Q1036" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1036" s="1" t="n">
+        <v>0.0104</v>
+      </c>
       <c r="V1036" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="W1036" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1036" s="1" t="n">
         <v>1</v>
@@ -44886,9 +46545,48 @@
       <c r="E1037" s="1" t="n">
         <v>2600</v>
       </c>
+      <c r="F1037" s="1" t="n">
+        <v>0.1206</v>
+      </c>
+      <c r="G1037" s="1" t="n">
+        <v>0.0727</v>
+      </c>
+      <c r="H1037" s="1" t="n">
+        <v>0.0309</v>
+      </c>
+      <c r="I1037" s="1" t="n">
+        <v>0.0122</v>
+      </c>
+      <c r="J1037" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1037" s="1" t="n">
+        <v>0.3061</v>
+      </c>
+      <c r="L1037" s="1" t="n">
+        <v>0.0921</v>
+      </c>
+      <c r="M1037" s="1" t="n">
+        <v>0.0326</v>
+      </c>
+      <c r="N1037" s="1" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="O1037" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="P1037" s="1" t="n">
         <f aca="false">SUM(F1037:O1037)</f>
-        <v>0</v>
+        <v>0.6792</v>
+      </c>
+      <c r="Q1037" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1037" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="W1037" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1037" s="1" t="n">
         <v>2</v>
@@ -44904,9 +46602,48 @@
       <c r="C1038" s="1" t="n">
         <v>2600</v>
       </c>
+      <c r="F1038" s="1" t="n">
+        <v>0.0838</v>
+      </c>
+      <c r="G1038" s="1" t="n">
+        <v>0.0491</v>
+      </c>
+      <c r="H1038" s="1" t="n">
+        <v>0.0212</v>
+      </c>
+      <c r="I1038" s="1" t="n">
+        <v>0.0088</v>
+      </c>
+      <c r="J1038" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1038" s="1" t="n">
+        <v>0.1212</v>
+      </c>
+      <c r="L1038" s="1" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="M1038" s="1" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="N1038" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1038" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="P1038" s="1" t="n">
         <f aca="false">SUM(F1038:O1038)</f>
-        <v>0</v>
+        <v>0.3581</v>
+      </c>
+      <c r="Q1038" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1038" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="W1038" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1038" s="1" t="n">
         <v>1</v>
@@ -44928,9 +46665,48 @@
       <c r="E1039" s="1" t="n">
         <v>1600</v>
       </c>
+      <c r="F1039" s="1" t="n">
+        <v>0.0901</v>
+      </c>
+      <c r="G1039" s="1" t="n">
+        <v>0.0673</v>
+      </c>
+      <c r="H1039" s="1" t="n">
+        <v>0.0587</v>
+      </c>
+      <c r="I1039" s="1" t="n">
+        <v>0.0498</v>
+      </c>
+      <c r="J1039" s="1" t="n">
+        <v>0.0238</v>
+      </c>
+      <c r="K1039" s="1" t="n">
+        <v>0.1287</v>
+      </c>
+      <c r="L1039" s="1" t="n">
+        <v>0.0751</v>
+      </c>
+      <c r="M1039" s="1" t="n">
+        <v>0.1043</v>
+      </c>
+      <c r="N1039" s="1" t="n">
+        <v>0.0823</v>
+      </c>
+      <c r="O1039" s="1" t="n">
+        <v>0.029</v>
+      </c>
       <c r="P1039" s="1" t="n">
         <f aca="false">SUM(F1039:O1039)</f>
-        <v>0</v>
+        <v>0.7091</v>
+      </c>
+      <c r="Q1039" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1039" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="W1039" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1039" s="1" t="n">
         <v>2</v>
@@ -44944,8 +46720,17 @@
         <f aca="false">SUM(F1040:O1040)</f>
         <v>0</v>
       </c>
+      <c r="Q1040" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1040" s="1" t="n">
+        <v>0.0104</v>
+      </c>
       <c r="V1040" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="W1040" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1040" s="1" t="n">
         <v>1</v>
@@ -44971,6 +46756,18 @@
         <f aca="false">SUM(F1041:O1041)</f>
         <v>0</v>
       </c>
+      <c r="Q1041" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1041" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="V1041" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1041" s="1" t="n">
+        <v>15</v>
+      </c>
       <c r="X1041" s="1" t="n">
         <v>2</v>
       </c>
@@ -44983,8 +46780,17 @@
         <f aca="false">SUM(F1042:O1042)</f>
         <v>0</v>
       </c>
+      <c r="Q1042" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1042" s="1" t="n">
+        <v>0.0104</v>
+      </c>
       <c r="V1042" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="W1042" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1042" s="1" t="n">
         <v>1</v>
@@ -45010,6 +46816,18 @@
         <f aca="false">SUM(F1043:O1043)</f>
         <v>0</v>
       </c>
+      <c r="Q1043" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1043" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="V1043" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1043" s="1" t="n">
+        <v>15</v>
+      </c>
       <c r="X1043" s="1" t="n">
         <v>2</v>
       </c>
@@ -45022,8 +46840,17 @@
         <f aca="false">SUM(F1044:O1044)</f>
         <v>0</v>
       </c>
+      <c r="Q1044" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1044" s="1" t="n">
+        <v>0.0104</v>
+      </c>
       <c r="V1044" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="W1044" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1044" s="1" t="n">
         <v>1</v>
@@ -45045,9 +46872,48 @@
       <c r="E1045" s="1" t="n">
         <v>1350</v>
       </c>
+      <c r="F1045" s="1" t="n">
+        <v>0.0633</v>
+      </c>
+      <c r="G1045" s="1" t="n">
+        <v>0.0573</v>
+      </c>
+      <c r="H1045" s="1" t="n">
+        <v>0.0543</v>
+      </c>
+      <c r="I1045" s="1" t="n">
+        <v>0.0481</v>
+      </c>
+      <c r="J1045" s="1" t="n">
+        <v>0.0258</v>
+      </c>
+      <c r="K1045" s="1" t="n">
+        <v>0.1662</v>
+      </c>
+      <c r="L1045" s="1" t="n">
+        <v>0.0727</v>
+      </c>
+      <c r="M1045" s="1" t="n">
+        <v>0.1103</v>
+      </c>
+      <c r="N1045" s="1" t="n">
+        <v>0.0858</v>
+      </c>
+      <c r="O1045" s="1" t="n">
+        <v>0.309</v>
+      </c>
       <c r="P1045" s="1" t="n">
         <f aca="false">SUM(F1045:O1045)</f>
-        <v>0</v>
+        <v>0.9928</v>
+      </c>
+      <c r="Q1045" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1045" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="W1045" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1045" s="1" t="n">
         <v>2</v>
@@ -45061,8 +46927,17 @@
         <f aca="false">SUM(F1046:O1046)</f>
         <v>0</v>
       </c>
+      <c r="Q1046" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1046" s="1" t="n">
+        <v>0.0104</v>
+      </c>
       <c r="V1046" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="W1046" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1046" s="1" t="n">
         <v>1</v>
@@ -45084,9 +46959,48 @@
       <c r="E1047" s="1" t="n">
         <v>850</v>
       </c>
+      <c r="F1047" s="1" t="n">
+        <v>0.0365</v>
+      </c>
+      <c r="G1047" s="1" t="n">
+        <v>0.0587</v>
+      </c>
+      <c r="H1047" s="1" t="n">
+        <v>0.0662</v>
+      </c>
+      <c r="I1047" s="1" t="n">
+        <v>0.0547</v>
+      </c>
+      <c r="J1047" s="1" t="n">
+        <v>0.0275</v>
+      </c>
+      <c r="K1047" s="1" t="n">
+        <v>0.0468</v>
+      </c>
+      <c r="L1047" s="1" t="n">
+        <v>0.1382</v>
+      </c>
+      <c r="M1047" s="1" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="N1047" s="1" t="n">
+        <v>0.0943</v>
+      </c>
+      <c r="O1047" s="1" t="n">
+        <v>0.0333</v>
+      </c>
       <c r="P1047" s="1" t="n">
         <f aca="false">SUM(F1047:O1047)</f>
-        <v>0</v>
+        <v>0.7022</v>
+      </c>
+      <c r="Q1047" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1047" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="W1047" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1047" s="1" t="n">
         <v>2</v>
@@ -45100,8 +47014,17 @@
         <f aca="false">SUM(F1048:O1048)</f>
         <v>0</v>
       </c>
+      <c r="Q1048" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1048" s="1" t="n">
+        <v>0.0104</v>
+      </c>
       <c r="V1048" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="W1048" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1048" s="1" t="n">
         <v>1</v>
@@ -45123,9 +47046,48 @@
       <c r="E1049" s="1" t="n">
         <v>4350</v>
       </c>
+      <c r="F1049" s="1" t="n">
+        <v>0.1418</v>
+      </c>
+      <c r="G1049" s="1" t="n">
+        <v>0.1184</v>
+      </c>
+      <c r="H1049" s="1" t="n">
+        <v>0.0538</v>
+      </c>
+      <c r="I1049" s="1" t="n">
+        <v>0.0235</v>
+      </c>
+      <c r="J1049" s="1" t="n">
+        <v>0.0121</v>
+      </c>
+      <c r="K1049" s="1" t="n">
+        <v>0.0833</v>
+      </c>
+      <c r="L1049" s="1" t="n">
+        <v>0.1497</v>
+      </c>
+      <c r="M1049" s="1" t="n">
+        <v>0.0747</v>
+      </c>
+      <c r="N1049" s="1" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="O1049" s="1" t="n">
+        <v>0.0103</v>
+      </c>
       <c r="P1049" s="1" t="n">
         <f aca="false">SUM(F1049:O1049)</f>
-        <v>0</v>
+        <v>0.6926</v>
+      </c>
+      <c r="Q1049" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1049" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="W1049" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1049" s="1" t="n">
         <v>2</v>
@@ -45139,8 +47101,17 @@
         <f aca="false">SUM(F1050:O1050)</f>
         <v>0</v>
       </c>
+      <c r="Q1050" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1050" s="1" t="n">
+        <v>0.0104</v>
+      </c>
       <c r="V1050" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="W1050" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1050" s="1" t="n">
         <v>1</v>
@@ -45166,6 +47137,18 @@
         <f aca="false">SUM(F1051:O1051)</f>
         <v>0</v>
       </c>
+      <c r="Q1051" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1051" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="V1051" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1051" s="1" t="n">
+        <v>15</v>
+      </c>
       <c r="X1051" s="1" t="n">
         <v>2</v>
       </c>
@@ -45184,6 +47167,18 @@
         <f aca="false">SUM(F1052:O1052)</f>
         <v>0</v>
       </c>
+      <c r="Q1052" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1052" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="V1052" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1052" s="1" t="n">
+        <v>15</v>
+      </c>
       <c r="X1052" s="1" t="n">
         <v>1</v>
       </c>
@@ -45208,6 +47203,18 @@
         <f aca="false">SUM(F1053:O1053)</f>
         <v>0</v>
       </c>
+      <c r="Q1053" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1053" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="V1053" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1053" s="1" t="n">
+        <v>15</v>
+      </c>
       <c r="X1053" s="1" t="n">
         <v>2</v>
       </c>
@@ -45222,9 +47229,48 @@
       <c r="C1054" s="1" t="n">
         <v>2350</v>
       </c>
+      <c r="F1054" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1054" s="1" t="n">
+        <v>0.0107</v>
+      </c>
+      <c r="H1054" s="1" t="n">
+        <v>0.0179</v>
+      </c>
+      <c r="I1054" s="1" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="J1054" s="1" t="n">
+        <v>0.0996</v>
+      </c>
+      <c r="K1054" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1054" s="1" t="n">
+        <v>0.0098</v>
+      </c>
+      <c r="M1054" s="1" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="N1054" s="1" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="O1054" s="1" t="n">
+        <v>0.1406</v>
+      </c>
       <c r="P1054" s="1" t="n">
         <f aca="false">SUM(F1054:O1054)</f>
-        <v>0</v>
+        <v>0.4076</v>
+      </c>
+      <c r="Q1054" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1054" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="W1054" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1054" s="1" t="n">
         <v>1</v>
@@ -45246,9 +47292,48 @@
       <c r="E1055" s="1" t="n">
         <v>1100</v>
       </c>
+      <c r="F1055" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1055" s="1" t="n">
+        <v>0.0091</v>
+      </c>
+      <c r="H1055" s="1" t="n">
+        <v>0.0267</v>
+      </c>
+      <c r="I1055" s="1" t="n">
+        <v>0.0821</v>
+      </c>
+      <c r="J1055" s="1" t="n">
+        <v>0.1286</v>
+      </c>
+      <c r="K1055" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1055" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1055" s="1" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="N1055" s="1" t="n">
+        <v>0.1713</v>
+      </c>
+      <c r="O1055" s="1" t="n">
+        <v>0.2085</v>
+      </c>
       <c r="P1055" s="1" t="n">
         <f aca="false">SUM(F1055:O1055)</f>
-        <v>0</v>
+        <v>0.6603</v>
+      </c>
+      <c r="Q1055" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1055" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="W1055" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1055" s="1" t="n">
         <v>2</v>
@@ -45262,8 +47347,17 @@
         <f aca="false">SUM(F1056:O1056)</f>
         <v>0</v>
       </c>
+      <c r="Q1056" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1056" s="1" t="n">
+        <v>0.0104</v>
+      </c>
       <c r="V1056" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="W1056" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1056" s="1" t="n">
         <v>1</v>
@@ -45285,9 +47379,48 @@
       <c r="E1057" s="1" t="n">
         <v>600</v>
       </c>
+      <c r="F1057" s="1" t="n">
+        <v>0.0324</v>
+      </c>
+      <c r="G1057" s="1" t="n">
+        <v>0.0388</v>
+      </c>
+      <c r="H1057" s="1" t="n">
+        <v>0.0347</v>
+      </c>
+      <c r="I1057" s="1" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="J1057" s="1" t="n">
+        <v>0.0443</v>
+      </c>
+      <c r="K1057" s="1" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="L1057" s="1" t="n">
+        <v>0.1486</v>
+      </c>
+      <c r="M1057" s="1" t="n">
+        <v>0.0516</v>
+      </c>
+      <c r="N1057" s="1" t="n">
+        <v>0.1329</v>
+      </c>
+      <c r="O1057" s="1" t="n">
+        <v>0.087</v>
+      </c>
       <c r="P1057" s="1" t="n">
         <f aca="false">SUM(F1057:O1057)</f>
-        <v>0</v>
+        <v>0.6793</v>
+      </c>
+      <c r="Q1057" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1057" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="W1057" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1057" s="1" t="n">
         <v>2</v>
@@ -45303,9 +47436,48 @@
       <c r="C1058" s="1" t="n">
         <v>600</v>
       </c>
+      <c r="F1058" s="1" t="n">
+        <v>0.0368</v>
+      </c>
+      <c r="G1058" s="1" t="n">
+        <v>0.0395</v>
+      </c>
+      <c r="H1058" s="1" t="n">
+        <v>0.0253</v>
+      </c>
+      <c r="I1058" s="1" t="n">
+        <v>0.0132</v>
+      </c>
+      <c r="J1058" s="1" t="n">
+        <v>0.0103</v>
+      </c>
+      <c r="K1058" s="1" t="n">
+        <v>0.0673</v>
+      </c>
+      <c r="L1058" s="1" t="n">
+        <v>0.1472</v>
+      </c>
+      <c r="M1058" s="1" t="n">
+        <v>0.0353</v>
+      </c>
+      <c r="N1058" s="1" t="n">
+        <v>0.0134</v>
+      </c>
+      <c r="O1058" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="P1058" s="1" t="n">
         <f aca="false">SUM(F1058:O1058)</f>
-        <v>0</v>
+        <v>0.3883</v>
+      </c>
+      <c r="Q1058" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1058" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="W1058" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1058" s="1" t="n">
         <v>1</v>
@@ -45327,9 +47499,48 @@
       <c r="E1059" s="1" t="n">
         <v>850</v>
       </c>
+      <c r="F1059" s="1" t="n">
+        <v>0.0782</v>
+      </c>
+      <c r="G1059" s="1" t="n">
+        <v>0.0712</v>
+      </c>
+      <c r="H1059" s="1" t="n">
+        <v>0.0386</v>
+      </c>
+      <c r="I1059" s="1" t="n">
+        <v>0.0156</v>
+      </c>
+      <c r="J1059" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1059" s="1" t="n">
+        <v>0.1947</v>
+      </c>
+      <c r="L1059" s="1" t="n">
+        <v>0.2145</v>
+      </c>
+      <c r="M1059" s="1" t="n">
+        <v>0.0526</v>
+      </c>
+      <c r="N1059" s="1" t="n">
+        <v>0.0165</v>
+      </c>
+      <c r="O1059" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="P1059" s="1" t="n">
         <f aca="false">SUM(F1059:O1059)</f>
-        <v>0</v>
+        <v>0.6819</v>
+      </c>
+      <c r="Q1059" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1059" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="W1059" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1059" s="1" t="n">
         <v>2</v>
@@ -45345,9 +47556,48 @@
       <c r="C1060" s="1" t="n">
         <v>850</v>
       </c>
+      <c r="F1060" s="1" t="n">
+        <v>0.0515</v>
+      </c>
+      <c r="G1060" s="1" t="n">
+        <v>0.0428</v>
+      </c>
+      <c r="H1060" s="1" t="n">
+        <v>0.0226</v>
+      </c>
+      <c r="I1060" s="1" t="n">
+        <v>0.0108</v>
+      </c>
+      <c r="J1060" s="1" t="n">
+        <v>0.0088</v>
+      </c>
+      <c r="K1060" s="1" t="n">
+        <v>0.1399</v>
+      </c>
+      <c r="L1060" s="1" t="n">
+        <v>0.0801</v>
+      </c>
+      <c r="M1060" s="1" t="n">
+        <v>0.0259</v>
+      </c>
+      <c r="N1060" s="1" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="O1060" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="P1060" s="1" t="n">
         <f aca="false">SUM(F1060:O1060)</f>
-        <v>0</v>
+        <v>0.3929</v>
+      </c>
+      <c r="Q1060" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1060" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="W1060" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1060" s="1" t="n">
         <v>1</v>
@@ -45369,9 +47619,48 @@
       <c r="E1061" s="1" t="n">
         <v>2850</v>
       </c>
+      <c r="F1061" s="1" t="n">
+        <v>0.1296</v>
+      </c>
+      <c r="G1061" s="1" t="n">
+        <v>0.0949</v>
+      </c>
+      <c r="H1061" s="1" t="n">
+        <v>0.0416</v>
+      </c>
+      <c r="I1061" s="1" t="n">
+        <v>0.0151</v>
+      </c>
+      <c r="J1061" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1061" s="1" t="n">
+        <v>0.2121</v>
+      </c>
+      <c r="L1061" s="1" t="n">
+        <v>0.1289</v>
+      </c>
+      <c r="M1061" s="1" t="n">
+        <v>0.0445</v>
+      </c>
+      <c r="N1061" s="1" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="O1061" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="P1061" s="1" t="n">
         <f aca="false">SUM(F1061:O1061)</f>
-        <v>0</v>
+        <v>0.6817</v>
+      </c>
+      <c r="Q1061" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1061" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="W1061" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1061" s="1" t="n">
         <v>2</v>
@@ -45387,9 +47676,48 @@
       <c r="C1062" s="1" t="n">
         <v>2850</v>
       </c>
+      <c r="F1062" s="1" t="n">
+        <v>0.0897</v>
+      </c>
+      <c r="G1062" s="1" t="n">
+        <v>0.0643</v>
+      </c>
+      <c r="H1062" s="1" t="n">
+        <v>0.0284</v>
+      </c>
+      <c r="I1062" s="1" t="n">
+        <v>0.0126</v>
+      </c>
+      <c r="J1062" s="1" t="n">
+        <v>0.0095</v>
+      </c>
+      <c r="K1062" s="1" t="n">
+        <v>0.0858</v>
+      </c>
+      <c r="L1062" s="1" t="n">
+        <v>0.0595</v>
+      </c>
+      <c r="M1062" s="1" t="n">
+        <v>0.0269</v>
+      </c>
+      <c r="N1062" s="1" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="O1062" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="P1062" s="1" t="n">
         <f aca="false">SUM(F1062:O1062)</f>
-        <v>0</v>
+        <v>0.3887</v>
+      </c>
+      <c r="Q1062" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1062" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="W1062" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1062" s="1" t="n">
         <v>1</v>
@@ -45411,9 +47739,48 @@
       <c r="E1063" s="1" t="n">
         <v>1100</v>
       </c>
+      <c r="F1063" s="1" t="n">
+        <v>0.1237</v>
+      </c>
+      <c r="G1063" s="1" t="n">
+        <v>0.0967</v>
+      </c>
+      <c r="H1063" s="1" t="n">
+        <v>0.0448</v>
+      </c>
+      <c r="I1063" s="1" t="n">
+        <v>0.0166</v>
+      </c>
+      <c r="J1063" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1063" s="1" t="n">
+        <v>0.1585</v>
+      </c>
+      <c r="L1063" s="1" t="n">
+        <v>0.1488</v>
+      </c>
+      <c r="M1063" s="1" t="n">
+        <v>0.0507</v>
+      </c>
+      <c r="N1063" s="1" t="n">
+        <v>0.0169</v>
+      </c>
+      <c r="O1063" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="P1063" s="1" t="n">
         <f aca="false">SUM(F1063:O1063)</f>
-        <v>0</v>
+        <v>0.6567</v>
+      </c>
+      <c r="Q1063" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1063" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="W1063" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1063" s="1" t="n">
         <v>2</v>
@@ -45427,8 +47794,17 @@
         <f aca="false">SUM(F1064:O1064)</f>
         <v>0</v>
       </c>
+      <c r="Q1064" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1064" s="1" t="n">
+        <v>0.0104</v>
+      </c>
       <c r="V1064" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="W1064" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1064" s="1" t="n">
         <v>1</v>
@@ -45450,9 +47826,48 @@
       <c r="E1065" s="1" t="n">
         <v>1600</v>
       </c>
+      <c r="F1065" s="1" t="n">
+        <v>0.0461</v>
+      </c>
+      <c r="G1065" s="1" t="n">
+        <v>0.0509</v>
+      </c>
+      <c r="H1065" s="1" t="n">
+        <v>0.0451</v>
+      </c>
+      <c r="I1065" s="1" t="n">
+        <v>0.0594</v>
+      </c>
+      <c r="J1065" s="1" t="n">
+        <v>0.0472</v>
+      </c>
+      <c r="K1065" s="1" t="n">
+        <v>0.0862</v>
+      </c>
+      <c r="L1065" s="1" t="n">
+        <v>0.1073</v>
+      </c>
+      <c r="M1065" s="1" t="n">
+        <v>0.0605</v>
+      </c>
+      <c r="N1065" s="1" t="n">
+        <v>0.1384</v>
+      </c>
+      <c r="O1065" s="1" t="n">
+        <v>0.0743</v>
+      </c>
       <c r="P1065" s="1" t="n">
         <f aca="false">SUM(F1065:O1065)</f>
-        <v>0</v>
+        <v>0.7154</v>
+      </c>
+      <c r="Q1065" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1065" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="W1065" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1065" s="1" t="n">
         <v>2</v>
@@ -45466,8 +47881,17 @@
         <f aca="false">SUM(F1066:O1066)</f>
         <v>0</v>
       </c>
+      <c r="Q1066" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1066" s="1" t="n">
+        <v>0.0104</v>
+      </c>
       <c r="V1066" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="W1066" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1066" s="1" t="n">
         <v>1</v>
@@ -45489,9 +47913,48 @@
       <c r="E1067" s="1" t="n">
         <v>600</v>
       </c>
+      <c r="F1067" s="1" t="n">
+        <v>0.0362</v>
+      </c>
+      <c r="G1067" s="1" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="H1067" s="1" t="n">
+        <v>0.0475</v>
+      </c>
+      <c r="I1067" s="1" t="n">
+        <v>0.0609</v>
+      </c>
+      <c r="J1067" s="1" t="n">
+        <v>0.0482</v>
+      </c>
+      <c r="K1067" s="1" t="n">
+        <v>0.0588</v>
+      </c>
+      <c r="L1067" s="1" t="n">
+        <v>0.2002</v>
+      </c>
+      <c r="M1067" s="1" t="n">
+        <v>0.0734</v>
+      </c>
+      <c r="N1067" s="1" t="n">
+        <v>0.1403</v>
+      </c>
+      <c r="O1067" s="1" t="n">
+        <v>0.0752</v>
+      </c>
       <c r="P1067" s="1" t="n">
         <f aca="false">SUM(F1067:O1067)</f>
-        <v>0</v>
+        <v>0.7887</v>
+      </c>
+      <c r="Q1067" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1067" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="W1067" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1067" s="1" t="n">
         <v>2</v>
@@ -45507,9 +47970,48 @@
       <c r="C1068" s="1" t="n">
         <v>600</v>
       </c>
+      <c r="F1068" s="1" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="G1068" s="1" t="n">
+        <v>0.0428</v>
+      </c>
+      <c r="H1068" s="1" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1068" s="1" t="n">
+        <v>0.0165</v>
+      </c>
+      <c r="J1068" s="1" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="K1068" s="1" t="n">
+        <v>0.0584</v>
+      </c>
+      <c r="L1068" s="1" t="n">
+        <v>0.1916</v>
+      </c>
+      <c r="M1068" s="1" t="n">
+        <v>0.0467</v>
+      </c>
+      <c r="N1068" s="1" t="n">
+        <v>0.0169</v>
+      </c>
+      <c r="O1068" s="1" t="n">
+        <v>0.0096</v>
+      </c>
       <c r="P1068" s="1" t="n">
         <f aca="false">SUM(F1068:O1068)</f>
-        <v>0</v>
+        <v>0.4605</v>
+      </c>
+      <c r="Q1068" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1068" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="W1068" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1068" s="1" t="n">
         <v>1</v>
@@ -45535,6 +48037,18 @@
         <f aca="false">SUM(F1069:O1069)</f>
         <v>0</v>
       </c>
+      <c r="Q1069" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1069" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="V1069" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1069" s="1" t="n">
+        <v>15</v>
+      </c>
       <c r="X1069" s="1" t="n">
         <v>2</v>
       </c>
@@ -45547,8 +48061,17 @@
         <f aca="false">SUM(F1070:O1070)</f>
         <v>0</v>
       </c>
+      <c r="Q1070" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1070" s="1" t="n">
+        <v>0.0104</v>
+      </c>
       <c r="V1070" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="W1070" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1070" s="1" t="n">
         <v>1</v>
@@ -45574,6 +48097,18 @@
         <f aca="false">SUM(F1071:O1071)</f>
         <v>0</v>
       </c>
+      <c r="Q1071" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1071" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="V1071" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1071" s="1" t="n">
+        <v>15</v>
+      </c>
       <c r="X1071" s="1" t="n">
         <v>2</v>
       </c>
@@ -45586,8 +48121,17 @@
         <f aca="false">SUM(F1072:O1072)</f>
         <v>0</v>
       </c>
+      <c r="Q1072" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1072" s="1" t="n">
+        <v>0.0104</v>
+      </c>
       <c r="V1072" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="W1072" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1072" s="1" t="n">
         <v>1</v>
@@ -45609,9 +48153,48 @@
       <c r="E1073" s="1" t="n">
         <v>5100</v>
       </c>
+      <c r="F1073" s="1" t="n">
+        <v>0.0484</v>
+      </c>
+      <c r="G1073" s="1" t="n">
+        <v>0.2187</v>
+      </c>
+      <c r="H1073" s="1" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="I1073" s="1" t="n">
+        <v>0.0735</v>
+      </c>
+      <c r="J1073" s="1" t="n">
+        <v>0.0201</v>
+      </c>
+      <c r="K1073" s="1" t="n">
+        <v>0.0253</v>
+      </c>
+      <c r="L1073" s="1" t="n">
+        <v>0.0353</v>
+      </c>
+      <c r="M1073" s="1" t="n">
+        <v>0.0429</v>
+      </c>
+      <c r="N1073" s="1" t="n">
+        <v>0.0354</v>
+      </c>
+      <c r="O1073" s="1" t="n">
+        <v>0.0181</v>
+      </c>
       <c r="P1073" s="1" t="n">
         <f aca="false">SUM(F1073:O1073)</f>
-        <v>0</v>
+        <v>0.6467</v>
+      </c>
+      <c r="Q1073" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1073" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="W1073" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1073" s="1" t="n">
         <v>2</v>
@@ -45627,9 +48210,48 @@
       <c r="C1074" s="1" t="n">
         <v>5100</v>
       </c>
+      <c r="F1074" s="1" t="n">
+        <v>0.0477</v>
+      </c>
+      <c r="G1074" s="1" t="n">
+        <v>0.1988</v>
+      </c>
+      <c r="H1074" s="1" t="n">
+        <v>0.0319</v>
+      </c>
+      <c r="I1074" s="1" t="n">
+        <v>0.0137</v>
+      </c>
+      <c r="J1074" s="1" t="n">
+        <v>0.0116</v>
+      </c>
+      <c r="K1074" s="1" t="n">
+        <v>0.0268</v>
+      </c>
+      <c r="L1074" s="1" t="n">
+        <v>0.0271</v>
+      </c>
+      <c r="M1074" s="1" t="n">
+        <v>0.0197</v>
+      </c>
+      <c r="N1074" s="1" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="O1074" s="1" t="n">
+        <v>0.0089</v>
+      </c>
       <c r="P1074" s="1" t="n">
         <f aca="false">SUM(F1074:O1074)</f>
-        <v>0</v>
+        <v>0.3982</v>
+      </c>
+      <c r="Q1074" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1074" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="W1074" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1074" s="1" t="n">
         <v>1</v>
@@ -45651,9 +48273,48 @@
       <c r="E1075" s="1" t="n">
         <v>1100</v>
       </c>
+      <c r="F1075" s="1" t="n">
+        <v>0.0973</v>
+      </c>
+      <c r="G1075" s="1" t="n">
+        <v>0.2229</v>
+      </c>
+      <c r="H1075" s="1" t="n">
+        <v>0.0375</v>
+      </c>
+      <c r="I1075" s="1" t="n">
+        <v>0.0092</v>
+      </c>
+      <c r="J1075" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1075" s="1" t="n">
+        <v>0.1968</v>
+      </c>
+      <c r="L1075" s="1" t="n">
+        <v>0.0683</v>
+      </c>
+      <c r="M1075" s="1" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="N1075" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1075" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="P1075" s="1" t="n">
         <f aca="false">SUM(F1075:O1075)</f>
-        <v>0</v>
+        <v>0.66</v>
+      </c>
+      <c r="Q1075" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1075" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="W1075" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1075" s="1" t="n">
         <v>2</v>
@@ -45669,9 +48330,48 @@
       <c r="C1076" s="1" t="n">
         <v>1100</v>
       </c>
+      <c r="F1076" s="1" t="n">
+        <v>0.0644</v>
+      </c>
+      <c r="G1076" s="1" t="n">
+        <v>0.0403</v>
+      </c>
+      <c r="H1076" s="1" t="n">
+        <v>0.0209</v>
+      </c>
+      <c r="I1076" s="1" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="J1076" s="1" t="n">
+        <v>0.0099</v>
+      </c>
+      <c r="K1076" s="1" t="n">
+        <v>0.1822</v>
+      </c>
+      <c r="L1076" s="1" t="n">
+        <v>0.0543</v>
+      </c>
+      <c r="M1076" s="1" t="n">
+        <v>0.0219</v>
+      </c>
+      <c r="N1076" s="1" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="O1076" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="P1076" s="1" t="n">
         <f aca="false">SUM(F1076:O1076)</f>
-        <v>0</v>
+        <v>0.4154</v>
+      </c>
+      <c r="Q1076" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1076" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="W1076" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1076" s="1" t="n">
         <v>1</v>
@@ -45693,9 +48393,48 @@
       <c r="E1077" s="1" t="n">
         <v>3850</v>
       </c>
+      <c r="F1077" s="1" t="n">
+        <v>0.0732</v>
+      </c>
+      <c r="G1077" s="1" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1077" s="1" t="n">
+        <v>0.1268</v>
+      </c>
+      <c r="I1077" s="1" t="n">
+        <v>0.0542</v>
+      </c>
+      <c r="J1077" s="1" t="n">
+        <v>0.0182</v>
+      </c>
+      <c r="K1077" s="1" t="n">
+        <v>0.1893</v>
+      </c>
+      <c r="L1077" s="1" t="n">
+        <v>0.0737</v>
+      </c>
+      <c r="M1077" s="1" t="n">
+        <v>0.0567</v>
+      </c>
+      <c r="N1077" s="1" t="n">
+        <v>0.0366</v>
+      </c>
+      <c r="O1077" s="1" t="n">
+        <v>0.0172</v>
+      </c>
       <c r="P1077" s="1" t="n">
         <f aca="false">SUM(F1077:O1077)</f>
-        <v>0</v>
+        <v>0.7209</v>
+      </c>
+      <c r="Q1077" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1077" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="W1077" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1077" s="1" t="n">
         <v>2</v>
@@ -45711,9 +48450,48 @@
       <c r="C1078" s="1" t="n">
         <v>3850</v>
       </c>
+      <c r="F1078" s="1" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="G1078" s="1" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="H1078" s="1" t="n">
+        <v>0.1192</v>
+      </c>
+      <c r="I1078" s="1" t="n">
+        <v>0.0563</v>
+      </c>
+      <c r="J1078" s="1" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="K1078" s="1" t="n">
+        <v>0.0203</v>
+      </c>
+      <c r="L1078" s="1" t="n">
+        <v>0.0319</v>
+      </c>
+      <c r="M1078" s="1" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="N1078" s="1" t="n">
+        <v>0.0379</v>
+      </c>
+      <c r="O1078" s="1" t="n">
+        <v>0.022</v>
+      </c>
       <c r="P1078" s="1" t="n">
         <f aca="false">SUM(F1078:O1078)</f>
-        <v>0</v>
+        <v>0.4276</v>
+      </c>
+      <c r="Q1078" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1078" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="W1078" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1078" s="1" t="n">
         <v>1</v>
@@ -45735,9 +48513,48 @@
       <c r="E1079" s="1" t="n">
         <v>2850</v>
       </c>
+      <c r="F1079" s="1" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1079" s="1" t="n">
+        <v>0.0757</v>
+      </c>
+      <c r="H1079" s="1" t="n">
+        <v>0.1734</v>
+      </c>
+      <c r="I1079" s="1" t="n">
+        <v>0.0886</v>
+      </c>
+      <c r="J1079" s="1" t="n">
+        <v>0.0315</v>
+      </c>
+      <c r="K1079" s="1" t="n">
+        <v>0.0273</v>
+      </c>
+      <c r="L1079" s="1" t="n">
+        <v>0.0555</v>
+      </c>
+      <c r="M1079" s="1" t="n">
+        <v>0.0964</v>
+      </c>
+      <c r="N1079" s="1" t="n">
+        <v>0.0689</v>
+      </c>
+      <c r="O1079" s="1" t="n">
+        <v>0.0327</v>
+      </c>
       <c r="P1079" s="1" t="n">
         <f aca="false">SUM(F1079:O1079)</f>
-        <v>0</v>
+        <v>0.68</v>
+      </c>
+      <c r="Q1079" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1079" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="W1079" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1079" s="1" t="n">
         <v>2</v>
@@ -45751,8 +48568,17 @@
         <f aca="false">SUM(F1080:O1080)</f>
         <v>0</v>
       </c>
+      <c r="Q1080" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1080" s="1" t="n">
+        <v>0.0104</v>
+      </c>
       <c r="V1080" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="W1080" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1080" s="1" t="n">
         <v>1</v>
@@ -45778,6 +48604,18 @@
         <f aca="false">SUM(F1081:O1081)</f>
         <v>0</v>
       </c>
+      <c r="Q1081" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1081" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="V1081" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1081" s="1" t="n">
+        <v>15</v>
+      </c>
       <c r="X1081" s="1" t="n">
         <v>2</v>
       </c>
@@ -45796,6 +48634,18 @@
         <f aca="false">SUM(F1082:O1082)</f>
         <v>0</v>
       </c>
+      <c r="Q1082" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1082" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="V1082" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1082" s="1" t="n">
+        <v>15</v>
+      </c>
       <c r="X1082" s="1" t="n">
         <v>1</v>
       </c>
@@ -45820,6 +48670,18 @@
         <f aca="false">SUM(F1083:O1083)</f>
         <v>0</v>
       </c>
+      <c r="Q1083" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1083" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="V1083" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1083" s="1" t="n">
+        <v>15</v>
+      </c>
       <c r="X1083" s="1" t="n">
         <v>2</v>
       </c>
@@ -45838,6 +48700,18 @@
         <f aca="false">SUM(F1084:O1084)</f>
         <v>0</v>
       </c>
+      <c r="Q1084" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1084" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="V1084" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1084" s="1" t="n">
+        <v>15</v>
+      </c>
       <c r="X1084" s="1" t="n">
         <v>1</v>
       </c>
@@ -45862,6 +48736,18 @@
         <f aca="false">SUM(F1085:O1085)</f>
         <v>0</v>
       </c>
+      <c r="Q1085" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1085" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="V1085" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1085" s="1" t="n">
+        <v>15</v>
+      </c>
       <c r="X1085" s="1" t="n">
         <v>2</v>
       </c>
@@ -45874,8 +48760,17 @@
         <f aca="false">SUM(F1086:O1086)</f>
         <v>0</v>
       </c>
+      <c r="Q1086" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1086" s="1" t="n">
+        <v>0.0104</v>
+      </c>
       <c r="V1086" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="W1086" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1086" s="1" t="n">
         <v>1</v>
@@ -45897,9 +48792,48 @@
       <c r="E1087" s="1" t="n">
         <v>350</v>
       </c>
+      <c r="F1087" s="1" t="n">
+        <v>0.0325</v>
+      </c>
+      <c r="G1087" s="1" t="n">
+        <v>0.0634</v>
+      </c>
+      <c r="H1087" s="1" t="n">
+        <v>0.0933</v>
+      </c>
+      <c r="I1087" s="1" t="n">
+        <v>0.0566</v>
+      </c>
+      <c r="J1087" s="1" t="n">
+        <v>0.0249</v>
+      </c>
+      <c r="K1087" s="1" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="L1087" s="1" t="n">
+        <v>0.0844</v>
+      </c>
+      <c r="M1087" s="1" t="n">
+        <v>0.2047</v>
+      </c>
+      <c r="N1087" s="1" t="n">
+        <v>0.0618</v>
+      </c>
+      <c r="O1087" s="1" t="n">
+        <v>0.0265</v>
+      </c>
       <c r="P1087" s="1" t="n">
         <f aca="false">SUM(F1087:O1087)</f>
-        <v>0</v>
+        <v>0.6831</v>
+      </c>
+      <c r="Q1087" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1087" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="W1087" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1087" s="1" t="n">
         <v>2</v>
@@ -45913,8 +48847,17 @@
         <f aca="false">SUM(F1088:O1088)</f>
         <v>0</v>
       </c>
+      <c r="Q1088" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1088" s="1" t="n">
+        <v>0.0104</v>
+      </c>
       <c r="V1088" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="W1088" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1088" s="1" t="n">
         <v>1</v>
@@ -45936,9 +48879,48 @@
       <c r="E1089" s="1" t="n">
         <v>3350</v>
       </c>
+      <c r="F1089" s="1" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="G1089" s="1" t="n">
+        <v>0.0695</v>
+      </c>
+      <c r="H1089" s="1" t="n">
+        <v>0.0447</v>
+      </c>
+      <c r="I1089" s="1" t="n">
+        <v>0.0247</v>
+      </c>
+      <c r="J1089" s="1" t="n">
+        <v>0.0134</v>
+      </c>
+      <c r="K1089" s="1" t="n">
+        <v>0.1074</v>
+      </c>
+      <c r="L1089" s="1" t="n">
+        <v>0.0934</v>
+      </c>
+      <c r="M1089" s="1" t="n">
+        <v>0.1677</v>
+      </c>
+      <c r="N1089" s="1" t="n">
+        <v>0.0332</v>
+      </c>
+      <c r="O1089" s="1" t="n">
+        <v>0.0127</v>
+      </c>
       <c r="P1089" s="1" t="n">
         <f aca="false">SUM(F1089:O1089)</f>
-        <v>0</v>
+        <v>0.6797</v>
+      </c>
+      <c r="Q1089" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1089" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="W1089" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1089" s="1" t="n">
         <v>2</v>
@@ -45954,9 +48936,48 @@
       <c r="C1090" s="1" t="n">
         <v>3350</v>
       </c>
+      <c r="F1090" s="1" t="n">
+        <v>0.1041</v>
+      </c>
+      <c r="G1090" s="1" t="n">
+        <v>0.0514</v>
+      </c>
+      <c r="H1090" s="1" t="n">
+        <v>0.0234</v>
+      </c>
+      <c r="I1090" s="1" t="n">
+        <v>0.0122</v>
+      </c>
+      <c r="J1090" s="1" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="K1090" s="1" t="n">
+        <v>0.0952</v>
+      </c>
+      <c r="L1090" s="1" t="n">
+        <v>0.0483</v>
+      </c>
+      <c r="M1090" s="1" t="n">
+        <v>0.0219</v>
+      </c>
+      <c r="N1090" s="1" t="n">
+        <v>0.0115</v>
+      </c>
+      <c r="O1090" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="P1090" s="1" t="n">
         <f aca="false">SUM(F1090:O1090)</f>
-        <v>0</v>
+        <v>0.379</v>
+      </c>
+      <c r="Q1090" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1090" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="W1090" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1090" s="1" t="n">
         <v>1</v>
@@ -45978,9 +48999,48 @@
       <c r="E1091" s="1" t="n">
         <v>3350</v>
       </c>
+      <c r="F1091" s="1" t="n">
+        <v>0.1088</v>
+      </c>
+      <c r="G1091" s="1" t="n">
+        <v>0.0729</v>
+      </c>
+      <c r="H1091" s="1" t="n">
+        <v>0.0928</v>
+      </c>
+      <c r="I1091" s="1" t="n">
+        <v>0.0776</v>
+      </c>
+      <c r="J1091" s="1" t="n">
+        <v>0.0272</v>
+      </c>
+      <c r="K1091" s="1" t="n">
+        <v>0.0999</v>
+      </c>
+      <c r="L1091" s="1" t="n">
+        <v>0.0642</v>
+      </c>
+      <c r="M1091" s="1" t="n">
+        <v>0.0627</v>
+      </c>
+      <c r="N1091" s="1" t="n">
+        <v>0.0538</v>
+      </c>
+      <c r="O1091" s="1" t="n">
+        <v>0.0272</v>
+      </c>
       <c r="P1091" s="1" t="n">
         <f aca="false">SUM(F1091:O1091)</f>
-        <v>0</v>
+        <v>0.6871</v>
+      </c>
+      <c r="Q1091" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1091" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="W1091" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1091" s="1" t="n">
         <v>2</v>
@@ -45996,9 +49056,48 @@
       <c r="C1092" s="1" t="n">
         <v>3350</v>
       </c>
+      <c r="F1092" s="1" t="n">
+        <v>0.0157</v>
+      </c>
+      <c r="G1092" s="1" t="n">
+        <v>0.0336</v>
+      </c>
+      <c r="H1092" s="1" t="n">
+        <v>0.0816</v>
+      </c>
+      <c r="I1092" s="1" t="n">
+        <v>0.0769</v>
+      </c>
+      <c r="J1092" s="1" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="K1092" s="1" t="n">
+        <v>0.0151</v>
+      </c>
+      <c r="L1092" s="1" t="n">
+        <v>0.0266</v>
+      </c>
+      <c r="M1092" s="1" t="n">
+        <v>0.0512</v>
+      </c>
+      <c r="N1092" s="1" t="n">
+        <v>0.0531</v>
+      </c>
+      <c r="O1092" s="1" t="n">
+        <v>0.0304</v>
+      </c>
       <c r="P1092" s="1" t="n">
         <f aca="false">SUM(F1092:O1092)</f>
-        <v>0</v>
+        <v>0.4152</v>
+      </c>
+      <c r="Q1092" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1092" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="W1092" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1092" s="1" t="n">
         <v>1</v>
@@ -46020,9 +49119,48 @@
       <c r="E1093" s="1" t="n">
         <v>4850</v>
       </c>
+      <c r="F1093" s="1" t="n">
+        <v>0.1151</v>
+      </c>
+      <c r="G1093" s="1" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="H1093" s="1" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="I1093" s="1" t="n">
+        <v>0.0773</v>
+      </c>
+      <c r="J1093" s="1" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="K1093" s="1" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="L1093" s="1" t="n">
+        <v>0.0515</v>
+      </c>
+      <c r="M1093" s="1" t="n">
+        <v>0.0615</v>
+      </c>
+      <c r="N1093" s="1" t="n">
+        <v>0.0533</v>
+      </c>
+      <c r="O1093" s="1" t="n">
+        <v>0.0269</v>
+      </c>
       <c r="P1093" s="1" t="n">
         <f aca="false">SUM(F1093:O1093)</f>
-        <v>0</v>
+        <v>0.6706</v>
+      </c>
+      <c r="Q1093" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1093" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="W1093" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1093" s="1" t="n">
         <v>2</v>
@@ -46036,8 +49174,17 @@
         <f aca="false">SUM(F1094:O1094)</f>
         <v>0</v>
       </c>
+      <c r="Q1094" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1094" s="1" t="n">
+        <v>0.0104</v>
+      </c>
       <c r="V1094" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="W1094" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1094" s="1" t="n">
         <v>1</v>
@@ -46059,9 +49206,48 @@
       <c r="E1095" s="1" t="n">
         <v>850</v>
       </c>
+      <c r="F1095" s="1" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="G1095" s="1" t="n">
+        <v>0.1234</v>
+      </c>
+      <c r="H1095" s="1" t="n">
+        <v>0.0559</v>
+      </c>
+      <c r="I1095" s="1" t="n">
+        <v>0.0261</v>
+      </c>
+      <c r="J1095" s="1" t="n">
+        <v>0.0145</v>
+      </c>
+      <c r="K1095" s="1" t="n">
+        <v>0.0712</v>
+      </c>
+      <c r="L1095" s="1" t="n">
+        <v>0.1282</v>
+      </c>
+      <c r="M1095" s="1" t="n">
+        <v>0.0912</v>
+      </c>
+      <c r="N1095" s="1" t="n">
+        <v>0.0292</v>
+      </c>
+      <c r="O1095" s="1" t="n">
+        <v>0.0132</v>
+      </c>
       <c r="P1095" s="1" t="n">
         <f aca="false">SUM(F1095:O1095)</f>
-        <v>0</v>
+        <v>0.6819</v>
+      </c>
+      <c r="Q1095" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1095" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="W1095" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1095" s="1" t="n">
         <v>2</v>
@@ -46077,9 +49263,48 @@
       <c r="C1096" s="1" t="n">
         <v>850</v>
       </c>
+      <c r="F1096" s="1" t="n">
+        <v>0.0312</v>
+      </c>
+      <c r="G1096" s="1" t="n">
+        <v>0.0429</v>
+      </c>
+      <c r="H1096" s="1" t="n">
+        <v>0.0388</v>
+      </c>
+      <c r="I1096" s="1" t="n">
+        <v>0.0236</v>
+      </c>
+      <c r="J1096" s="1" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="K1096" s="1" t="n">
+        <v>0.0398</v>
+      </c>
+      <c r="L1096" s="1" t="n">
+        <v>0.1031</v>
+      </c>
+      <c r="M1096" s="1" t="n">
+        <v>0.0799</v>
+      </c>
+      <c r="N1096" s="1" t="n">
+        <v>0.0273</v>
+      </c>
+      <c r="O1096" s="1" t="n">
+        <v>0.0146</v>
+      </c>
       <c r="P1096" s="1" t="n">
         <f aca="false">SUM(F1096:O1096)</f>
-        <v>0</v>
+        <v>0.4172</v>
+      </c>
+      <c r="Q1096" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1096" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="W1096" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1096" s="1" t="n">
         <v>1</v>
@@ -46101,9 +49326,48 @@
       <c r="E1097" s="1" t="n">
         <v>3600</v>
       </c>
+      <c r="F1097" s="1" t="n">
+        <v>0.0231</v>
+      </c>
+      <c r="G1097" s="1" t="n">
+        <v>0.0366</v>
+      </c>
+      <c r="H1097" s="1" t="n">
+        <v>0.0376</v>
+      </c>
+      <c r="I1097" s="1" t="n">
+        <v>0.0518</v>
+      </c>
+      <c r="J1097" s="1" t="n">
+        <v>0.1752</v>
+      </c>
+      <c r="K1097" s="1" t="n">
+        <v>0.0308</v>
+      </c>
+      <c r="L1097" s="1" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="M1097" s="1" t="n">
+        <v>0.0796</v>
+      </c>
+      <c r="N1097" s="1" t="n">
+        <v>0.0472</v>
+      </c>
+      <c r="O1097" s="1" t="n">
+        <v>0.092</v>
+      </c>
       <c r="P1097" s="1" t="n">
         <f aca="false">SUM(F1097:O1097)</f>
-        <v>0</v>
+        <v>0.6719</v>
+      </c>
+      <c r="Q1097" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1097" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="W1097" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1097" s="1" t="n">
         <v>2</v>
@@ -46119,9 +49383,48 @@
       <c r="C1098" s="1" t="n">
         <v>3600</v>
       </c>
+      <c r="F1098" s="1" t="n">
+        <v>0.0136</v>
+      </c>
+      <c r="G1098" s="1" t="n">
+        <v>0.0169</v>
+      </c>
+      <c r="H1098" s="1" t="n">
+        <v>0.0191</v>
+      </c>
+      <c r="I1098" s="1" t="n">
+        <v>0.0464</v>
+      </c>
+      <c r="J1098" s="1" t="n">
+        <v>0.1755</v>
+      </c>
+      <c r="K1098" s="1" t="n">
+        <v>0.0161</v>
+      </c>
+      <c r="L1098" s="1" t="n">
+        <v>0.0197</v>
+      </c>
+      <c r="M1098" s="1" t="n">
+        <v>0.0184</v>
+      </c>
+      <c r="N1098" s="1" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="O1098" s="1" t="n">
+        <v>0.0925</v>
+      </c>
       <c r="P1098" s="1" t="n">
         <f aca="false">SUM(F1098:O1098)</f>
-        <v>0</v>
+        <v>0.4552</v>
+      </c>
+      <c r="Q1098" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1098" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="W1098" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1098" s="1" t="n">
         <v>1</v>
@@ -46143,9 +49446,48 @@
       <c r="E1099" s="1" t="n">
         <v>600</v>
       </c>
+      <c r="F1099" s="1" t="n">
+        <v>0.0505</v>
+      </c>
+      <c r="G1099" s="1" t="n">
+        <v>0.0331</v>
+      </c>
+      <c r="H1099" s="1" t="n">
+        <v>0.0196</v>
+      </c>
+      <c r="I1099" s="1" t="n">
+        <v>0.0402</v>
+      </c>
+      <c r="J1099" s="1" t="n">
+        <v>0.1689</v>
+      </c>
+      <c r="K1099" s="1" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="L1099" s="1" t="n">
+        <v>0.0502</v>
+      </c>
+      <c r="M1099" s="1" t="n">
+        <v>0.0213</v>
+      </c>
+      <c r="N1099" s="1" t="n">
+        <v>0.0317</v>
+      </c>
+      <c r="O1099" s="1" t="n">
+        <v>0.085</v>
+      </c>
       <c r="P1099" s="1" t="n">
         <f aca="false">SUM(F1099:O1099)</f>
-        <v>0</v>
+        <v>0.6835</v>
+      </c>
+      <c r="Q1099" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1099" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="W1099" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1099" s="1" t="n">
         <v>2</v>
@@ -46159,8 +49501,17 @@
         <f aca="false">SUM(F1100:O1100)</f>
         <v>0</v>
       </c>
+      <c r="Q1100" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1100" s="1" t="n">
+        <v>0.0104</v>
+      </c>
       <c r="V1100" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="W1100" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1100" s="1" t="n">
         <v>1</v>
@@ -46182,9 +49533,48 @@
       <c r="E1101" s="1" t="n">
         <v>1850</v>
       </c>
+      <c r="F1101" s="1" t="n">
+        <v>0.1044</v>
+      </c>
+      <c r="G1101" s="1" t="n">
+        <v>0.0788</v>
+      </c>
+      <c r="H1101" s="1" t="n">
+        <v>0.0375</v>
+      </c>
+      <c r="I1101" s="1" t="n">
+        <v>0.0148</v>
+      </c>
+      <c r="J1101" s="1" t="n">
+        <v>0.0089</v>
+      </c>
+      <c r="K1101" s="1" t="n">
+        <v>0.2618</v>
+      </c>
+      <c r="L1101" s="1" t="n">
+        <v>0.1178</v>
+      </c>
+      <c r="M1101" s="1" t="n">
+        <v>0.0418</v>
+      </c>
+      <c r="N1101" s="1" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="O1101" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="P1101" s="1" t="n">
         <f aca="false">SUM(F1101:O1101)</f>
-        <v>0</v>
+        <v>0.6808</v>
+      </c>
+      <c r="Q1101" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1101" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="W1101" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1101" s="1" t="n">
         <v>2</v>
@@ -46200,9 +49590,48 @@
       <c r="C1102" s="1" t="n">
         <v>1850</v>
       </c>
+      <c r="F1102" s="1" t="n">
+        <v>0.0632</v>
+      </c>
+      <c r="G1102" s="1" t="n">
+        <v>0.0557</v>
+      </c>
+      <c r="H1102" s="1" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="I1102" s="1" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="J1102" s="1" t="n">
+        <v>0.0121</v>
+      </c>
+      <c r="K1102" s="1" t="n">
+        <v>0.0963</v>
+      </c>
+      <c r="L1102" s="1" t="n">
+        <v>0.0813</v>
+      </c>
+      <c r="M1102" s="1" t="n">
+        <v>0.0335</v>
+      </c>
+      <c r="N1102" s="1" t="n">
+        <v>0.0157</v>
+      </c>
+      <c r="O1102" s="1" t="n">
+        <v>0.0096</v>
+      </c>
       <c r="P1102" s="1" t="n">
         <f aca="false">SUM(F1102:O1102)</f>
-        <v>0</v>
+        <v>0.4144</v>
+      </c>
+      <c r="Q1102" s="1" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="S1102" s="1" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="W1102" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="X1102" s="1" t="n">
         <v>1</v>
@@ -46224,9 +49653,42 @@
       <c r="E1103" s="1" t="n">
         <v>3600</v>
       </c>
+      <c r="F1103" s="1" t="n">
+        <v>0.0725</v>
+      </c>
+      <c r="G1103" s="1" t="n">
+        <v>0.0897</v>
+      </c>
+      <c r="H1103" s="1" t="n">
+        <v>0.1222</v>
+      </c>
+      <c r="I1103" s="1" t="n">
+        <v>0.0656</v>
+      </c>
+      <c r="J1103" s="1" t="n">
+        <v>0.0217</v>
+      </c>
+      <c r="K1103" s="1" t="n">
+        <v>0.1047</v>
+      </c>
+      <c r="L1103" s="1" t="n">
+        <v>0.1035</v>
+      </c>
+      <c r="M1103" s="1" t="n">
+        <v>0.0733</v>
+      </c>
+      <c r="N1103" s="1" t="n">
+        <v>0.0472</v>
+      </c>
+      <c r="O1103" s="1" t="n">
+        <v>0.022</v>
+      </c>
       <c r="P1103" s="1" t="n">
         <f aca="false">SUM(F1103:O1103)</f>
-        <v>0</v>
+        <v>0.7224</v>
+      </c>
+      <c r="W1103" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="X1103" s="1" t="n">
         <v>2</v>
@@ -46243,6 +49705,9 @@
       <c r="V1104" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="W1104" s="1" t="n">
+        <v>16</v>
+      </c>
       <c r="X1104" s="1" t="n">
         <v>1</v>
       </c>
@@ -46267,6 +49732,12 @@
         <f aca="false">SUM(F1105:O1105)</f>
         <v>0</v>
       </c>
+      <c r="V1105" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1105" s="1" t="n">
+        <v>16</v>
+      </c>
       <c r="X1105" s="1" t="n">
         <v>2</v>
       </c>
@@ -46285,6 +49756,12 @@
         <f aca="false">SUM(F1106:O1106)</f>
         <v>0</v>
       </c>
+      <c r="V1106" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1106" s="1" t="n">
+        <v>16</v>
+      </c>
       <c r="X1106" s="1" t="n">
         <v>1</v>
       </c>
@@ -46309,6 +49786,12 @@
         <f aca="false">SUM(F1107:O1107)</f>
         <v>0</v>
       </c>
+      <c r="V1107" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1107" s="1" t="n">
+        <v>16</v>
+      </c>
       <c r="X1107" s="1" t="n">
         <v>2</v>
       </c>
@@ -46323,9 +49806,42 @@
       <c r="C1108" s="1" t="n">
         <v>1850</v>
       </c>
+      <c r="F1108" s="1" t="n">
+        <v>0.0122</v>
+      </c>
+      <c r="G1108" s="1" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="H1108" s="1" t="n">
+        <v>0.0244</v>
+      </c>
+      <c r="I1108" s="1" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="J1108" s="1" t="n">
+        <v>0.0642</v>
+      </c>
+      <c r="K1108" s="1" t="n">
+        <v>0.0137</v>
+      </c>
+      <c r="L1108" s="1" t="n">
+        <v>0.0192</v>
+      </c>
+      <c r="M1108" s="1" t="n">
+        <v>0.0277</v>
+      </c>
+      <c r="N1108" s="1" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="O1108" s="1" t="n">
+        <v>0.1115</v>
+      </c>
       <c r="P1108" s="1" t="n">
         <f aca="false">SUM(F1108:O1108)</f>
-        <v>0</v>
+        <v>0.4359</v>
+      </c>
+      <c r="W1108" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="X1108" s="1" t="n">
         <v>1</v>
@@ -46347,9 +49863,42 @@
       <c r="E1109" s="1" t="n">
         <v>1600</v>
       </c>
+      <c r="F1109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1109" s="1" t="n">
+        <v>0.0206</v>
+      </c>
+      <c r="I1109" s="1" t="n">
+        <v>0.0711</v>
+      </c>
+      <c r="J1109" s="1" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="K1109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1109" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M1109" s="1" t="n">
+        <v>0.0259</v>
+      </c>
+      <c r="N1109" s="1" t="n">
+        <v>0.1169</v>
+      </c>
+      <c r="O1109" s="1" t="n">
+        <v>0.2931</v>
+      </c>
       <c r="P1109" s="1" t="n">
         <f aca="false">SUM(F1109:O1109)</f>
-        <v>0</v>
+        <v>0.6516</v>
+      </c>
+      <c r="W1109" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="X1109" s="1" t="n">
         <v>2</v>
@@ -46365,9 +49914,42 @@
       <c r="C1110" s="1" t="n">
         <v>1600</v>
       </c>
+      <c r="F1110" s="1" t="n">
+        <v>0.0101</v>
+      </c>
+      <c r="G1110" s="1" t="n">
+        <v>0.0146</v>
+      </c>
+      <c r="H1110" s="1" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="I1110" s="1" t="n">
+        <v>0.0366</v>
+      </c>
+      <c r="J1110" s="1" t="n">
+        <v>0.0716</v>
+      </c>
+      <c r="K1110" s="1" t="n">
+        <v>0.0114</v>
+      </c>
+      <c r="L1110" s="1" t="n">
+        <v>0.0161</v>
+      </c>
+      <c r="M1110" s="1" t="n">
+        <v>0.0177</v>
+      </c>
+      <c r="N1110" s="1" t="n">
+        <v>0.0473</v>
+      </c>
+      <c r="O1110" s="1" t="n">
+        <v>0.2085</v>
+      </c>
       <c r="P1110" s="1" t="n">
         <f aca="false">SUM(F1110:O1110)</f>
-        <v>0</v>
+        <v>0.4509</v>
+      </c>
+      <c r="W1110" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="X1110" s="1" t="n">
         <v>1</v>
@@ -46389,9 +49971,42 @@
       <c r="E1111" s="1" t="n">
         <v>4850</v>
       </c>
+      <c r="F1111" s="1" t="n">
+        <v>0.0219</v>
+      </c>
+      <c r="G1111" s="1" t="n">
+        <v>0.0971</v>
+      </c>
+      <c r="H1111" s="1" t="n">
+        <v>0.1083</v>
+      </c>
+      <c r="I1111" s="1" t="n">
+        <v>0.0464</v>
+      </c>
+      <c r="J1111" s="1" t="n">
+        <v>0.069</v>
+      </c>
+      <c r="K1111" s="1" t="n">
+        <v>0.0156</v>
+      </c>
+      <c r="L1111" s="1" t="n">
+        <v>0.0301</v>
+      </c>
+      <c r="M1111" s="1" t="n">
+        <v>0.0338</v>
+      </c>
+      <c r="N1111" s="1" t="n">
+        <v>0.0521</v>
+      </c>
+      <c r="O1111" s="1" t="n">
+        <v>0.2066</v>
+      </c>
       <c r="P1111" s="1" t="n">
         <f aca="false">SUM(F1111:O1111)</f>
-        <v>0</v>
+        <v>0.6809</v>
+      </c>
+      <c r="W1111" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="X1111" s="1" t="n">
         <v>2</v>
@@ -46407,9 +50022,42 @@
       <c r="C1112" s="1" t="n">
         <v>4850</v>
       </c>
+      <c r="F1112" s="1" t="n">
+        <v>0.0323</v>
+      </c>
+      <c r="G1112" s="1" t="n">
+        <v>0.1051</v>
+      </c>
+      <c r="H1112" s="1" t="n">
+        <v>0.1098</v>
+      </c>
+      <c r="I1112" s="1" t="n">
+        <v>0.0281</v>
+      </c>
+      <c r="J1112" s="1" t="n">
+        <v>0.0144</v>
+      </c>
+      <c r="K1112" s="1" t="n">
+        <v>0.0272</v>
+      </c>
+      <c r="L1112" s="1" t="n">
+        <v>0.0382</v>
+      </c>
+      <c r="M1112" s="1" t="n">
+        <v>0.0343</v>
+      </c>
+      <c r="N1112" s="1" t="n">
+        <v>0.0212</v>
+      </c>
+      <c r="O1112" s="1" t="n">
+        <v>0.0118</v>
+      </c>
       <c r="P1112" s="1" t="n">
         <f aca="false">SUM(F1112:O1112)</f>
-        <v>0</v>
+        <v>0.4224</v>
+      </c>
+      <c r="W1112" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="X1112" s="1" t="n">
         <v>1</v>
@@ -46431,9 +50079,42 @@
       <c r="E1113" s="1" t="n">
         <v>4350</v>
       </c>
+      <c r="F1113" s="1" t="n">
+        <v>0.1861</v>
+      </c>
+      <c r="G1113" s="1" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="H1113" s="1" t="n">
+        <v>0.1192</v>
+      </c>
+      <c r="I1113" s="1" t="n">
+        <v>0.0266</v>
+      </c>
+      <c r="J1113" s="1" t="n">
+        <v>0.0102</v>
+      </c>
+      <c r="K1113" s="1" t="n">
+        <v>0.0719</v>
+      </c>
+      <c r="L1113" s="1" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="M1113" s="1" t="n">
+        <v>0.0428</v>
+      </c>
+      <c r="N1113" s="1" t="n">
+        <v>0.0203</v>
+      </c>
+      <c r="O1113" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="P1113" s="1" t="n">
         <f aca="false">SUM(F1113:O1113)</f>
-        <v>0</v>
+        <v>0.691</v>
+      </c>
+      <c r="W1113" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="X1113" s="1" t="n">
         <v>2</v>
@@ -46449,9 +50130,42 @@
       <c r="C1114" s="1" t="n">
         <v>4350</v>
       </c>
+      <c r="F1114" s="1" t="n">
+        <v>0.1694</v>
+      </c>
+      <c r="G1114" s="1" t="n">
+        <v>0.0649</v>
+      </c>
+      <c r="H1114" s="1" t="n">
+        <v>0.0245</v>
+      </c>
+      <c r="I1114" s="1" t="n">
+        <v>0.0115</v>
+      </c>
+      <c r="J1114" s="1" t="n">
+        <v>0.0096</v>
+      </c>
+      <c r="K1114" s="1" t="n">
+        <v>0.0605</v>
+      </c>
+      <c r="L1114" s="1" t="n">
+        <v>0.0456</v>
+      </c>
+      <c r="M1114" s="1" t="n">
+        <v>0.0221</v>
+      </c>
+      <c r="N1114" s="1" t="n">
+        <v>0.0106</v>
+      </c>
+      <c r="O1114" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="P1114" s="1" t="n">
         <f aca="false">SUM(F1114:O1114)</f>
-        <v>0</v>
+        <v>0.4187</v>
+      </c>
+      <c r="W1114" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="X1114" s="1" t="n">
         <v>1</v>
@@ -46473,9 +50187,42 @@
       <c r="E1115" s="1" t="n">
         <v>850</v>
       </c>
+      <c r="F1115" s="1" t="n">
+        <v>0.2036</v>
+      </c>
+      <c r="G1115" s="1" t="n">
+        <v>0.0926</v>
+      </c>
+      <c r="H1115" s="1" t="n">
+        <v>0.0368</v>
+      </c>
+      <c r="I1115" s="1" t="n">
+        <v>0.0139</v>
+      </c>
+      <c r="J1115" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1115" s="1" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="L1115" s="1" t="n">
+        <v>0.1092</v>
+      </c>
+      <c r="M1115" s="1" t="n">
+        <v>0.0385</v>
+      </c>
+      <c r="N1115" s="1" t="n">
+        <v>0.0136</v>
+      </c>
+      <c r="O1115" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="P1115" s="1" t="n">
         <f aca="false">SUM(F1115:O1115)</f>
-        <v>0</v>
+        <v>0.6852</v>
+      </c>
+      <c r="W1115" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="X1115" s="1" t="n">
         <v>2</v>
@@ -46492,6 +50239,9 @@
       <c r="V1116" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="W1116" s="1" t="n">
+        <v>16</v>
+      </c>
       <c r="X1116" s="1" t="n">
         <v>1</v>
       </c>
@@ -46512,9 +50262,42 @@
       <c r="E1117" s="1" t="n">
         <v>1100</v>
       </c>
+      <c r="F1117" s="1" t="n">
+        <v>0.0492</v>
+      </c>
+      <c r="G1117" s="1" t="n">
+        <v>0.0451</v>
+      </c>
+      <c r="H1117" s="1" t="n">
+        <v>0.0326</v>
+      </c>
+      <c r="I1117" s="1" t="n">
+        <v>0.0458</v>
+      </c>
+      <c r="J1117" s="1" t="n">
+        <v>0.0576</v>
+      </c>
+      <c r="K1117" s="1" t="n">
+        <v>0.1332</v>
+      </c>
+      <c r="L1117" s="1" t="n">
+        <v>0.0825</v>
+      </c>
+      <c r="M1117" s="1" t="n">
+        <v>0.0404</v>
+      </c>
+      <c r="N1117" s="1" t="n">
+        <v>0.0894</v>
+      </c>
+      <c r="O1117" s="1" t="n">
+        <v>0.1627</v>
+      </c>
       <c r="P1117" s="1" t="n">
         <f aca="false">SUM(F1117:O1117)</f>
-        <v>0</v>
+        <v>0.7385</v>
+      </c>
+      <c r="W1117" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="X1117" s="1" t="n">
         <v>2</v>
@@ -46531,6 +50314,9 @@
       <c r="V1118" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="W1118" s="1" t="n">
+        <v>16</v>
+      </c>
       <c r="X1118" s="1" t="n">
         <v>1</v>
       </c>
@@ -46551,9 +50337,42 @@
       <c r="E1119" s="1" t="n">
         <v>4850</v>
       </c>
+      <c r="F1119" s="1" t="n">
+        <v>0.0416</v>
+      </c>
+      <c r="G1119" s="1" t="n">
+        <v>0.197</v>
+      </c>
+      <c r="H1119" s="1" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="I1119" s="1" t="n">
+        <v>0.0485</v>
+      </c>
+      <c r="J1119" s="1" t="n">
+        <v>0.0589</v>
+      </c>
+      <c r="K1119" s="1" t="n">
+        <v>0.0288</v>
+      </c>
+      <c r="L1119" s="1" t="n">
+        <v>0.0361</v>
+      </c>
+      <c r="M1119" s="1" t="n">
+        <v>0.0363</v>
+      </c>
+      <c r="N1119" s="1" t="n">
+        <v>0.0899</v>
+      </c>
+      <c r="O1119" s="1" t="n">
+        <v>0.163</v>
+      </c>
       <c r="P1119" s="1" t="n">
         <f aca="false">SUM(F1119:O1119)</f>
-        <v>0</v>
+        <v>0.7471</v>
+      </c>
+      <c r="W1119" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="X1119" s="1" t="n">
         <v>2</v>
@@ -46570,6 +50389,9 @@
       <c r="V1120" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="W1120" s="1" t="n">
+        <v>16</v>
+      </c>
       <c r="X1120" s="1" t="n">
         <v>1</v>
       </c>
@@ -46590,9 +50412,42 @@
       <c r="E1121" s="1" t="n">
         <v>1600</v>
       </c>
+      <c r="F1121" s="1" t="n">
+        <v>0.0959</v>
+      </c>
+      <c r="G1121" s="1" t="n">
+        <v>0.2226</v>
+      </c>
+      <c r="H1121" s="1" t="n">
+        <v>0.0514</v>
+      </c>
+      <c r="I1121" s="1" t="n">
+        <v>0.0178</v>
+      </c>
+      <c r="J1121" s="1" t="n">
+        <v>0.0098</v>
+      </c>
+      <c r="K1121" s="1" t="n">
+        <v>0.1531</v>
+      </c>
+      <c r="L1121" s="1" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="M1121" s="1" t="n">
+        <v>0.0396</v>
+      </c>
+      <c r="N1121" s="1" t="n">
+        <v>0.0159</v>
+      </c>
+      <c r="O1121" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="P1121" s="1" t="n">
         <f aca="false">SUM(F1121:O1121)</f>
-        <v>0</v>
+        <v>0.6971</v>
+      </c>
+      <c r="W1121" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="X1121" s="1" t="n">
         <v>2</v>
@@ -46609,6 +50464,9 @@
       <c r="V1122" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="W1122" s="1" t="n">
+        <v>16</v>
+      </c>
       <c r="X1122" s="1" t="n">
         <v>1</v>
       </c>
@@ -46629,9 +50487,42 @@
       <c r="E1123" s="1" t="n">
         <v>3600</v>
       </c>
+      <c r="F1123" s="1" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="G1123" s="1" t="n">
+        <v>0.1211</v>
+      </c>
+      <c r="H1123" s="1" t="n">
+        <v>0.0511</v>
+      </c>
+      <c r="I1123" s="1" t="n">
+        <v>0.0193</v>
+      </c>
+      <c r="J1123" s="1" t="n">
+        <v>0.0101</v>
+      </c>
+      <c r="K1123" s="1" t="n">
+        <v>0.1762</v>
+      </c>
+      <c r="L1123" s="1" t="n">
+        <v>0.1119</v>
+      </c>
+      <c r="M1123" s="1" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="N1123" s="1" t="n">
+        <v>0.0184</v>
+      </c>
+      <c r="O1123" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="P1123" s="1" t="n">
         <f aca="false">SUM(F1123:O1123)</f>
-        <v>0</v>
+        <v>0.6841</v>
+      </c>
+      <c r="W1123" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="X1123" s="1" t="n">
         <v>2</v>
@@ -46648,6 +50539,9 @@
       <c r="V1124" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="W1124" s="1" t="n">
+        <v>16</v>
+      </c>
       <c r="X1124" s="1" t="n">
         <v>1</v>
       </c>
@@ -46672,6 +50566,12 @@
         <f aca="false">SUM(F1125:O1125)</f>
         <v>0</v>
       </c>
+      <c r="V1125" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1125" s="1" t="n">
+        <v>16</v>
+      </c>
       <c r="X1125" s="1" t="n">
         <v>2</v>
       </c>
@@ -46687,6 +50587,9 @@
       <c r="V1126" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="W1126" s="1" t="n">
+        <v>16</v>
+      </c>
       <c r="X1126" s="1" t="n">
         <v>1</v>
       </c>
@@ -46711,6 +50614,12 @@
         <f aca="false">SUM(F1127:O1127)</f>
         <v>0</v>
       </c>
+      <c r="V1127" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1127" s="1" t="n">
+        <v>16</v>
+      </c>
       <c r="X1127" s="1" t="n">
         <v>2</v>
       </c>
@@ -46725,9 +50634,42 @@
       <c r="C1128" s="1" t="n">
         <v>1350</v>
       </c>
+      <c r="F1128" s="1" t="n">
+        <v>0.0614</v>
+      </c>
+      <c r="G1128" s="1" t="n">
+        <v>0.0415</v>
+      </c>
+      <c r="H1128" s="1" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="I1128" s="1" t="n">
+        <v>0.0122</v>
+      </c>
+      <c r="J1128" s="1" t="n">
+        <v>0.0109</v>
+      </c>
+      <c r="K1128" s="1" t="n">
+        <v>0.1563</v>
+      </c>
+      <c r="L1128" s="1" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="M1128" s="1" t="n">
+        <v>0.0236</v>
+      </c>
+      <c r="N1128" s="1" t="n">
+        <v>0.0114</v>
+      </c>
+      <c r="O1128" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="P1128" s="1" t="n">
         <f aca="false">SUM(F1128:O1128)</f>
-        <v>0</v>
+        <v>0.3983</v>
+      </c>
+      <c r="W1128" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="X1128" s="1" t="n">
         <v>1</v>
@@ -46749,9 +50691,42 @@
       <c r="E1129" s="1" t="n">
         <v>3600</v>
       </c>
+      <c r="F1129" s="1" t="n">
+        <v>0.1695</v>
+      </c>
+      <c r="G1129" s="1" t="n">
+        <v>0.0915</v>
+      </c>
+      <c r="H1129" s="1" t="n">
+        <v>0.0369</v>
+      </c>
+      <c r="I1129" s="1" t="n">
+        <v>0.0127</v>
+      </c>
+      <c r="J1129" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1129" s="1" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="L1129" s="1" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="M1129" s="1" t="n">
+        <v>0.0368</v>
+      </c>
+      <c r="N1129" s="1" t="n">
+        <v>0.0123</v>
+      </c>
+      <c r="O1129" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="P1129" s="1" t="n">
         <f aca="false">SUM(F1129:O1129)</f>
-        <v>0</v>
+        <v>0.6707</v>
+      </c>
+      <c r="W1129" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="X1129" s="1" t="n">
         <v>2</v>
@@ -46767,9 +50742,42 @@
       <c r="C1130" s="1" t="n">
         <v>3600</v>
       </c>
+      <c r="F1130" s="1" t="n">
+        <v>0.1274</v>
+      </c>
+      <c r="G1130" s="1" t="n">
+        <v>0.0663</v>
+      </c>
+      <c r="H1130" s="1" t="n">
+        <v>0.0286</v>
+      </c>
+      <c r="I1130" s="1" t="n">
+        <v>0.0134</v>
+      </c>
+      <c r="J1130" s="1" t="n">
+        <v>0.0102</v>
+      </c>
+      <c r="K1130" s="1" t="n">
+        <v>0.0796</v>
+      </c>
+      <c r="L1130" s="1" t="n">
+        <v>0.0266</v>
+      </c>
+      <c r="M1130" s="1" t="n">
+        <v>0.0126</v>
+      </c>
+      <c r="N1130" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1130" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="P1130" s="1" t="n">
         <f aca="false">SUM(F1130:O1130)</f>
-        <v>0</v>
+        <v>0.3647</v>
+      </c>
+      <c r="W1130" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="X1130" s="1" t="n">
         <v>1</v>
@@ -46791,9 +50799,42 @@
       <c r="E1131" s="1" t="n">
         <v>2350</v>
       </c>
+      <c r="F1131" s="1" t="n">
+        <v>0.1842</v>
+      </c>
+      <c r="G1131" s="1" t="n">
+        <v>0.1031</v>
+      </c>
+      <c r="H1131" s="1" t="n">
+        <v>0.0412</v>
+      </c>
+      <c r="I1131" s="1" t="n">
+        <v>0.0136</v>
+      </c>
+      <c r="J1131" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1131" s="1" t="n">
+        <v>0.1681</v>
+      </c>
+      <c r="L1131" s="1" t="n">
+        <v>0.1024</v>
+      </c>
+      <c r="M1131" s="1" t="n">
+        <v>0.0404</v>
+      </c>
+      <c r="N1131" s="1" t="n">
+        <v>0.0133</v>
+      </c>
+      <c r="O1131" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="P1131" s="1" t="n">
         <f aca="false">SUM(F1131:O1131)</f>
-        <v>0</v>
+        <v>0.6663</v>
+      </c>
+      <c r="W1131" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="X1131" s="1" t="n">
         <v>2</v>
@@ -46809,9 +50850,42 @@
       <c r="C1132" s="1" t="n">
         <v>2350</v>
       </c>
+      <c r="F1132" s="1" t="n">
+        <v>0.0854</v>
+      </c>
+      <c r="G1132" s="1" t="n">
+        <v>0.0591</v>
+      </c>
+      <c r="H1132" s="1" t="n">
+        <v>0.0295</v>
+      </c>
+      <c r="I1132" s="1" t="n">
+        <v>0.0149</v>
+      </c>
+      <c r="J1132" s="1" t="n">
+        <v>0.0111</v>
+      </c>
+      <c r="K1132" s="1" t="n">
+        <v>0.1139</v>
+      </c>
+      <c r="L1132" s="1" t="n">
+        <v>0.0694</v>
+      </c>
+      <c r="M1132" s="1" t="n">
+        <v>0.0303</v>
+      </c>
+      <c r="N1132" s="1" t="n">
+        <v>0.0142</v>
+      </c>
+      <c r="O1132" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="P1132" s="1" t="n">
         <f aca="false">SUM(F1132:O1132)</f>
-        <v>0</v>
+        <v>0.4278</v>
+      </c>
+      <c r="W1132" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="X1132" s="1" t="n">
         <v>1</v>
@@ -46833,9 +50907,42 @@
       <c r="E1133" s="1" t="n">
         <v>4100</v>
       </c>
+      <c r="F1133" s="1" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1133" s="1" t="n">
+        <v>0.0534</v>
+      </c>
+      <c r="H1133" s="1" t="n">
+        <v>0.0269</v>
+      </c>
+      <c r="I1133" s="1" t="n">
+        <v>0.0363</v>
+      </c>
+      <c r="J1133" s="1" t="n">
+        <v>0.1948</v>
+      </c>
+      <c r="K1133" s="1" t="n">
+        <v>0.1086</v>
+      </c>
+      <c r="L1133" s="1" t="n">
+        <v>0.0644</v>
+      </c>
+      <c r="M1133" s="1" t="n">
+        <v>0.0285</v>
+      </c>
+      <c r="N1133" s="1" t="n">
+        <v>0.0301</v>
+      </c>
+      <c r="O1133" s="1" t="n">
+        <v>0.0777</v>
+      </c>
       <c r="P1133" s="1" t="n">
         <f aca="false">SUM(F1133:O1133)</f>
-        <v>0</v>
+        <v>0.7007</v>
+      </c>
+      <c r="W1133" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="X1133" s="1" t="n">
         <v>2</v>
@@ -46852,6 +50959,9 @@
       <c r="V1134" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="W1134" s="1" t="n">
+        <v>16</v>
+      </c>
       <c r="X1134" s="1" t="n">
         <v>1</v>
       </c>
@@ -46872,9 +50982,42 @@
       <c r="E1135" s="1" t="n">
         <v>1850</v>
       </c>
+      <c r="F1135" s="1" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="G1135" s="1" t="n">
+        <v>0.0161</v>
+      </c>
+      <c r="H1135" s="1" t="n">
+        <v>0.0211</v>
+      </c>
+      <c r="I1135" s="1" t="n">
+        <v>0.0637</v>
+      </c>
+      <c r="J1135" s="1" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="K1135" s="1" t="n">
+        <v>0.0145</v>
+      </c>
+      <c r="L1135" s="1" t="n">
+        <v>0.0179</v>
+      </c>
+      <c r="M1135" s="1" t="n">
+        <v>0.0215</v>
+      </c>
+      <c r="N1135" s="1" t="n">
+        <v>0.0604</v>
+      </c>
+      <c r="O1135" s="1" t="n">
+        <v>0.2546</v>
+      </c>
       <c r="P1135" s="1" t="n">
         <f aca="false">SUM(F1135:O1135)</f>
-        <v>0</v>
+        <v>0.7623</v>
+      </c>
+      <c r="W1135" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="X1135" s="1" t="n">
         <v>2</v>
@@ -46890,9 +51033,42 @@
       <c r="C1136" s="1" t="n">
         <v>1850</v>
       </c>
+      <c r="F1136" s="1" t="n">
+        <v>0.0116</v>
+      </c>
+      <c r="G1136" s="1" t="n">
+        <v>0.0154</v>
+      </c>
+      <c r="H1136" s="1" t="n">
+        <v>0.0185</v>
+      </c>
+      <c r="I1136" s="1" t="n">
+        <v>0.0404</v>
+      </c>
+      <c r="J1136" s="1" t="n">
+        <v>0.1021</v>
+      </c>
+      <c r="K1136" s="1" t="n">
+        <v>0.0131</v>
+      </c>
+      <c r="L1136" s="1" t="n">
+        <v>0.0175</v>
+      </c>
+      <c r="M1136" s="1" t="n">
+        <v>0.0186</v>
+      </c>
+      <c r="N1136" s="1" t="n">
+        <v>0.0432</v>
+      </c>
+      <c r="O1136" s="1" t="n">
+        <v>0.1914</v>
+      </c>
       <c r="P1136" s="1" t="n">
         <f aca="false">SUM(F1136:O1136)</f>
-        <v>0</v>
+        <v>0.4718</v>
+      </c>
+      <c r="W1136" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="X1136" s="1" t="n">
         <v>1</v>
@@ -46914,9 +51090,42 @@
       <c r="E1137" s="1" t="n">
         <v>350</v>
       </c>
+      <c r="F1137" s="1" t="n">
+        <v>0.0338</v>
+      </c>
+      <c r="G1137" s="1" t="n">
+        <v>0.0352</v>
+      </c>
+      <c r="H1137" s="1" t="n">
+        <v>0.0258</v>
+      </c>
+      <c r="I1137" s="1" t="n">
+        <v>0.0377</v>
+      </c>
+      <c r="J1137" s="1" t="n">
+        <v>0.0972</v>
+      </c>
+      <c r="K1137" s="1" t="n">
+        <v>0.0741</v>
+      </c>
+      <c r="L1137" s="1" t="n">
+        <v>0.1395</v>
+      </c>
+      <c r="M1137" s="1" t="n">
+        <v>0.0359</v>
+      </c>
+      <c r="N1137" s="1" t="n">
+        <v>0.0419</v>
+      </c>
+      <c r="O1137" s="1" t="n">
+        <v>0.1867</v>
+      </c>
       <c r="P1137" s="1" t="n">
         <f aca="false">SUM(F1137:O1137)</f>
-        <v>0</v>
+        <v>0.7078</v>
+      </c>
+      <c r="W1137" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="X1137" s="1" t="n">
         <v>2</v>
@@ -46933,6 +51142,9 @@
       <c r="V1138" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="W1138" s="1" t="n">
+        <v>16</v>
+      </c>
       <c r="X1138" s="1" t="n">
         <v>1</v>
       </c>
@@ -46957,6 +51169,12 @@
         <f aca="false">SUM(F1139:O1139)</f>
         <v>0</v>
       </c>
+      <c r="V1139" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1139" s="1" t="n">
+        <v>16</v>
+      </c>
       <c r="X1139" s="1" t="n">
         <v>2</v>
       </c>
@@ -46975,6 +51193,12 @@
         <f aca="false">SUM(F1140:O1140)</f>
         <v>0</v>
       </c>
+      <c r="V1140" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1140" s="1" t="n">
+        <v>16</v>
+      </c>
       <c r="X1140" s="1" t="n">
         <v>1</v>
       </c>
@@ -46999,6 +51223,12 @@
         <f aca="false">SUM(F1141:O1141)</f>
         <v>0</v>
       </c>
+      <c r="V1141" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1141" s="1" t="n">
+        <v>16</v>
+      </c>
       <c r="X1141" s="1" t="n">
         <v>2</v>
       </c>
@@ -47013,9 +51243,42 @@
       <c r="C1142" s="1" t="n">
         <v>2350</v>
       </c>
+      <c r="F1142" s="1" t="n">
+        <v>0.0885</v>
+      </c>
+      <c r="G1142" s="1" t="n">
+        <v>0.0563</v>
+      </c>
+      <c r="H1142" s="1" t="n">
+        <v>0.0276</v>
+      </c>
+      <c r="I1142" s="1" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="J1142" s="1" t="n">
+        <v>0.0109</v>
+      </c>
+      <c r="K1142" s="1" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="L1142" s="1" t="n">
+        <v>0.0648</v>
+      </c>
+      <c r="M1142" s="1" t="n">
+        <v>0.0281</v>
+      </c>
+      <c r="N1142" s="1" t="n">
+        <v>0.0133</v>
+      </c>
+      <c r="O1142" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="P1142" s="1" t="n">
         <f aca="false">SUM(F1142:O1142)</f>
-        <v>0</v>
+        <v>0.4315</v>
+      </c>
+      <c r="W1142" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="X1142" s="1" t="n">
         <v>1</v>
@@ -47037,9 +51300,42 @@
       <c r="E1143" s="1" t="n">
         <v>4600</v>
       </c>
+      <c r="F1143" s="1" t="n">
+        <v>0.2465</v>
+      </c>
+      <c r="G1143" s="1" t="n">
+        <v>0.0954</v>
+      </c>
+      <c r="H1143" s="1" t="n">
+        <v>0.0363</v>
+      </c>
+      <c r="I1143" s="1" t="n">
+        <v>0.0124</v>
+      </c>
+      <c r="J1143" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1143" s="1" t="n">
+        <v>0.1597</v>
+      </c>
+      <c r="L1143" s="1" t="n">
+        <v>0.086</v>
+      </c>
+      <c r="M1143" s="1" t="n">
+        <v>0.0347</v>
+      </c>
+      <c r="N1143" s="1" t="n">
+        <v>0.0121</v>
+      </c>
+      <c r="O1143" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="P1143" s="1" t="n">
         <f aca="false">SUM(F1143:O1143)</f>
-        <v>0</v>
+        <v>0.6831</v>
+      </c>
+      <c r="W1143" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="X1143" s="1" t="n">
         <v>2</v>
@@ -47056,6 +51352,9 @@
       <c r="V1144" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="W1144" s="1" t="n">
+        <v>16</v>
+      </c>
       <c r="X1144" s="1" t="n">
         <v>1</v>
       </c>
@@ -47076,9 +51375,42 @@
       <c r="E1145" s="1" t="n">
         <v>4850</v>
       </c>
+      <c r="F1145" s="1" t="n">
+        <v>0.2649</v>
+      </c>
+      <c r="G1145" s="1" t="n">
+        <v>0.1605</v>
+      </c>
+      <c r="H1145" s="1" t="n">
+        <v>0.0472</v>
+      </c>
+      <c r="I1145" s="1" t="n">
+        <v>0.0169</v>
+      </c>
+      <c r="J1145" s="1" t="n">
+        <v>0.0093</v>
+      </c>
+      <c r="K1145" s="1" t="n">
+        <v>0.0855</v>
+      </c>
+      <c r="L1145" s="1" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="M1145" s="1" t="n">
+        <v>0.0365</v>
+      </c>
+      <c r="N1145" s="1" t="n">
+        <v>0.0154</v>
+      </c>
+      <c r="O1145" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="P1145" s="1" t="n">
         <f aca="false">SUM(F1145:O1145)</f>
-        <v>0</v>
+        <v>0.7062</v>
+      </c>
+      <c r="W1145" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="X1145" s="1" t="n">
         <v>2</v>
@@ -47094,9 +51426,42 @@
       <c r="C1146" s="1" t="n">
         <v>4850</v>
       </c>
+      <c r="F1146" s="1" t="n">
+        <v>0.1063</v>
+      </c>
+      <c r="G1146" s="1" t="n">
+        <v>0.1217</v>
+      </c>
+      <c r="H1146" s="1" t="n">
+        <v>0.0373</v>
+      </c>
+      <c r="I1146" s="1" t="n">
+        <v>0.0163</v>
+      </c>
+      <c r="J1146" s="1" t="n">
+        <v>0.0114</v>
+      </c>
+      <c r="K1146" s="1" t="n">
+        <v>0.0505</v>
+      </c>
+      <c r="L1146" s="1" t="n">
+        <v>0.0478</v>
+      </c>
+      <c r="M1146" s="1" t="n">
+        <v>0.0282</v>
+      </c>
+      <c r="N1146" s="1" t="n">
+        <v>0.0147</v>
+      </c>
+      <c r="O1146" s="1" t="n">
+        <v>0.0087</v>
+      </c>
       <c r="P1146" s="1" t="n">
         <f aca="false">SUM(F1146:O1146)</f>
-        <v>0</v>
+        <v>0.4429</v>
+      </c>
+      <c r="W1146" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="X1146" s="1" t="n">
         <v>1</v>
@@ -47122,6 +51487,12 @@
         <f aca="false">SUM(F1147:O1147)</f>
         <v>0</v>
       </c>
+      <c r="V1147" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1147" s="1" t="n">
+        <v>16</v>
+      </c>
       <c r="X1147" s="1" t="n">
         <v>2</v>
       </c>
@@ -47137,6 +51508,9 @@
       <c r="V1148" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="W1148" s="1" t="n">
+        <v>16</v>
+      </c>
       <c r="X1148" s="1" t="n">
         <v>1</v>
       </c>
@@ -47161,6 +51535,12 @@
         <f aca="false">SUM(F1149:O1149)</f>
         <v>0</v>
       </c>
+      <c r="V1149" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1149" s="1" t="n">
+        <v>16</v>
+      </c>
       <c r="X1149" s="1" t="n">
         <v>2</v>
       </c>
@@ -47175,9 +51555,42 @@
       <c r="C1150" s="1" t="n">
         <v>2600</v>
       </c>
+      <c r="F1150" s="1" t="n">
+        <v>0.0453</v>
+      </c>
+      <c r="G1150" s="1" t="n">
+        <v>0.0752</v>
+      </c>
+      <c r="H1150" s="1" t="n">
+        <v>0.0546</v>
+      </c>
+      <c r="I1150" s="1" t="n">
+        <v>0.0243</v>
+      </c>
+      <c r="J1150" s="1" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="K1150" s="1" t="n">
+        <v>0.0487</v>
+      </c>
+      <c r="L1150" s="1" t="n">
+        <v>0.0771</v>
+      </c>
+      <c r="M1150" s="1" t="n">
+        <v>0.0555</v>
+      </c>
+      <c r="N1150" s="1" t="n">
+        <v>0.0242</v>
+      </c>
+      <c r="O1150" s="1" t="n">
+        <v>0.0101</v>
+      </c>
       <c r="P1150" s="1" t="n">
         <f aca="false">SUM(F1150:O1150)</f>
-        <v>0</v>
+        <v>0.427</v>
+      </c>
+      <c r="W1150" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="X1150" s="1" t="n">
         <v>1</v>
@@ -47199,9 +51612,42 @@
       <c r="E1151" s="1" t="n">
         <v>3600</v>
       </c>
+      <c r="F1151" s="1" t="n">
+        <v>0.0434</v>
+      </c>
+      <c r="G1151" s="1" t="n">
+        <v>0.0779</v>
+      </c>
+      <c r="H1151" s="1" t="n">
+        <v>0.0778</v>
+      </c>
+      <c r="I1151" s="1" t="n">
+        <v>0.1493</v>
+      </c>
+      <c r="J1151" s="1" t="n">
+        <v>0.0703</v>
+      </c>
+      <c r="K1151" s="1" t="n">
+        <v>0.0458</v>
+      </c>
+      <c r="L1151" s="1" t="n">
+        <v>0.0771</v>
+      </c>
+      <c r="M1151" s="1" t="n">
+        <v>0.0713</v>
+      </c>
+      <c r="N1151" s="1" t="n">
+        <v>0.0727</v>
+      </c>
+      <c r="O1151" s="1" t="n">
+        <v>0.0596</v>
+      </c>
       <c r="P1151" s="1" t="n">
         <f aca="false">SUM(F1151:O1151)</f>
-        <v>0</v>
+        <v>0.7452</v>
+      </c>
+      <c r="W1151" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="X1151" s="1" t="n">
         <v>2</v>
@@ -47217,9 +51663,42 @@
       <c r="C1152" s="1" t="n">
         <v>3600</v>
       </c>
+      <c r="F1152" s="1" t="n">
+        <v>0.0144</v>
+      </c>
+      <c r="G1152" s="1" t="n">
+        <v>0.0236</v>
+      </c>
+      <c r="H1152" s="1" t="n">
+        <v>0.0424</v>
+      </c>
+      <c r="I1152" s="1" t="n">
+        <v>0.1405</v>
+      </c>
+      <c r="J1152" s="1" t="n">
+        <v>0.0716</v>
+      </c>
+      <c r="K1152" s="1" t="n">
+        <v>0.0164</v>
+      </c>
+      <c r="L1152" s="1" t="n">
+        <v>0.0232</v>
+      </c>
+      <c r="M1152" s="1" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="N1152" s="1" t="n">
+        <v>0.0627</v>
+      </c>
+      <c r="O1152" s="1" t="n">
+        <v>0.0594</v>
+      </c>
       <c r="P1152" s="1" t="n">
         <f aca="false">SUM(F1152:O1152)</f>
-        <v>0</v>
+        <v>0.4882</v>
+      </c>
+      <c r="W1152" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="X1152" s="1" t="n">
         <v>1</v>
@@ -47241,9 +51720,42 @@
       <c r="E1153" s="1" t="n">
         <v>350</v>
       </c>
+      <c r="F1153" s="1" t="n">
+        <v>0.0414</v>
+      </c>
+      <c r="G1153" s="1" t="n">
+        <v>0.0413</v>
+      </c>
+      <c r="H1153" s="1" t="n">
+        <v>0.0463</v>
+      </c>
+      <c r="I1153" s="1" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="J1153" s="1" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="K1153" s="1" t="n">
+        <v>0.1629</v>
+      </c>
+      <c r="L1153" s="1" t="n">
+        <v>0.0744</v>
+      </c>
+      <c r="M1153" s="1" t="n">
+        <v>0.0423</v>
+      </c>
+      <c r="N1153" s="1" t="n">
+        <v>0.0601</v>
+      </c>
+      <c r="O1153" s="1" t="n">
+        <v>0.054</v>
+      </c>
       <c r="P1153" s="1" t="n">
         <f aca="false">SUM(F1153:O1153)</f>
-        <v>0</v>
+        <v>0.7257</v>
+      </c>
+      <c r="W1153" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="X1153" s="1" t="n">
         <v>2</v>
@@ -47259,9 +51771,42 @@
       <c r="C1154" s="1" t="n">
         <v>350</v>
       </c>
+      <c r="F1154" s="1" t="n">
+        <v>0.0452</v>
+      </c>
+      <c r="G1154" s="1" t="n">
+        <v>0.0403</v>
+      </c>
+      <c r="H1154" s="1" t="n">
+        <v>0.0231</v>
+      </c>
+      <c r="I1154" s="1" t="n">
+        <v>0.0128</v>
+      </c>
+      <c r="J1154" s="1" t="n">
+        <v>0.0116</v>
+      </c>
+      <c r="K1154" s="1" t="n">
+        <v>0.1653</v>
+      </c>
+      <c r="L1154" s="1" t="n">
+        <v>0.0734</v>
+      </c>
+      <c r="M1154" s="1" t="n">
+        <v>0.0262</v>
+      </c>
+      <c r="N1154" s="1" t="n">
+        <v>0.0128</v>
+      </c>
+      <c r="O1154" s="1" t="n">
+        <v>0.0084</v>
+      </c>
       <c r="P1154" s="1" t="n">
         <f aca="false">SUM(F1154:O1154)</f>
-        <v>0</v>
+        <v>0.4191</v>
+      </c>
+      <c r="W1154" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="X1154" s="1" t="n">
         <v>1</v>
@@ -47283,9 +51828,42 @@
       <c r="E1155" s="1" t="n">
         <v>2850</v>
       </c>
+      <c r="F1155" s="1" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1155" s="1" t="n">
+        <v>0.1047</v>
+      </c>
+      <c r="H1155" s="1" t="n">
+        <v>0.0698</v>
+      </c>
+      <c r="I1155" s="1" t="n">
+        <v>0.0241</v>
+      </c>
+      <c r="J1155" s="1" t="n">
+        <v>0.0089</v>
+      </c>
+      <c r="K1155" s="1" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="L1155" s="1" t="n">
+        <v>0.1255</v>
+      </c>
+      <c r="M1155" s="1" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="N1155" s="1" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="O1155" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="P1155" s="1" t="n">
         <f aca="false">SUM(F1155:O1155)</f>
-        <v>0</v>
+        <v>0.693</v>
+      </c>
+      <c r="W1155" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="X1155" s="1" t="n">
         <v>2</v>
@@ -47301,9 +51879,42 @@
       <c r="C1156" s="1" t="n">
         <v>2850</v>
       </c>
+      <c r="F1156" s="1" t="n">
+        <v>0.0463</v>
+      </c>
+      <c r="G1156" s="1" t="n">
+        <v>0.0852</v>
+      </c>
+      <c r="H1156" s="1" t="n">
+        <v>0.0642</v>
+      </c>
+      <c r="I1156" s="1" t="n">
+        <v>0.0273</v>
+      </c>
+      <c r="J1156" s="1" t="n">
+        <v>0.0142</v>
+      </c>
+      <c r="K1156" s="1" t="n">
+        <v>0.0469</v>
+      </c>
+      <c r="L1156" s="1" t="n">
+        <v>0.0738</v>
+      </c>
+      <c r="M1156" s="1" t="n">
+        <v>0.0585</v>
+      </c>
+      <c r="N1156" s="1" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="O1156" s="0" t="n">
+        <v>0.0126</v>
+      </c>
       <c r="P1156" s="1" t="n">
         <f aca="false">SUM(F1156:O1156)</f>
-        <v>0</v>
+        <v>0.456</v>
+      </c>
+      <c r="W1156" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="X1156" s="1" t="n">
         <v>1</v>
@@ -47325,9 +51936,42 @@
       <c r="E1157" s="1" t="n">
         <v>1850</v>
       </c>
+      <c r="F1157" s="1" t="n">
+        <v>0.1001</v>
+      </c>
+      <c r="G1157" s="1" t="n">
+        <v>0.1184</v>
+      </c>
+      <c r="H1157" s="1" t="n">
+        <v>0.0752</v>
+      </c>
+      <c r="I1157" s="1" t="n">
+        <v>0.0279</v>
+      </c>
+      <c r="J1157" s="1" t="n">
+        <v>0.0114</v>
+      </c>
+      <c r="K1157" s="1" t="n">
+        <v>0.1522</v>
+      </c>
+      <c r="L1157" s="1" t="n">
+        <v>0.1232</v>
+      </c>
+      <c r="M1157" s="1" t="n">
+        <v>0.0719</v>
+      </c>
+      <c r="N1157" s="1" t="n">
+        <v>0.0281</v>
+      </c>
+      <c r="O1157" s="1" t="n">
+        <v>0.01</v>
+      </c>
       <c r="P1157" s="1" t="n">
         <f aca="false">SUM(F1157:O1157)</f>
-        <v>0</v>
+        <v>0.7184</v>
+      </c>
+      <c r="W1157" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="X1157" s="1" t="n">
         <v>2</v>
@@ -47343,9 +51987,42 @@
       <c r="C1158" s="1" t="n">
         <v>1850</v>
       </c>
+      <c r="F1158" s="1" t="n">
+        <v>0.0693</v>
+      </c>
+      <c r="G1158" s="1" t="n">
+        <v>0.0529</v>
+      </c>
+      <c r="H1158" s="1" t="n">
+        <v>0.0264</v>
+      </c>
+      <c r="I1158" s="1" t="n">
+        <v>0.0131</v>
+      </c>
+      <c r="J1158" s="1" t="n">
+        <v>0.0109</v>
+      </c>
+      <c r="K1158" s="1" t="n">
+        <v>0.1224</v>
+      </c>
+      <c r="L1158" s="1" t="n">
+        <v>0.0687</v>
+      </c>
+      <c r="M1158" s="1" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="N1158" s="1" t="n">
+        <v>0.0132</v>
+      </c>
+      <c r="O1158" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="P1158" s="1" t="n">
         <f aca="false">SUM(F1158:O1158)</f>
-        <v>0</v>
+        <v>0.4049</v>
+      </c>
+      <c r="W1158" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="X1158" s="1" t="n">
         <v>1</v>
@@ -47367,9 +52044,42 @@
       <c r="E1159" s="1" t="n">
         <v>3350</v>
       </c>
+      <c r="F1159" s="1" t="n">
+        <v>0.0789</v>
+      </c>
+      <c r="G1159" s="1" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="H1159" s="1" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1159" s="1" t="n">
+        <v>0.0585</v>
+      </c>
+      <c r="J1159" s="1" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K1159" s="1" t="n">
+        <v>0.1319</v>
+      </c>
+      <c r="L1159" s="1" t="n">
+        <v>0.0934</v>
+      </c>
+      <c r="M1159" s="1" t="n">
+        <v>0.0754</v>
+      </c>
+      <c r="N1159" s="1" t="n">
+        <v>0.0467</v>
+      </c>
+      <c r="O1159" s="1" t="n">
+        <v>0.0203</v>
+      </c>
       <c r="P1159" s="1" t="n">
         <f aca="false">SUM(F1159:O1159)</f>
-        <v>0</v>
+        <v>0.7291</v>
+      </c>
+      <c r="W1159" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="X1159" s="1" t="n">
         <v>2</v>
@@ -47385,9 +52095,42 @@
       <c r="C1160" s="1" t="n">
         <v>3350</v>
       </c>
+      <c r="F1160" s="1" t="n">
+        <v>0.0236</v>
+      </c>
+      <c r="G1160" s="1" t="n">
+        <v>0.0544</v>
+      </c>
+      <c r="H1160" s="1" t="n">
+        <v>0.1029</v>
+      </c>
+      <c r="I1160" s="1" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="J1160" s="1" t="n">
+        <v>0.0232</v>
+      </c>
+      <c r="K1160" s="1" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="L1160" s="1" t="n">
+        <v>0.0424</v>
+      </c>
+      <c r="M1160" s="1" t="n">
+        <v>0.0613</v>
+      </c>
+      <c r="N1160" s="1" t="n">
+        <v>0.0456</v>
+      </c>
+      <c r="O1160" s="1" t="n">
+        <v>0.0228</v>
+      </c>
       <c r="P1160" s="1" t="n">
         <f aca="false">SUM(F1160:O1160)</f>
-        <v>0</v>
+        <v>0.4582</v>
+      </c>
+      <c r="W1160" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="X1160" s="1" t="n">
         <v>1</v>
@@ -47413,6 +52156,12 @@
         <f aca="false">SUM(F1161:O1161)</f>
         <v>0</v>
       </c>
+      <c r="V1161" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1161" s="1" t="n">
+        <v>16</v>
+      </c>
       <c r="X1161" s="1" t="n">
         <v>2</v>
       </c>
@@ -47431,6 +52180,12 @@
         <f aca="false">SUM(F1162:O1162)</f>
         <v>0</v>
       </c>
+      <c r="V1162" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1162" s="1" t="n">
+        <v>16</v>
+      </c>
       <c r="X1162" s="1" t="n">
         <v>1</v>
       </c>
@@ -47455,6 +52210,12 @@
         <f aca="false">SUM(F1163:O1163)</f>
         <v>0</v>
       </c>
+      <c r="V1163" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1163" s="1" t="n">
+        <v>16</v>
+      </c>
       <c r="X1163" s="1" t="n">
         <v>2</v>
       </c>
@@ -47473,6 +52234,12 @@
         <f aca="false">SUM(F1164:O1164)</f>
         <v>0</v>
       </c>
+      <c r="V1164" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1164" s="1" t="n">
+        <v>16</v>
+      </c>
       <c r="X1164" s="1" t="n">
         <v>1</v>
       </c>
@@ -47497,6 +52264,12 @@
         <f aca="false">SUM(F1165:O1165)</f>
         <v>0</v>
       </c>
+      <c r="V1165" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1165" s="1" t="n">
+        <v>16</v>
+      </c>
       <c r="X1165" s="1" t="n">
         <v>2</v>
       </c>
@@ -47511,9 +52284,42 @@
       <c r="C1166" s="1" t="n">
         <v>4100</v>
       </c>
+      <c r="F1166" s="1" t="n">
+        <v>0.0214</v>
+      </c>
+      <c r="G1166" s="1" t="n">
+        <v>0.0537</v>
+      </c>
+      <c r="H1166" s="1" t="n">
+        <v>0.1414</v>
+      </c>
+      <c r="I1166" s="1" t="n">
+        <v>0.0578</v>
+      </c>
+      <c r="J1166" s="1" t="n">
+        <v>0.0216</v>
+      </c>
+      <c r="K1166" s="1" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="L1166" s="1" t="n">
+        <v>0.0353</v>
+      </c>
+      <c r="M1166" s="1" t="n">
+        <v>0.0456</v>
+      </c>
+      <c r="N1166" s="1" t="n">
+        <v>0.0366</v>
+      </c>
+      <c r="O1166" s="1" t="n">
+        <v>0.02</v>
+      </c>
       <c r="P1166" s="1" t="n">
         <f aca="false">SUM(F1166:O1166)</f>
-        <v>0</v>
+        <v>0.4544</v>
+      </c>
+      <c r="W1166" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="X1166" s="1" t="n">
         <v>1</v>
@@ -47539,6 +52345,12 @@
         <f aca="false">SUM(F1167:O1167)</f>
         <v>0</v>
       </c>
+      <c r="V1167" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1167" s="1" t="n">
+        <v>16</v>
+      </c>
       <c r="X1167" s="1" t="n">
         <v>2</v>
       </c>
@@ -47554,6 +52366,9 @@
       <c r="V1168" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="W1168" s="1" t="n">
+        <v>16</v>
+      </c>
       <c r="X1168" s="1" t="n">
         <v>1</v>
       </c>
@@ -47578,6 +52393,12 @@
         <f aca="false">SUM(F1169:O1169)</f>
         <v>0</v>
       </c>
+      <c r="V1169" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1169" s="1" t="n">
+        <v>16</v>
+      </c>
       <c r="X1169" s="1" t="n">
         <v>2</v>
       </c>
@@ -47592,9 +52413,42 @@
       <c r="C1170" s="1" t="n">
         <v>1600</v>
       </c>
+      <c r="F1170" s="1" t="n">
+        <v>0.0168</v>
+      </c>
+      <c r="G1170" s="1" t="n">
+        <v>0.0303</v>
+      </c>
+      <c r="H1170" s="1" t="n">
+        <v>0.0467</v>
+      </c>
+      <c r="I1170" s="1" t="n">
+        <v>0.0556</v>
+      </c>
+      <c r="J1170" s="1" t="n">
+        <v>0.0315</v>
+      </c>
+      <c r="K1170" s="1" t="n">
+        <v>0.0187</v>
+      </c>
+      <c r="L1170" s="1" t="n">
+        <v>0.0326</v>
+      </c>
+      <c r="M1170" s="1" t="n">
+        <v>0.0741</v>
+      </c>
+      <c r="N1170" s="1" t="n">
+        <v>0.0908</v>
+      </c>
+      <c r="O1170" s="1" t="n">
+        <v>0.0373</v>
+      </c>
       <c r="P1170" s="1" t="n">
         <f aca="false">SUM(F1170:O1170)</f>
-        <v>0</v>
+        <v>0.4344</v>
+      </c>
+      <c r="W1170" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="X1170" s="1" t="n">
         <v>1</v>
@@ -47616,9 +52470,42 @@
       <c r="E1171" s="1" t="n">
         <v>2100</v>
       </c>
+      <c r="F1171" s="1" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1171" s="1" t="n">
+        <v>0.0739</v>
+      </c>
+      <c r="H1171" s="1" t="n">
+        <v>0.0614</v>
+      </c>
+      <c r="I1171" s="1" t="n">
+        <v>0.0557</v>
+      </c>
+      <c r="J1171" s="1" t="n">
+        <v>0.0273</v>
+      </c>
+      <c r="K1171" s="1" t="n">
+        <v>0.1171</v>
+      </c>
+      <c r="L1171" s="1" t="n">
+        <v>0.0923</v>
+      </c>
+      <c r="M1171" s="1" t="n">
+        <v>0.0896</v>
+      </c>
+      <c r="N1171" s="1" t="n">
+        <v>0.0908</v>
+      </c>
+      <c r="O1171" s="1" t="n">
+        <v>0.0331</v>
+      </c>
       <c r="P1171" s="1" t="n">
         <f aca="false">SUM(F1171:O1171)</f>
-        <v>0</v>
+        <v>0.7212</v>
+      </c>
+      <c r="W1171" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="X1171" s="1" t="n">
         <v>2</v>
@@ -47635,6 +52522,9 @@
       <c r="V1172" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="W1172" s="1" t="n">
+        <v>16</v>
+      </c>
       <c r="X1172" s="1" t="n">
         <v>1</v>
       </c>
@@ -47655,9 +52545,42 @@
       <c r="E1173" s="1" t="n">
         <v>2600</v>
       </c>
+      <c r="F1173" s="1" t="n">
+        <v>0.1247</v>
+      </c>
+      <c r="G1173" s="1" t="n">
+        <v>0.1199</v>
+      </c>
+      <c r="H1173" s="1" t="n">
+        <v>0.0586</v>
+      </c>
+      <c r="I1173" s="1" t="n">
+        <v>0.0236</v>
+      </c>
+      <c r="J1173" s="1" t="n">
+        <v>0.0129</v>
+      </c>
+      <c r="K1173" s="1" t="n">
+        <v>0.1627</v>
+      </c>
+      <c r="L1173" s="1" t="n">
+        <v>0.1379</v>
+      </c>
+      <c r="M1173" s="1" t="n">
+        <v>0.0605</v>
+      </c>
+      <c r="N1173" s="1" t="n">
+        <v>0.0233</v>
+      </c>
+      <c r="O1173" s="1" t="n">
+        <v>0.0109</v>
+      </c>
       <c r="P1173" s="1" t="n">
         <f aca="false">SUM(F1173:O1173)</f>
-        <v>0</v>
+        <v>0.735</v>
+      </c>
+      <c r="W1173" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="X1173" s="1" t="n">
         <v>2</v>
@@ -47673,9 +52596,42 @@
       <c r="C1174" s="1" t="n">
         <v>2600</v>
       </c>
+      <c r="F1174" s="1" t="n">
+        <v>0.0613</v>
+      </c>
+      <c r="G1174" s="1" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1174" s="1" t="n">
+        <v>0.0407</v>
+      </c>
+      <c r="I1174" s="1" t="n">
+        <v>0.0189</v>
+      </c>
+      <c r="J1174" s="1" t="n">
+        <v>0.0131</v>
+      </c>
+      <c r="K1174" s="1" t="n">
+        <v>0.0658</v>
+      </c>
+      <c r="L1174" s="1" t="n">
+        <v>0.0772</v>
+      </c>
+      <c r="M1174" s="1" t="n">
+        <v>0.0406</v>
+      </c>
+      <c r="N1174" s="1" t="n">
+        <v>0.0186</v>
+      </c>
+      <c r="O1174" s="1" t="n">
+        <v>0.0105</v>
+      </c>
       <c r="P1174" s="1" t="n">
         <f aca="false">SUM(F1174:O1174)</f>
-        <v>0</v>
+        <v>0.4217</v>
+      </c>
+      <c r="W1174" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="X1174" s="1" t="n">
         <v>1</v>
@@ -47697,9 +52653,39 @@
       <c r="E1175" s="1" t="n">
         <v>4600</v>
       </c>
+      <c r="F1175" s="1" t="n">
+        <v>0.0701</v>
+      </c>
+      <c r="G1175" s="1" t="n">
+        <v>0.1154</v>
+      </c>
+      <c r="H1175" s="1" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="I1175" s="1" t="n">
+        <v>0.0449</v>
+      </c>
+      <c r="J1175" s="1" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="K1175" s="1" t="n">
+        <v>0.0722</v>
+      </c>
+      <c r="L1175" s="1" t="n">
+        <v>0.0915</v>
+      </c>
+      <c r="M1175" s="1" t="n">
+        <v>0.0619</v>
+      </c>
+      <c r="N1175" s="1" t="n">
+        <v>0.0326</v>
+      </c>
+      <c r="O1175" s="1" t="n">
+        <v>0.0146</v>
+      </c>
       <c r="P1175" s="1" t="n">
         <f aca="false">SUM(F1175:O1175)</f>
-        <v>0</v>
+        <v>0.7212</v>
       </c>
       <c r="X1175" s="1" t="n">
         <v>2</v>
@@ -47740,6 +52726,9 @@
         <f aca="false">SUM(F1177:O1177)</f>
         <v>0</v>
       </c>
+      <c r="V1177" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="X1177" s="1" t="n">
         <v>2</v>
       </c>
@@ -47779,6 +52768,9 @@
         <f aca="false">SUM(F1179:O1179)</f>
         <v>0</v>
       </c>
+      <c r="V1179" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="X1179" s="1" t="n">
         <v>2</v>
       </c>
@@ -47797,6 +52789,9 @@
         <f aca="false">SUM(F1180:O1180)</f>
         <v>0</v>
       </c>
+      <c r="V1180" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="X1180" s="1" t="n">
         <v>1</v>
       </c>
@@ -47821,6 +52816,9 @@
         <f aca="false">SUM(F1181:O1181)</f>
         <v>0</v>
       </c>
+      <c r="V1181" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="X1181" s="1" t="n">
         <v>2</v>
       </c>
@@ -47835,9 +52833,39 @@
       <c r="C1182" s="1" t="n">
         <v>3850</v>
       </c>
+      <c r="F1182" s="1" t="n">
+        <v>0.0676</v>
+      </c>
+      <c r="G1182" s="1" t="n">
+        <v>0.0979</v>
+      </c>
+      <c r="H1182" s="1" t="n">
+        <v>0.0379</v>
+      </c>
+      <c r="I1182" s="1" t="n">
+        <v>0.0165</v>
+      </c>
+      <c r="J1182" s="1" t="n">
+        <v>0.0123</v>
+      </c>
+      <c r="K1182" s="1" t="n">
+        <v>0.0471</v>
+      </c>
+      <c r="L1182" s="1" t="n">
+        <v>0.0494</v>
+      </c>
+      <c r="M1182" s="1" t="n">
+        <v>0.0298</v>
+      </c>
+      <c r="N1182" s="1" t="n">
+        <v>0.0154</v>
+      </c>
+      <c r="O1182" s="1" t="n">
+        <v>0.0094</v>
+      </c>
       <c r="P1182" s="1" t="n">
         <f aca="false">SUM(F1182:O1182)</f>
-        <v>0</v>
+        <v>0.3833</v>
       </c>
       <c r="X1182" s="1" t="n">
         <v>1</v>
@@ -47859,9 +52887,39 @@
       <c r="E1183" s="1" t="n">
         <v>3850</v>
       </c>
+      <c r="F1183" s="1" t="n">
+        <v>0.0714</v>
+      </c>
+      <c r="G1183" s="1" t="n">
+        <v>0.1076</v>
+      </c>
+      <c r="H1183" s="1" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1183" s="1" t="n">
+        <v>0.1199</v>
+      </c>
+      <c r="J1183" s="1" t="n">
+        <v>0.1163</v>
+      </c>
+      <c r="K1183" s="1" t="n">
+        <v>0.0478</v>
+      </c>
+      <c r="L1183" s="1" t="n">
+        <v>0.0538</v>
+      </c>
+      <c r="M1183" s="1" t="n">
+        <v>0.0429</v>
+      </c>
+      <c r="N1183" s="1" t="n">
+        <v>0.0568</v>
+      </c>
+      <c r="O1183" s="1" t="n">
+        <v>0.0715</v>
+      </c>
       <c r="P1183" s="1" t="n">
         <f aca="false">SUM(F1183:O1183)</f>
-        <v>0</v>
+        <v>0.743</v>
       </c>
       <c r="X1183" s="1" t="n">
         <v>2</v>
@@ -47877,9 +52935,39 @@
       <c r="C1184" s="1" t="n">
         <v>3850</v>
       </c>
+      <c r="F1184" s="1" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G1184" s="1" t="n">
+        <v>0.0174</v>
+      </c>
+      <c r="H1184" s="1" t="n">
+        <v>0.0284</v>
+      </c>
+      <c r="I1184" s="1" t="n">
+        <v>0.1157</v>
+      </c>
+      <c r="J1184" s="1" t="n">
+        <v>0.1183</v>
+      </c>
+      <c r="K1184" s="1" t="n">
+        <v>0.0126</v>
+      </c>
+      <c r="L1184" s="1" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="M1184" s="1" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="N1184" s="1" t="n">
+        <v>0.0534</v>
+      </c>
+      <c r="O1184" s="1" t="n">
+        <v>0.0733</v>
+      </c>
       <c r="P1184" s="1" t="n">
         <f aca="false">SUM(F1184:O1184)</f>
-        <v>0</v>
+        <v>0.4731</v>
       </c>
       <c r="X1184" s="1" t="n">
         <v>1</v>
@@ -47901,9 +52989,39 @@
       <c r="E1185" s="1" t="n">
         <v>3100</v>
       </c>
+      <c r="F1185" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1185" s="1" t="n">
+        <v>0.0197</v>
+      </c>
+      <c r="H1185" s="1" t="n">
+        <v>0.0544</v>
+      </c>
+      <c r="I1185" s="1" t="n">
+        <v>0.1922</v>
+      </c>
+      <c r="J1185" s="1" t="n">
+        <v>0.1482</v>
+      </c>
+      <c r="K1185" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1185" s="1" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="M1185" s="1" t="n">
+        <v>0.0469</v>
+      </c>
+      <c r="N1185" s="1" t="n">
+        <v>0.1052</v>
+      </c>
+      <c r="O1185" s="1" t="n">
+        <v>0.1086</v>
+      </c>
       <c r="P1185" s="1" t="n">
         <f aca="false">SUM(F1185:O1185)</f>
-        <v>0</v>
+        <v>0.6942</v>
       </c>
       <c r="X1185" s="1" t="n">
         <v>2</v>
@@ -47919,9 +53037,39 @@
       <c r="C1186" s="1" t="n">
         <v>3100</v>
       </c>
+      <c r="F1186" s="1" t="n">
+        <v>0.0093</v>
+      </c>
+      <c r="G1186" s="1" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1186" s="1" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="I1186" s="1" t="n">
+        <v>0.0984</v>
+      </c>
+      <c r="J1186" s="1" t="n">
+        <v>0.0512</v>
+      </c>
+      <c r="K1186" s="1" t="n">
+        <v>0.0102</v>
+      </c>
+      <c r="L1186" s="1" t="n">
+        <v>0.0197</v>
+      </c>
+      <c r="M1186" s="1" t="n">
+        <v>0.0365</v>
+      </c>
+      <c r="N1186" s="1" t="n">
+        <v>0.0682</v>
+      </c>
+      <c r="O1186" s="1" t="n">
+        <v>0.0508</v>
+      </c>
       <c r="P1186" s="1" t="n">
         <f aca="false">SUM(F1186:O1186)</f>
-        <v>0</v>
+        <v>0.4053</v>
       </c>
       <c r="X1186" s="1" t="n">
         <v>1</v>
@@ -47943,9 +53091,39 @@
       <c r="E1187" s="1" t="n">
         <v>2600</v>
       </c>
+      <c r="F1187" s="1" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="G1187" s="1" t="n">
+        <v>0.0222</v>
+      </c>
+      <c r="H1187" s="1" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="I1187" s="1" t="n">
+        <v>0.1521</v>
+      </c>
+      <c r="J1187" s="1" t="n">
+        <v>0.1275</v>
+      </c>
+      <c r="K1187" s="1" t="n">
+        <v>0.0088</v>
+      </c>
+      <c r="L1187" s="1" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="M1187" s="1" t="n">
+        <v>0.0512</v>
+      </c>
+      <c r="N1187" s="1" t="n">
+        <v>0.1273</v>
+      </c>
+      <c r="O1187" s="1" t="n">
+        <v>0.1509</v>
+      </c>
       <c r="P1187" s="1" t="n">
         <f aca="false">SUM(F1187:O1187)</f>
-        <v>0</v>
+        <v>0.7176</v>
       </c>
       <c r="X1187" s="1" t="n">
         <v>2</v>
@@ -47982,9 +53160,39 @@
       <c r="E1189" s="1" t="n">
         <v>2350</v>
       </c>
+      <c r="F1189" s="1" t="n">
+        <v>0.0651</v>
+      </c>
+      <c r="G1189" s="1" t="n">
+        <v>0.0662</v>
+      </c>
+      <c r="H1189" s="1" t="n">
+        <v>0.0451</v>
+      </c>
+      <c r="I1189" s="1" t="n">
+        <v>0.0747</v>
+      </c>
+      <c r="J1189" s="1" t="n">
+        <v>0.0925</v>
+      </c>
+      <c r="K1189" s="1" t="n">
+        <v>0.0793</v>
+      </c>
+      <c r="L1189" s="1" t="n">
+        <v>0.0776</v>
+      </c>
+      <c r="M1189" s="1" t="n">
+        <v>0.0482</v>
+      </c>
+      <c r="N1189" s="1" t="n">
+        <v>0.0786</v>
+      </c>
+      <c r="O1189" s="1" t="n">
+        <v>0.1142</v>
+      </c>
       <c r="P1189" s="1" t="n">
         <f aca="false">SUM(F1189:O1189)</f>
-        <v>0</v>
+        <v>0.7415</v>
       </c>
       <c r="X1189" s="1" t="n">
         <v>2</v>
@@ -48021,9 +53229,39 @@
       <c r="E1191" s="1" t="n">
         <v>1600</v>
       </c>
+      <c r="F1191" s="1" t="n">
+        <v>0.1026</v>
+      </c>
+      <c r="G1191" s="1" t="n">
+        <v>0.1096</v>
+      </c>
+      <c r="H1191" s="1" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1191" s="1" t="n">
+        <v>0.0245</v>
+      </c>
+      <c r="J1191" s="1" t="n">
+        <v>0.0124</v>
+      </c>
+      <c r="K1191" s="1" t="n">
+        <v>0.1326</v>
+      </c>
+      <c r="L1191" s="1" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="M1191" s="1" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="N1191" s="1" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="O1191" s="1" t="n">
+        <v>0.0109</v>
+      </c>
       <c r="P1191" s="1" t="n">
         <f aca="false">SUM(F1191:O1191)</f>
-        <v>0</v>
+        <v>0.7276</v>
       </c>
       <c r="X1191" s="1" t="n">
         <v>2</v>
@@ -48060,9 +53298,39 @@
       <c r="E1193" s="1" t="n">
         <v>850</v>
       </c>
+      <c r="F1193" s="1" t="n">
+        <v>0.0834</v>
+      </c>
+      <c r="G1193" s="1" t="n">
+        <v>0.0925</v>
+      </c>
+      <c r="H1193" s="1" t="n">
+        <v>0.0548</v>
+      </c>
+      <c r="I1193" s="1" t="n">
+        <v>0.0235</v>
+      </c>
+      <c r="J1193" s="1" t="n">
+        <v>0.0124</v>
+      </c>
+      <c r="K1193" s="1" t="n">
+        <v>0.1518</v>
+      </c>
+      <c r="L1193" s="1" t="n">
+        <v>0.2012</v>
+      </c>
+      <c r="M1193" s="1" t="n">
+        <v>0.0744</v>
+      </c>
+      <c r="N1193" s="1" t="n">
+        <v>0.0255</v>
+      </c>
+      <c r="O1193" s="1" t="n">
+        <v>0.0105</v>
+      </c>
       <c r="P1193" s="1" t="n">
         <f aca="false">SUM(F1193:O1193)</f>
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="X1193" s="1" t="n">
         <v>2</v>
@@ -48099,9 +53367,36 @@
       <c r="E1195" s="1" t="n">
         <v>100</v>
       </c>
+      <c r="F1195" s="1" t="n">
+        <v>0.0942</v>
+      </c>
+      <c r="G1195" s="1" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1195" s="1" t="n">
+        <v>0.0373</v>
+      </c>
+      <c r="I1195" s="1" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="J1195" s="1" t="n">
+        <v>0.0103</v>
+      </c>
+      <c r="K1195" s="1" t="n">
+        <v>0.2716</v>
+      </c>
+      <c r="L1195" s="1" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="M1195" s="1" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="N1195" s="1" t="n">
+        <v>0.0164</v>
+      </c>
       <c r="P1195" s="1" t="n">
         <f aca="false">SUM(F1195:O1195)</f>
-        <v>0</v>
+        <v>0.7108</v>
       </c>
       <c r="X1195" s="1" t="n">
         <v>2</v>
@@ -48138,9 +53433,39 @@
       <c r="E1197" s="1" t="n">
         <v>4600</v>
       </c>
+      <c r="F1197" s="1" t="n">
+        <v>0.0697</v>
+      </c>
+      <c r="G1197" s="1" t="n">
+        <v>0.0831</v>
+      </c>
+      <c r="H1197" s="1" t="n">
+        <v>0.1713</v>
+      </c>
+      <c r="I1197" s="1" t="n">
+        <v>0.0349</v>
+      </c>
+      <c r="J1197" s="1" t="n">
+        <v>0.0135</v>
+      </c>
+      <c r="K1197" s="1" t="n">
+        <v>0.1985</v>
+      </c>
+      <c r="L1197" s="1" t="n">
+        <v>0.0727</v>
+      </c>
+      <c r="M1197" s="1" t="n">
+        <v>0.0437</v>
+      </c>
+      <c r="N1197" s="1" t="n">
+        <v>0.0243</v>
+      </c>
+      <c r="O1197" s="1" t="n">
+        <v>0.0115</v>
+      </c>
       <c r="P1197" s="1" t="n">
         <f aca="false">SUM(F1197:O1197)</f>
-        <v>0</v>
+        <v>0.7232</v>
       </c>
       <c r="X1197" s="1" t="n">
         <v>2</v>
@@ -48177,9 +53502,39 @@
       <c r="E1199" s="1" t="n">
         <v>2850</v>
       </c>
+      <c r="F1199" s="1" t="n">
+        <v>0.0186</v>
+      </c>
+      <c r="G1199" s="1" t="n">
+        <v>0.0535</v>
+      </c>
+      <c r="H1199" s="1" t="n">
+        <v>0.1647</v>
+      </c>
+      <c r="I1199" s="1" t="n">
+        <v>0.0684</v>
+      </c>
+      <c r="J1199" s="1" t="n">
+        <v>0.1457</v>
+      </c>
+      <c r="K1199" s="1" t="n">
+        <v>0.0172</v>
+      </c>
+      <c r="L1199" s="1" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="M1199" s="1" t="n">
+        <v>0.0378</v>
+      </c>
+      <c r="N1199" s="1" t="n">
+        <v>0.0567</v>
+      </c>
+      <c r="O1199" s="1" t="n">
+        <v>0.1485</v>
+      </c>
       <c r="P1199" s="1" t="n">
         <f aca="false">SUM(F1199:O1199)</f>
-        <v>0</v>
+        <v>0.7401</v>
       </c>
       <c r="X1199" s="1" t="n">
         <v>2</v>
@@ -48195,9 +53550,39 @@
       <c r="C1200" s="1" t="n">
         <v>2850</v>
       </c>
+      <c r="F1200" s="1" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="G1200" s="1" t="n">
+        <v>0.0172</v>
+      </c>
+      <c r="H1200" s="1" t="n">
+        <v>0.0194</v>
+      </c>
+      <c r="I1200" s="1" t="n">
+        <v>0.0491</v>
+      </c>
+      <c r="J1200" s="1" t="n">
+        <v>0.1444</v>
+      </c>
+      <c r="K1200" s="1" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="L1200" s="1" t="n">
+        <v>0.0181</v>
+      </c>
+      <c r="M1200" s="1" t="n">
+        <v>0.0201</v>
+      </c>
+      <c r="N1200" s="1" t="n">
+        <v>0.0472</v>
+      </c>
+      <c r="O1200" s="1" t="n">
+        <v>0.1466</v>
+      </c>
       <c r="P1200" s="1" t="n">
         <f aca="false">SUM(F1200:O1200)</f>
-        <v>0</v>
+        <v>0.4886</v>
       </c>
       <c r="X1200" s="1" t="n">
         <v>1</v>
@@ -48219,9 +53604,39 @@
       <c r="E1201" s="1" t="n">
         <v>4600</v>
       </c>
+      <c r="F1201" s="1" t="n">
+        <v>0.0807</v>
+      </c>
+      <c r="G1201" s="1" t="n">
+        <v>0.1163</v>
+      </c>
+      <c r="H1201" s="1" t="n">
+        <v>0.0363</v>
+      </c>
+      <c r="I1201" s="1" t="n">
+        <v>0.0476</v>
+      </c>
+      <c r="J1201" s="1" t="n">
+        <v>0.1391</v>
+      </c>
+      <c r="K1201" s="1" t="n">
+        <v>0.0388</v>
+      </c>
+      <c r="L1201" s="1" t="n">
+        <v>0.0406</v>
+      </c>
+      <c r="M1201" s="1" t="n">
+        <v>0.0291</v>
+      </c>
+      <c r="N1201" s="1" t="n">
+        <v>0.0454</v>
+      </c>
+      <c r="O1201" s="1" t="n">
+        <v>0.1416</v>
+      </c>
       <c r="P1201" s="1" t="n">
         <f aca="false">SUM(F1201:O1201)</f>
-        <v>0</v>
+        <v>0.7155</v>
       </c>
       <c r="X1201" s="1" t="n">
         <v>2</v>
@@ -64509,7 +69924,7 @@
       <c r="C2002" s="1" t="n">
         <v>2100</v>
       </c>
-      <c r="D2002" s="7" t="n">
+      <c r="D2002" s="8" t="n">
         <v>14680</v>
       </c>
       <c r="E2002" s="6" t="n">
@@ -64620,7 +70035,7 @@
       <c r="O2004" s="0"/>
     </row>
     <row r="2007" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D2007" s="7"/>
+      <c r="D2007" s="8"/>
       <c r="E2007" s="6"/>
     </row>
   </sheetData>
